--- a/我的家/公积金还款.xlsx
+++ b/我的家/公积金还款.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEW\Desktop\E4区\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>月供</t>
   </si>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一部分是利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -606,12 +610,12 @@
     <col min="8" max="8" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="6" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="6"/>
+    <col min="11" max="11" width="13.875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -642,8 +646,12 @@
       <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N1" s="6">
+        <f>J168</f>
+        <v>34918.569999999992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -674,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -699,7 +707,8 @@
         <v>64488.789999999994</v>
       </c>
       <c r="H3" s="9">
-        <v>3245</v>
+        <f>3080+837.89</f>
+        <v>3917.89</v>
       </c>
       <c r="I3" s="9">
         <f>IF(G2+H2&gt;ROUND(B3*2.1,2),ROUND(B3*2.1,2),G2+H2)</f>
@@ -709,23 +718,22 @@
         <f>J2+I3-B3</f>
         <v>4708.0600000000004</v>
       </c>
-      <c r="L3" s="6">
-        <f>J168</f>
-        <v>281.97000000000844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>4272.6000000000004</v>
+        <v>4272.62</v>
       </c>
       <c r="C4" s="8">
         <v>2500</v>
       </c>
       <c r="D4" s="8">
-        <v>1772.6</v>
+        <v>1772.62</v>
       </c>
       <c r="E4" s="9">
         <v>592500</v>
@@ -736,22 +744,21 @@
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="1">G3+H3-I4</f>
-        <v>63247.56</v>
+        <v>63920.429999999993</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H67" si="2">H3</f>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I4" s="9">
         <f>IF(G3+H3&gt;ROUND(B4*1.05,2),ROUND(B4*1.05,2),G3+H3)</f>
-        <v>4486.2299999999996</v>
+        <v>4486.25</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J67" si="3">J3+I4-B4</f>
-        <v>4921.6900000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" ref="J4:J67" si="2">J3+I4-B4</f>
+        <v>4921.6900000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -773,22 +780,22 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>62014.14</v>
+        <v>63102.009999999995</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" ref="H4:H67" si="3">H4</f>
+        <v>3660</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I68" si="4">IF(G4+H4&gt;ROUND(B5*1.05,2),ROUND(B5*1.05,2),G4+H4)</f>
         <v>4478.42</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5134.9500000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -810,22 +817,22 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>60788.54</v>
+        <v>62291.409999999996</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>4470.6000000000004</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5347.8400000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -847,22 +854,22 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>59570.770000000004</v>
+        <v>61488.639999999999</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>4462.7700000000004</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5560.35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -884,22 +891,22 @@
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>58360.820000000007</v>
+        <v>60693.69</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="4"/>
         <v>4454.95</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5772.4899999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -921,22 +928,22 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>57158.69000000001</v>
+        <v>59906.560000000005</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="4"/>
         <v>4447.13</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5984.2599999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -958,22 +965,22 @@
       </c>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>55964.37000000001</v>
+        <v>59127.240000000005</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="4"/>
         <v>4439.32</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6195.659999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -995,22 +1002,22 @@
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>54777.880000000012</v>
+        <v>58355.750000000007</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="4"/>
         <v>4431.49</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6406.6799999999976</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1032,22 +1039,22 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>53599.210000000014</v>
+        <v>57592.080000000009</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="4"/>
         <v>4423.67</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6617.3299999999981</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1069,22 +1076,22 @@
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>52428.360000000015</v>
+        <v>56836.23000000001</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="4"/>
         <v>4415.8500000000004</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6827.6099999999988</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1106,22 +1113,22 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>51265.320000000014</v>
+        <v>56088.19000000001</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="4"/>
         <v>4408.04</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7037.5199999999977</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1143,22 +1150,22 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>50110.110000000015</v>
+        <v>55347.98000000001</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="4"/>
         <v>4400.21</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7247.0499999999975</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1180,18 +1187,18 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>48962.720000000016</v>
+        <v>54615.590000000011</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="4"/>
         <v>4392.3900000000003</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7456.2099999999991</v>
       </c>
     </row>
@@ -1217,18 +1224,18 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>47823.150000000016</v>
+        <v>53891.020000000011</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="4"/>
         <v>4384.57</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7664.9999999999991</v>
       </c>
     </row>
@@ -1254,18 +1261,18 @@
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>46691.400000000016</v>
+        <v>53174.270000000011</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="4"/>
         <v>4376.75</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7873.42</v>
       </c>
     </row>
@@ -1291,18 +1298,18 @@
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>45567.470000000016</v>
+        <v>52465.340000000011</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="4"/>
         <v>4368.93</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8081.46</v>
       </c>
     </row>
@@ -1328,18 +1335,18 @@
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>44451.360000000015</v>
+        <v>51764.23000000001</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="4"/>
         <v>4361.1099999999997</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8289.130000000001</v>
       </c>
     </row>
@@ -1365,18 +1372,18 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>43343.070000000014</v>
+        <v>51070.94000000001</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="4"/>
         <v>4353.29</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8496.4300000000021</v>
       </c>
     </row>
@@ -1402,18 +1409,18 @@
       </c>
       <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>42242.600000000013</v>
+        <v>50385.470000000008</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="4"/>
         <v>4345.47</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8703.36</v>
       </c>
     </row>
@@ -1439,18 +1446,18 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>41149.960000000014</v>
+        <v>49707.830000000009</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="4"/>
         <v>4337.6400000000003</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8909.91</v>
       </c>
     </row>
@@ -1476,18 +1483,18 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>40065.130000000012</v>
+        <v>49038.000000000007</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="4"/>
         <v>4329.83</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9116.09</v>
       </c>
     </row>
@@ -1513,18 +1520,18 @@
       </c>
       <c r="G25" s="9">
         <f t="shared" si="1"/>
-        <v>38988.12000000001</v>
+        <v>48375.990000000005</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="4"/>
         <v>4322.01</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9321.9000000000015</v>
       </c>
     </row>
@@ -1550,18 +1557,18 @@
       </c>
       <c r="G26" s="9">
         <f t="shared" si="1"/>
-        <v>37918.930000000008</v>
+        <v>47721.8</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="4"/>
         <v>4314.1899999999996</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9527.34</v>
       </c>
     </row>
@@ -1587,18 +1594,18 @@
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>36857.560000000005</v>
+        <v>47075.43</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="4"/>
         <v>4306.37</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9732.41</v>
       </c>
     </row>
@@ -1624,18 +1631,18 @@
       </c>
       <c r="G28" s="9">
         <f t="shared" si="1"/>
-        <v>35804.020000000004</v>
+        <v>46436.89</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="4"/>
         <v>4298.54</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9937.1</v>
       </c>
     </row>
@@ -1661,18 +1668,18 @@
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>34758.290000000008</v>
+        <v>45806.16</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="4"/>
         <v>4290.7299999999996</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10141.42</v>
       </c>
     </row>
@@ -1698,18 +1705,18 @@
       </c>
       <c r="G30" s="9">
         <f t="shared" si="1"/>
-        <v>33720.380000000005</v>
+        <v>45183.25</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="4"/>
         <v>4282.91</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10345.369999999999</v>
       </c>
     </row>
@@ -1735,18 +1742,18 @@
       </c>
       <c r="G31" s="9">
         <f t="shared" si="1"/>
-        <v>32690.290000000005</v>
+        <v>44568.160000000003</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="4"/>
         <v>4275.09</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10548.949999999999</v>
       </c>
     </row>
@@ -1772,18 +1779,18 @@
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>31668.030000000006</v>
+        <v>43960.9</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="4"/>
         <v>4267.26</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10752.15</v>
       </c>
     </row>
@@ -1809,18 +1816,18 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>30653.590000000007</v>
+        <v>43361.46</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="4"/>
         <v>4259.4399999999996</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10954.98</v>
       </c>
     </row>
@@ -1846,18 +1853,18 @@
       </c>
       <c r="G34" s="9">
         <f t="shared" si="1"/>
-        <v>29646.96000000001</v>
+        <v>42769.83</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="4"/>
         <v>4251.63</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11157.44</v>
       </c>
     </row>
@@ -1883,18 +1890,18 @@
       </c>
       <c r="G35" s="9">
         <f t="shared" si="1"/>
-        <v>28648.150000000005</v>
+        <v>42186.020000000004</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="4"/>
         <v>4243.8100000000004</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11359.53</v>
       </c>
     </row>
@@ -1920,18 +1927,18 @@
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>27657.170000000006</v>
+        <v>41610.040000000008</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="4"/>
         <v>4235.9799999999996</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11561.24</v>
       </c>
     </row>
@@ -1957,18 +1964,18 @@
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>26674.010000000006</v>
+        <v>41041.880000000005</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="4"/>
         <v>4228.16</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11762.58</v>
       </c>
     </row>
@@ -1994,18 +2001,18 @@
       </c>
       <c r="G38" s="9">
         <f t="shared" si="1"/>
-        <v>25698.660000000003</v>
+        <v>40481.530000000006</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="4"/>
         <v>4220.3500000000004</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11963.55</v>
       </c>
     </row>
@@ -2031,18 +2038,18 @@
       </c>
       <c r="G39" s="9">
         <f t="shared" si="1"/>
-        <v>24731.130000000005</v>
+        <v>39929.000000000007</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="4"/>
         <v>4212.53</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12164.149999999998</v>
       </c>
     </row>
@@ -2068,18 +2075,18 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>23771.430000000004</v>
+        <v>39384.30000000001</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="4"/>
         <v>4204.7</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12364.369999999999</v>
       </c>
     </row>
@@ -2105,18 +2112,18 @@
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>22819.550000000003</v>
+        <v>38847.420000000013</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="4"/>
         <v>4196.88</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12564.22</v>
       </c>
     </row>
@@ -2142,18 +2149,18 @@
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>21875.49</v>
+        <v>38318.360000000015</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="4"/>
         <v>4189.0600000000004</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12763.699999999999</v>
       </c>
     </row>
@@ -2179,18 +2186,18 @@
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>20939.240000000002</v>
+        <v>37797.110000000015</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="4"/>
         <v>4181.25</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12962.809999999998</v>
       </c>
     </row>
@@ -2216,18 +2223,18 @@
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>20010.82</v>
+        <v>37283.690000000017</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="4"/>
         <v>4173.42</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13161.539999999995</v>
       </c>
     </row>
@@ -2253,18 +2260,18 @@
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>19090.22</v>
+        <v>36778.090000000018</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="4"/>
         <v>4165.6000000000004</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13359.899999999996</v>
       </c>
     </row>
@@ -2290,18 +2297,18 @@
       </c>
       <c r="G46" s="9">
         <f t="shared" si="1"/>
-        <v>18177.440000000002</v>
+        <v>36280.310000000019</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="4"/>
         <v>4157.78</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13557.889999999996</v>
       </c>
     </row>
@@ -2327,18 +2334,18 @@
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>17272.480000000003</v>
+        <v>35790.35000000002</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="4"/>
         <v>4149.96</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13755.509999999995</v>
       </c>
     </row>
@@ -2364,18 +2371,18 @@
       </c>
       <c r="G48" s="9">
         <f t="shared" si="1"/>
-        <v>16375.330000000004</v>
+        <v>35308.200000000019</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="4"/>
         <v>4142.1499999999996</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13952.759999999997</v>
       </c>
     </row>
@@ -2401,18 +2408,18 @@
       </c>
       <c r="G49" s="9">
         <f t="shared" si="1"/>
-        <v>15486.010000000002</v>
+        <v>34833.880000000019</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="4"/>
         <v>4134.32</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14149.629999999994</v>
       </c>
     </row>
@@ -2438,18 +2445,18 @@
       </c>
       <c r="G50" s="9">
         <f t="shared" si="1"/>
-        <v>14604.510000000002</v>
+        <v>34367.380000000019</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="4"/>
         <v>4126.5</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14346.129999999994</v>
       </c>
     </row>
@@ -2475,18 +2482,18 @@
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>13730.830000000002</v>
+        <v>33908.700000000019</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I51" s="9">
         <f t="shared" si="4"/>
         <v>4118.68</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14542.259999999995</v>
       </c>
     </row>
@@ -2512,18 +2519,18 @@
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>12864.970000000001</v>
+        <v>33457.840000000018</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I52" s="9">
         <f t="shared" si="4"/>
         <v>4110.8599999999997</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14738.019999999995</v>
       </c>
     </row>
@@ -2549,18 +2556,18 @@
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>12006.93</v>
+        <v>33014.800000000017</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I53" s="9">
         <f t="shared" si="4"/>
         <v>4103.04</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14933.399999999994</v>
       </c>
     </row>
@@ -2586,18 +2593,18 @@
       </c>
       <c r="G54" s="9">
         <f t="shared" si="1"/>
-        <v>11156.710000000001</v>
+        <v>32579.580000000016</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I54" s="9">
         <f t="shared" si="4"/>
         <v>4095.22</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15128.409999999996</v>
       </c>
     </row>
@@ -2623,18 +2630,18 @@
       </c>
       <c r="G55" s="9">
         <f t="shared" si="1"/>
-        <v>10314.310000000001</v>
+        <v>32152.180000000015</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I55" s="9">
         <f t="shared" si="4"/>
         <v>4087.4</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15323.049999999997</v>
       </c>
     </row>
@@ -2660,18 +2667,18 @@
       </c>
       <c r="G56" s="9">
         <f t="shared" si="1"/>
-        <v>9479.7300000000014</v>
+        <v>31732.600000000013</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I56" s="9">
         <f t="shared" si="4"/>
         <v>4079.58</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15517.319999999998</v>
       </c>
     </row>
@@ -2697,18 +2704,18 @@
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>8652.9800000000014</v>
+        <v>31320.850000000013</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I57" s="9">
         <f t="shared" si="4"/>
         <v>4071.75</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15711.21</v>
       </c>
     </row>
@@ -2734,18 +2741,18 @@
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>7834.0400000000009</v>
+        <v>30916.910000000014</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I58" s="9">
         <f t="shared" si="4"/>
         <v>4063.94</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15904.729999999998</v>
       </c>
     </row>
@@ -2771,18 +2778,18 @@
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>7022.920000000001</v>
+        <v>30520.790000000019</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I59" s="9">
         <f t="shared" si="4"/>
         <v>4056.12</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16097.88</v>
       </c>
     </row>
@@ -2808,18 +2815,18 @@
       </c>
       <c r="G60" s="9">
         <f t="shared" si="1"/>
-        <v>6219.6200000000017</v>
+        <v>30132.490000000023</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="4"/>
         <v>4048.3</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16290.66</v>
       </c>
     </row>
@@ -2845,18 +2852,18 @@
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>5424.1500000000033</v>
+        <v>29752.020000000019</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I61" s="9">
         <f t="shared" si="4"/>
         <v>4040.47</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16483.060000000001</v>
       </c>
     </row>
@@ -2882,18 +2889,18 @@
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>4636.4900000000034</v>
+        <v>29379.360000000019</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I62" s="9">
         <f t="shared" si="4"/>
         <v>4032.66</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16675.09</v>
       </c>
     </row>
@@ -2919,18 +2926,18 @@
       </c>
       <c r="G63" s="9">
         <f t="shared" si="1"/>
-        <v>3856.6500000000033</v>
+        <v>29014.520000000015</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I63" s="9">
         <f t="shared" si="4"/>
         <v>4024.84</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16866.75</v>
       </c>
     </row>
@@ -2956,18 +2963,18 @@
       </c>
       <c r="G64" s="9">
         <f t="shared" si="1"/>
-        <v>3084.6300000000033</v>
+        <v>28657.500000000015</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I64" s="9">
         <f t="shared" si="4"/>
         <v>4017.02</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17058.04</v>
       </c>
     </row>
@@ -2993,18 +3000,18 @@
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>2320.4400000000028</v>
+        <v>28308.310000000016</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I65" s="9">
         <f t="shared" si="4"/>
         <v>4009.19</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17248.95</v>
       </c>
     </row>
@@ -3030,18 +3037,18 @@
       </c>
       <c r="G66" s="9">
         <f t="shared" si="1"/>
-        <v>1564.0700000000024</v>
+        <v>27966.940000000017</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I66" s="9">
         <f t="shared" si="4"/>
         <v>4001.37</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17439.489999999998</v>
       </c>
     </row>
@@ -3067,18 +3074,18 @@
       </c>
       <c r="G67" s="9">
         <f t="shared" si="1"/>
-        <v>815.51000000000249</v>
+        <v>27633.380000000016</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" si="2"/>
-        <v>3245</v>
+        <f t="shared" si="3"/>
+        <v>3660</v>
       </c>
       <c r="I67" s="9">
         <f t="shared" si="4"/>
         <v>3993.56</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17629.66</v>
       </c>
     </row>
@@ -3104,11 +3111,11 @@
       </c>
       <c r="G68" s="9">
         <f t="shared" ref="G68:G131" si="6">G67+H67-I68</f>
-        <v>74.77000000000271</v>
+        <v>27307.640000000014</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" ref="H68:H131" si="7">H67</f>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="4"/>
@@ -3141,19 +3148,19 @@
       </c>
       <c r="G69" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26989.730000000014</v>
       </c>
       <c r="H69" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I69" s="9">
         <f t="shared" ref="I69:I132" si="9">IF(G68+H68&gt;ROUND(B69*1.05,2),ROUND(B69*1.05,2),G68+H68)</f>
-        <v>3319.7700000000027</v>
+        <v>3977.91</v>
       </c>
       <c r="J69" s="9">
         <f t="shared" si="8"/>
-        <v>17350.740000000005</v>
+        <v>18008.880000000005</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -3178,19 +3185,19 @@
       </c>
       <c r="G70" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26679.640000000014</v>
       </c>
       <c r="H70" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I70" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3970.09</v>
       </c>
       <c r="J70" s="9">
         <f t="shared" si="8"/>
-        <v>16814.700000000004</v>
+        <v>18197.930000000004</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -3215,19 +3222,19 @@
       </c>
       <c r="G71" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26377.370000000014</v>
       </c>
       <c r="H71" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I71" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3962.27</v>
       </c>
       <c r="J71" s="9">
         <f t="shared" si="8"/>
-        <v>16286.110000000004</v>
+        <v>18386.610000000004</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -3252,19 +3259,19 @@
       </c>
       <c r="G72" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26082.910000000014</v>
       </c>
       <c r="H72" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I72" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3954.46</v>
       </c>
       <c r="J72" s="9">
         <f t="shared" si="8"/>
-        <v>15764.960000000005</v>
+        <v>18574.920000000002</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -3289,19 +3296,19 @@
       </c>
       <c r="G73" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25796.270000000015</v>
       </c>
       <c r="H73" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I73" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3946.64</v>
       </c>
       <c r="J73" s="9">
         <f t="shared" si="8"/>
-        <v>15251.260000000006</v>
+        <v>18762.86</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -3326,19 +3333,19 @@
       </c>
       <c r="G74" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25517.460000000014</v>
       </c>
       <c r="H74" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I74" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3938.81</v>
       </c>
       <c r="J74" s="9">
         <f t="shared" si="8"/>
-        <v>14745.010000000006</v>
+        <v>18950.420000000002</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -3363,19 +3370,19 @@
       </c>
       <c r="G75" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25246.470000000016</v>
       </c>
       <c r="H75" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I75" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3930.99</v>
       </c>
       <c r="J75" s="9">
         <f t="shared" si="8"/>
-        <v>14246.210000000006</v>
+        <v>19137.610000000004</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3400,19 +3407,19 @@
       </c>
       <c r="G76" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24983.300000000017</v>
       </c>
       <c r="H76" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I76" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3923.17</v>
       </c>
       <c r="J76" s="9">
         <f t="shared" si="8"/>
-        <v>13754.860000000006</v>
+        <v>19324.430000000008</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -3437,19 +3444,19 @@
       </c>
       <c r="G77" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24727.940000000017</v>
       </c>
       <c r="H77" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I77" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3915.36</v>
       </c>
       <c r="J77" s="9">
         <f t="shared" si="8"/>
-        <v>13270.950000000008</v>
+        <v>19510.880000000008</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -3474,19 +3481,19 @@
       </c>
       <c r="G78" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24480.410000000018</v>
       </c>
       <c r="H78" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I78" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3907.53</v>
       </c>
       <c r="J78" s="9">
         <f t="shared" si="8"/>
-        <v>12794.490000000009</v>
+        <v>19696.950000000008</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -3511,19 +3518,19 @@
       </c>
       <c r="G79" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24240.700000000019</v>
       </c>
       <c r="H79" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I79" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3899.71</v>
       </c>
       <c r="J79" s="9">
         <f t="shared" si="8"/>
-        <v>12325.480000000009</v>
+        <v>19882.650000000009</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -3548,19 +3555,19 @@
       </c>
       <c r="G80" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24008.810000000019</v>
       </c>
       <c r="H80" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I80" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3891.89</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="8"/>
-        <v>11863.920000000009</v>
+        <v>20067.980000000007</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -3585,19 +3592,19 @@
       </c>
       <c r="G81" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23784.74000000002</v>
       </c>
       <c r="H81" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I81" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3884.07</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="8"/>
-        <v>11409.810000000009</v>
+        <v>20252.940000000006</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -3622,19 +3629,19 @@
       </c>
       <c r="G82" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23568.49000000002</v>
       </c>
       <c r="H82" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3876.25</v>
       </c>
       <c r="J82" s="9">
         <f t="shared" si="8"/>
-        <v>10963.140000000009</v>
+        <v>20437.520000000004</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -3659,19 +3666,19 @@
       </c>
       <c r="G83" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23360.060000000019</v>
       </c>
       <c r="H83" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I83" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3868.43</v>
       </c>
       <c r="J83" s="9">
         <f t="shared" si="8"/>
-        <v>10523.920000000009</v>
+        <v>20621.730000000003</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -3696,19 +3703,19 @@
       </c>
       <c r="G84" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23159.450000000019</v>
       </c>
       <c r="H84" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I84" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3860.61</v>
       </c>
       <c r="J84" s="9">
         <f t="shared" si="8"/>
-        <v>10092.150000000009</v>
+        <v>20805.570000000003</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -3733,19 +3740,19 @@
       </c>
       <c r="G85" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22966.660000000018</v>
       </c>
       <c r="H85" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3852.79</v>
       </c>
       <c r="J85" s="9">
         <f t="shared" si="8"/>
-        <v>9667.830000000009</v>
+        <v>20989.040000000005</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -3770,19 +3777,19 @@
       </c>
       <c r="G86" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22781.690000000017</v>
       </c>
       <c r="H86" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3844.97</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="8"/>
-        <v>9250.950000000008</v>
+        <v>21172.130000000005</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -3807,19 +3814,19 @@
       </c>
       <c r="G87" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22604.540000000015</v>
       </c>
       <c r="H87" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I87" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3837.15</v>
       </c>
       <c r="J87" s="9">
         <f t="shared" si="8"/>
-        <v>8841.5200000000077</v>
+        <v>21354.850000000006</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -3844,19 +3851,19 @@
       </c>
       <c r="G88" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22435.210000000014</v>
       </c>
       <c r="H88" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I88" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3829.33</v>
       </c>
       <c r="J88" s="9">
         <f t="shared" si="8"/>
-        <v>8439.5400000000081</v>
+        <v>21537.200000000008</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -3881,19 +3888,19 @@
       </c>
       <c r="G89" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22273.700000000012</v>
       </c>
       <c r="H89" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I89" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3821.51</v>
       </c>
       <c r="J89" s="9">
         <f t="shared" si="8"/>
-        <v>8045.0100000000075</v>
+        <v>21719.180000000008</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -3918,19 +3925,19 @@
       </c>
       <c r="G90" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22120.020000000011</v>
       </c>
       <c r="H90" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I90" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3813.68</v>
       </c>
       <c r="J90" s="9">
         <f t="shared" si="8"/>
-        <v>7657.9300000000076</v>
+        <v>21900.780000000006</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -3955,19 +3962,19 @@
       </c>
       <c r="G91" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21974.150000000012</v>
       </c>
       <c r="H91" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I91" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3805.87</v>
       </c>
       <c r="J91" s="9">
         <f t="shared" si="8"/>
-        <v>7278.2900000000081</v>
+        <v>22082.010000000006</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -3992,19 +3999,19 @@
       </c>
       <c r="G92" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21836.100000000013</v>
       </c>
       <c r="H92" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I92" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3798.05</v>
       </c>
       <c r="J92" s="9">
         <f t="shared" si="8"/>
-        <v>6906.1000000000076</v>
+        <v>22262.870000000006</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -4029,19 +4036,19 @@
       </c>
       <c r="G93" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21705.870000000014</v>
       </c>
       <c r="H93" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I93" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3790.23</v>
       </c>
       <c r="J93" s="9">
         <f t="shared" si="8"/>
-        <v>6541.3600000000079</v>
+        <v>22443.360000000008</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -4066,19 +4073,19 @@
       </c>
       <c r="G94" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21583.470000000012</v>
       </c>
       <c r="H94" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I94" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3782.4</v>
       </c>
       <c r="J94" s="9">
         <f t="shared" si="8"/>
-        <v>6184.0700000000079</v>
+        <v>22623.470000000008</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -4103,19 +4110,19 @@
       </c>
       <c r="G95" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21468.890000000014</v>
       </c>
       <c r="H95" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I95" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3774.58</v>
       </c>
       <c r="J95" s="9">
         <f t="shared" si="8"/>
-        <v>5834.2300000000068</v>
+        <v>22803.21000000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -4140,19 +4147,19 @@
       </c>
       <c r="G96" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21362.120000000014</v>
       </c>
       <c r="H96" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I96" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3766.77</v>
       </c>
       <c r="J96" s="9">
         <f t="shared" si="8"/>
-        <v>5491.8300000000072</v>
+        <v>22982.580000000009</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -4177,19 +4184,19 @@
       </c>
       <c r="G97" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21263.170000000013</v>
       </c>
       <c r="H97" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I97" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3758.95</v>
       </c>
       <c r="J97" s="9">
         <f t="shared" si="8"/>
-        <v>5156.8800000000074</v>
+        <v>23161.580000000009</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -4214,19 +4221,19 @@
       </c>
       <c r="G98" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21172.040000000012</v>
       </c>
       <c r="H98" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I98" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3751.13</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="8"/>
-        <v>4829.3800000000083</v>
+        <v>23340.21000000001</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -4251,19 +4258,19 @@
       </c>
       <c r="G99" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21088.740000000013</v>
       </c>
       <c r="H99" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I99" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3743.3</v>
       </c>
       <c r="J99" s="9">
         <f t="shared" si="8"/>
-        <v>4509.3300000000081</v>
+        <v>23518.46000000001</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -4288,19 +4295,19 @@
       </c>
       <c r="G100" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21013.260000000013</v>
       </c>
       <c r="H100" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I100" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3735.48</v>
       </c>
       <c r="J100" s="9">
         <f t="shared" si="8"/>
-        <v>4196.7300000000087</v>
+        <v>23696.340000000011</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
@@ -4325,19 +4332,19 @@
       </c>
       <c r="G101" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20945.590000000011</v>
       </c>
       <c r="H101" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I101" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3727.67</v>
       </c>
       <c r="J101" s="9">
         <f t="shared" si="8"/>
-        <v>3891.5700000000088</v>
+        <v>23873.850000000009</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -4362,19 +4369,19 @@
       </c>
       <c r="G102" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20885.740000000013</v>
       </c>
       <c r="H102" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I102" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3719.85</v>
       </c>
       <c r="J102" s="9">
         <f t="shared" si="8"/>
-        <v>3593.8600000000088</v>
+        <v>24050.990000000009</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
@@ -4399,19 +4406,19 @@
       </c>
       <c r="G103" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20833.720000000012</v>
       </c>
       <c r="H103" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I103" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3712.02</v>
       </c>
       <c r="J103" s="9">
         <f t="shared" si="8"/>
-        <v>3303.6000000000085</v>
+        <v>24227.750000000007</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
@@ -4436,19 +4443,19 @@
       </c>
       <c r="G104" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20789.520000000011</v>
       </c>
       <c r="H104" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I104" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3704.2</v>
       </c>
       <c r="J104" s="9">
         <f t="shared" si="8"/>
-        <v>3020.7900000000086</v>
+        <v>24404.140000000007</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
@@ -4473,19 +4480,19 @@
       </c>
       <c r="G105" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20753.14000000001</v>
       </c>
       <c r="H105" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I105" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3696.38</v>
       </c>
       <c r="J105" s="9">
         <f t="shared" si="8"/>
-        <v>2745.430000000008</v>
+        <v>24580.160000000007</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
@@ -4510,19 +4517,19 @@
       </c>
       <c r="G106" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20724.570000000011</v>
       </c>
       <c r="H106" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I106" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3688.57</v>
       </c>
       <c r="J106" s="9">
         <f t="shared" si="8"/>
-        <v>2477.5100000000075</v>
+        <v>24755.810000000005</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
@@ -4547,19 +4554,19 @@
       </c>
       <c r="G107" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20703.830000000009</v>
       </c>
       <c r="H107" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I107" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3680.74</v>
       </c>
       <c r="J107" s="9">
         <f t="shared" si="8"/>
-        <v>2217.0400000000077</v>
+        <v>24931.08</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
@@ -4584,19 +4591,19 @@
       </c>
       <c r="G108" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20690.910000000011</v>
       </c>
       <c r="H108" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I108" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3672.92</v>
       </c>
       <c r="J108" s="9">
         <f t="shared" si="8"/>
-        <v>1964.0200000000082</v>
+        <v>25105.98</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
@@ -4621,19 +4628,19 @@
       </c>
       <c r="G109" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20685.810000000012</v>
       </c>
       <c r="H109" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I109" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3665.1</v>
       </c>
       <c r="J109" s="9">
         <f t="shared" si="8"/>
-        <v>1718.4500000000075</v>
+        <v>25280.51</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
@@ -4658,19 +4665,19 @@
       </c>
       <c r="G110" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20688.520000000011</v>
       </c>
       <c r="H110" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I110" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3657.29</v>
       </c>
       <c r="J110" s="9">
         <f t="shared" si="8"/>
-        <v>1480.3200000000079</v>
+        <v>25454.67</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
@@ -4695,19 +4702,19 @@
       </c>
       <c r="G111" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20699.060000000012</v>
       </c>
       <c r="H111" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I111" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3649.46</v>
       </c>
       <c r="J111" s="9">
         <f t="shared" si="8"/>
-        <v>1249.6400000000081</v>
+        <v>25628.449999999997</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
@@ -4732,19 +4739,19 @@
       </c>
       <c r="G112" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20717.420000000013</v>
       </c>
       <c r="H112" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I112" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3641.64</v>
       </c>
       <c r="J112" s="9">
         <f t="shared" si="8"/>
-        <v>1026.4100000000085</v>
+        <v>25801.859999999997</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
@@ -4769,19 +4776,19 @@
       </c>
       <c r="G113" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20743.600000000013</v>
       </c>
       <c r="H113" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I113" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3633.82</v>
       </c>
       <c r="J113" s="9">
         <f t="shared" si="8"/>
-        <v>810.63000000000875</v>
+        <v>25974.899999999998</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
@@ -4806,19 +4813,19 @@
       </c>
       <c r="G114" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20777.600000000013</v>
       </c>
       <c r="H114" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I114" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3626</v>
       </c>
       <c r="J114" s="9">
         <f t="shared" si="8"/>
-        <v>602.30000000000882</v>
+        <v>26147.57</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
@@ -4843,19 +4850,19 @@
       </c>
       <c r="G115" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20819.420000000013</v>
       </c>
       <c r="H115" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I115" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3618.18</v>
       </c>
       <c r="J115" s="9">
         <f t="shared" si="8"/>
-        <v>401.41000000000895</v>
+        <v>26319.86</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
@@ -4880,19 +4887,19 @@
       </c>
       <c r="G116" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20869.060000000012</v>
       </c>
       <c r="H116" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I116" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3610.36</v>
       </c>
       <c r="J116" s="9">
         <f t="shared" si="8"/>
-        <v>207.97000000000889</v>
+        <v>26491.780000000002</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
@@ -4917,19 +4924,19 @@
       </c>
       <c r="G117" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20926.520000000011</v>
       </c>
       <c r="H117" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I117" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3602.54</v>
       </c>
       <c r="J117" s="9">
         <f t="shared" si="8"/>
-        <v>21.980000000009113</v>
+        <v>26663.33</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
@@ -4954,19 +4961,19 @@
       </c>
       <c r="G118" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20991.80000000001</v>
       </c>
       <c r="H118" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I118" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3594.72</v>
       </c>
       <c r="J118" s="9">
         <f t="shared" si="8"/>
-        <v>-156.55999999999085</v>
+        <v>26834.510000000002</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
@@ -4991,19 +4998,19 @@
       </c>
       <c r="G119" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21064.910000000011</v>
       </c>
       <c r="H119" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I119" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3586.89</v>
       </c>
       <c r="J119" s="9">
         <f t="shared" si="8"/>
-        <v>-327.649999999991</v>
+        <v>27005.31</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
@@ -5028,19 +5035,19 @@
       </c>
       <c r="G120" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21145.830000000009</v>
       </c>
       <c r="H120" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I120" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3579.08</v>
       </c>
       <c r="J120" s="9">
         <f t="shared" si="8"/>
-        <v>-491.29999999999109</v>
+        <v>27175.739999999998</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
@@ -5065,19 +5072,19 @@
       </c>
       <c r="G121" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21234.570000000007</v>
       </c>
       <c r="H121" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I121" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3571.26</v>
       </c>
       <c r="J121" s="9">
         <f t="shared" si="8"/>
-        <v>-647.49999999999091</v>
+        <v>27345.8</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
@@ -5102,19 +5109,19 @@
       </c>
       <c r="G122" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21331.130000000008</v>
       </c>
       <c r="H122" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I122" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3563.44</v>
       </c>
       <c r="J122" s="9">
         <f t="shared" si="8"/>
-        <v>-796.24999999999091</v>
+        <v>27515.489999999998</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
@@ -5139,19 +5146,19 @@
       </c>
       <c r="G123" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21435.510000000009</v>
       </c>
       <c r="H123" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I123" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3555.62</v>
       </c>
       <c r="J123" s="9">
         <f t="shared" si="8"/>
-        <v>-937.54999999999109</v>
+        <v>27684.809999999998</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
@@ -5176,19 +5183,19 @@
       </c>
       <c r="G124" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21547.720000000008</v>
       </c>
       <c r="H124" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I124" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3547.79</v>
       </c>
       <c r="J124" s="9">
         <f t="shared" si="8"/>
-        <v>-1071.399999999991</v>
+        <v>27853.75</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
@@ -5213,19 +5220,19 @@
       </c>
       <c r="G125" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21667.740000000009</v>
       </c>
       <c r="H125" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I125" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3539.98</v>
       </c>
       <c r="J125" s="9">
         <f t="shared" si="8"/>
-        <v>-1197.8099999999909</v>
+        <v>28022.32</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
@@ -5250,19 +5257,19 @@
       </c>
       <c r="G126" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21795.580000000009</v>
       </c>
       <c r="H126" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I126" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3532.16</v>
       </c>
       <c r="J126" s="9">
         <f t="shared" si="8"/>
-        <v>-1316.7699999999909</v>
+        <v>28190.52</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
@@ -5287,19 +5294,19 @@
       </c>
       <c r="G127" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21931.240000000009</v>
       </c>
       <c r="H127" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I127" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3524.34</v>
       </c>
       <c r="J127" s="9">
         <f t="shared" si="8"/>
-        <v>-1428.2799999999911</v>
+        <v>28358.35</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
@@ -5324,19 +5331,19 @@
       </c>
       <c r="G128" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22074.73000000001</v>
       </c>
       <c r="H128" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I128" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3516.51</v>
       </c>
       <c r="J128" s="9">
         <f t="shared" si="8"/>
-        <v>-1532.3399999999911</v>
+        <v>28525.8</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
@@ -5361,19 +5368,19 @@
       </c>
       <c r="G129" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22226.040000000012</v>
       </c>
       <c r="H129" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I129" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3508.69</v>
       </c>
       <c r="J129" s="9">
         <f t="shared" si="8"/>
-        <v>-1628.9499999999912</v>
+        <v>28692.879999999997</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
@@ -5398,19 +5405,19 @@
       </c>
       <c r="G130" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22385.160000000011</v>
       </c>
       <c r="H130" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I130" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3500.88</v>
       </c>
       <c r="J130" s="9">
         <f t="shared" si="8"/>
-        <v>-1718.1199999999913</v>
+        <v>28859.589999999997</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
@@ -5435,19 +5442,19 @@
       </c>
       <c r="G131" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22552.100000000009</v>
       </c>
       <c r="H131" s="9">
         <f t="shared" si="7"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I131" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3493.06</v>
       </c>
       <c r="J131" s="9">
         <f t="shared" si="8"/>
-        <v>-1799.8399999999911</v>
+        <v>29025.929999999997</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
@@ -5472,19 +5479,19 @@
       </c>
       <c r="G132" s="9">
         <f t="shared" ref="G132:G195" si="11">G131+H131-I132</f>
-        <v>0</v>
+        <v>22726.87000000001</v>
       </c>
       <c r="H132" s="9">
         <f t="shared" ref="H132:H195" si="12">H131</f>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I132" s="9">
         <f t="shared" si="9"/>
-        <v>3245</v>
+        <v>3485.23</v>
       </c>
       <c r="J132" s="9">
         <f t="shared" ref="J132:J195" si="13">J131+I132-B132</f>
-        <v>-1874.109999999991</v>
+        <v>29191.889999999996</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
@@ -5509,19 +5516,19 @@
       </c>
       <c r="G133" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22909.46000000001</v>
       </c>
       <c r="H133" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I133" s="9">
         <f t="shared" ref="I133:I196" si="14">IF(G132+H132&gt;ROUND(B133*1.05,2),ROUND(B133*1.05,2),G132+H132)</f>
-        <v>3245</v>
+        <v>3477.41</v>
       </c>
       <c r="J133" s="9">
         <f t="shared" si="13"/>
-        <v>-1940.9299999999912</v>
+        <v>29357.479999999996</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
@@ -5546,19 +5553,19 @@
       </c>
       <c r="G134" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>23099.860000000011</v>
       </c>
       <c r="H134" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I134" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3469.6</v>
       </c>
       <c r="J134" s="9">
         <f t="shared" si="13"/>
-        <v>-2000.3099999999913</v>
+        <v>29522.699999999993</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -5583,19 +5590,19 @@
       </c>
       <c r="G135" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>23298.080000000013</v>
       </c>
       <c r="H135" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I135" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3461.78</v>
       </c>
       <c r="J135" s="9">
         <f t="shared" si="13"/>
-        <v>-2052.2399999999911</v>
+        <v>29687.549999999996</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
@@ -5620,19 +5627,19 @@
       </c>
       <c r="G136" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>23504.130000000012</v>
       </c>
       <c r="H136" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I136" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3453.95</v>
       </c>
       <c r="J136" s="9">
         <f t="shared" si="13"/>
-        <v>-2096.7199999999912</v>
+        <v>29852.019999999993</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -5657,19 +5664,19 @@
       </c>
       <c r="G137" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>23718.000000000011</v>
       </c>
       <c r="H137" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I137" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3446.13</v>
       </c>
       <c r="J137" s="9">
         <f t="shared" si="13"/>
-        <v>-2133.7499999999914</v>
+        <v>30016.119999999995</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -5694,19 +5701,19 @@
       </c>
       <c r="G138" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>23939.69000000001</v>
       </c>
       <c r="H138" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I138" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3438.31</v>
       </c>
       <c r="J138" s="9">
         <f t="shared" si="13"/>
-        <v>-2163.3299999999913</v>
+        <v>30179.849999999991</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -5731,19 +5738,19 @@
       </c>
       <c r="G139" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24169.19000000001</v>
       </c>
       <c r="H139" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I139" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3430.5</v>
       </c>
       <c r="J139" s="9">
         <f t="shared" si="13"/>
-        <v>-2185.4699999999912</v>
+        <v>30343.209999999992</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
@@ -5768,19 +5775,19 @@
       </c>
       <c r="G140" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24406.520000000011</v>
       </c>
       <c r="H140" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I140" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3422.67</v>
       </c>
       <c r="J140" s="9">
         <f t="shared" si="13"/>
-        <v>-2200.1599999999912</v>
+        <v>30506.189999999991</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
@@ -5805,19 +5812,19 @@
       </c>
       <c r="G141" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24651.670000000013</v>
       </c>
       <c r="H141" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I141" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3414.85</v>
       </c>
       <c r="J141" s="9">
         <f t="shared" si="13"/>
-        <v>-2207.399999999991</v>
+        <v>30668.799999999996</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -5842,19 +5849,19 @@
       </c>
       <c r="G142" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24904.640000000014</v>
       </c>
       <c r="H142" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I142" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3407.03</v>
       </c>
       <c r="J142" s="9">
         <f t="shared" si="13"/>
-        <v>-2207.189999999991</v>
+        <v>30831.039999999994</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
@@ -5879,19 +5886,19 @@
       </c>
       <c r="G143" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>25165.430000000015</v>
       </c>
       <c r="H143" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I143" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3399.21</v>
       </c>
       <c r="J143" s="9">
         <f t="shared" si="13"/>
-        <v>-2199.5299999999911</v>
+        <v>30992.909999999993</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -5916,19 +5923,19 @@
       </c>
       <c r="G144" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>25434.030000000013</v>
       </c>
       <c r="H144" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I144" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3391.4</v>
       </c>
       <c r="J144" s="9">
         <f t="shared" si="13"/>
-        <v>-2184.4299999999912</v>
+        <v>31154.409999999989</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -5953,19 +5960,19 @@
       </c>
       <c r="G145" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>25710.460000000014</v>
       </c>
       <c r="H145" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I145" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3383.57</v>
       </c>
       <c r="J145" s="9">
         <f t="shared" si="13"/>
-        <v>-2161.879999999991</v>
+        <v>31315.529999999988</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
@@ -5990,19 +5997,19 @@
       </c>
       <c r="G146" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>25994.710000000014</v>
       </c>
       <c r="H146" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I146" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3375.75</v>
       </c>
       <c r="J146" s="9">
         <f t="shared" si="13"/>
-        <v>-2131.879999999991</v>
+        <v>31476.279999999984</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
@@ -6027,19 +6034,19 @@
       </c>
       <c r="G147" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26286.780000000013</v>
       </c>
       <c r="H147" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I147" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3367.93</v>
       </c>
       <c r="J147" s="9">
         <f t="shared" si="13"/>
-        <v>-2094.4299999999912</v>
+        <v>31636.659999999985</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
@@ -6064,19 +6071,19 @@
       </c>
       <c r="G148" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26586.670000000013</v>
       </c>
       <c r="H148" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I148" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3360.11</v>
       </c>
       <c r="J148" s="9">
         <f t="shared" si="13"/>
-        <v>-2049.5299999999911</v>
+        <v>31796.669999999984</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
@@ -6101,19 +6108,19 @@
       </c>
       <c r="G149" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26894.380000000012</v>
       </c>
       <c r="H149" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I149" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3352.29</v>
       </c>
       <c r="J149" s="9">
         <f t="shared" si="13"/>
-        <v>-1997.189999999991</v>
+        <v>31956.299999999985</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
@@ -6138,19 +6145,19 @@
       </c>
       <c r="G150" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>27209.910000000011</v>
       </c>
       <c r="H150" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I150" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3344.47</v>
       </c>
       <c r="J150" s="9">
         <f t="shared" si="13"/>
-        <v>-1937.399999999991</v>
+        <v>32115.559999999983</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
@@ -6175,19 +6182,19 @@
       </c>
       <c r="G151" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>27533.260000000009</v>
       </c>
       <c r="H151" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I151" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3336.65</v>
       </c>
       <c r="J151" s="9">
         <f t="shared" si="13"/>
-        <v>-1870.1599999999912</v>
+        <v>32274.449999999983</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
@@ -6212,19 +6219,19 @@
       </c>
       <c r="G152" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>27864.430000000008</v>
       </c>
       <c r="H152" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I152" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3328.83</v>
       </c>
       <c r="J152" s="9">
         <f t="shared" si="13"/>
-        <v>-1795.4699999999912</v>
+        <v>32432.969999999983</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -6249,19 +6256,19 @@
       </c>
       <c r="G153" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28203.430000000008</v>
       </c>
       <c r="H153" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I153" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3321</v>
       </c>
       <c r="J153" s="9">
         <f t="shared" si="13"/>
-        <v>-1713.3299999999913</v>
+        <v>32591.109999999986</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
@@ -6286,19 +6293,19 @@
       </c>
       <c r="G154" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28550.240000000009</v>
       </c>
       <c r="H154" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I154" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3313.19</v>
       </c>
       <c r="J154" s="9">
         <f t="shared" si="13"/>
-        <v>-1623.7499999999914</v>
+        <v>32748.87999999999</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
@@ -6323,19 +6330,19 @@
       </c>
       <c r="G155" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28904.87000000001</v>
       </c>
       <c r="H155" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I155" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3305.37</v>
       </c>
       <c r="J155" s="9">
         <f t="shared" si="13"/>
-        <v>-1526.7199999999912</v>
+        <v>32906.279999999992</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
@@ -6360,19 +6367,19 @@
       </c>
       <c r="G156" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>29267.320000000011</v>
       </c>
       <c r="H156" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I156" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3297.55</v>
       </c>
       <c r="J156" s="9">
         <f t="shared" si="13"/>
-        <v>-1422.2399999999911</v>
+        <v>33063.31</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -6397,19 +6404,19 @@
       </c>
       <c r="G157" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>29637.600000000006</v>
       </c>
       <c r="H157" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I157" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3289.72</v>
       </c>
       <c r="J157" s="9">
         <f t="shared" si="13"/>
-        <v>-1310.3099999999913</v>
+        <v>33219.96</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -6434,19 +6441,19 @@
       </c>
       <c r="G158" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30015.690000000006</v>
       </c>
       <c r="H158" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I158" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3281.91</v>
       </c>
       <c r="J158" s="9">
         <f t="shared" si="13"/>
-        <v>-1190.9399999999914</v>
+        <v>33376.239999999998</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -6471,19 +6478,19 @@
       </c>
       <c r="G159" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30401.600000000002</v>
       </c>
       <c r="H159" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I159" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3274.09</v>
       </c>
       <c r="J159" s="9">
         <f t="shared" si="13"/>
-        <v>-1064.1199999999913</v>
+        <v>33532.15</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
@@ -6508,19 +6515,19 @@
       </c>
       <c r="G160" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30795.330000000005</v>
       </c>
       <c r="H160" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I160" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3266.27</v>
       </c>
       <c r="J160" s="9">
         <f t="shared" si="13"/>
-        <v>-929.84999999999127</v>
+        <v>33687.689999999995</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
@@ -6545,19 +6552,19 @@
       </c>
       <c r="G161" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>31196.890000000003</v>
       </c>
       <c r="H161" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I161" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3258.44</v>
       </c>
       <c r="J161" s="9">
         <f t="shared" si="13"/>
-        <v>-788.12999999999147</v>
+        <v>33842.85</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
@@ -6582,19 +6589,19 @@
       </c>
       <c r="G162" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>31606.27</v>
       </c>
       <c r="H162" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I162" s="9">
         <f t="shared" si="14"/>
-        <v>3245</v>
+        <v>3250.62</v>
       </c>
       <c r="J162" s="9">
         <f t="shared" si="13"/>
-        <v>-638.9599999999914</v>
+        <v>33997.64</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
@@ -6619,11 +6626,11 @@
       </c>
       <c r="G163" s="9">
         <f t="shared" si="11"/>
-        <v>2.1900000000000546</v>
+        <v>32023.460000000003</v>
       </c>
       <c r="H163" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I163" s="9">
         <f t="shared" si="14"/>
@@ -6631,7 +6638,7 @@
       </c>
       <c r="J163" s="9">
         <f t="shared" si="13"/>
-        <v>-484.53999999999132</v>
+        <v>34152.06</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
@@ -6656,11 +6663,11 @@
       </c>
       <c r="G164" s="9">
         <f t="shared" si="11"/>
-        <v>12.200000000000273</v>
+        <v>32448.470000000008</v>
       </c>
       <c r="H164" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I164" s="9">
         <f t="shared" si="14"/>
@@ -6668,7 +6675,7 @@
       </c>
       <c r="J164" s="9">
         <f t="shared" si="13"/>
-        <v>-330.4899999999916</v>
+        <v>34306.109999999993</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
@@ -6693,11 +6700,11 @@
       </c>
       <c r="G165" s="9">
         <f t="shared" si="11"/>
-        <v>30.040000000000418</v>
+        <v>32881.310000000012</v>
       </c>
       <c r="H165" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I165" s="9">
         <f t="shared" si="14"/>
@@ -6705,7 +6712,7 @@
       </c>
       <c r="J165" s="9">
         <f t="shared" si="13"/>
-        <v>-176.81999999999152</v>
+        <v>34459.779999999992</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
@@ -6730,11 +6737,11 @@
       </c>
       <c r="G166" s="9">
         <f t="shared" si="11"/>
-        <v>55.700000000000273</v>
+        <v>33321.970000000016</v>
       </c>
       <c r="H166" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I166" s="9">
         <f t="shared" si="14"/>
@@ -6742,7 +6749,7 @@
       </c>
       <c r="J166" s="9">
         <f t="shared" si="13"/>
-        <v>-23.519999999991342</v>
+        <v>34613.079999999994</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -6767,11 +6774,11 @@
       </c>
       <c r="G167" s="9">
         <f t="shared" si="11"/>
-        <v>89.180000000000291</v>
+        <v>33770.450000000019</v>
       </c>
       <c r="H167" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I167" s="9">
         <f t="shared" si="14"/>
@@ -6779,7 +6786,7 @@
       </c>
       <c r="J167" s="9">
         <f t="shared" si="13"/>
-        <v>129.41000000000849</v>
+        <v>34766.009999999995</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -6804,11 +6811,11 @@
       </c>
       <c r="G168" s="9">
         <f t="shared" si="11"/>
-        <v>130.47000000000025</v>
+        <v>34226.74000000002</v>
       </c>
       <c r="H168" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I168" s="9">
         <f t="shared" si="14"/>
@@ -6816,7 +6823,7 @@
       </c>
       <c r="J168" s="9">
         <f t="shared" si="13"/>
-        <v>281.97000000000844</v>
+        <v>34918.569999999992</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
@@ -6841,11 +6848,11 @@
       </c>
       <c r="G169" s="9">
         <f t="shared" si="11"/>
-        <v>179.58000000000038</v>
+        <v>34690.85000000002</v>
       </c>
       <c r="H169" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I169" s="9">
         <f t="shared" si="14"/>
@@ -6853,7 +6860,7 @@
       </c>
       <c r="J169" s="9">
         <f t="shared" si="13"/>
-        <v>434.16000000000849</v>
+        <v>35070.759999999995</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
@@ -6878,11 +6885,11 @@
       </c>
       <c r="G170" s="9">
         <f t="shared" si="11"/>
-        <v>236.52000000000044</v>
+        <v>35162.790000000023</v>
       </c>
       <c r="H170" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I170" s="9">
         <f t="shared" si="14"/>
@@ -6890,7 +6897,7 @@
       </c>
       <c r="J170" s="9">
         <f t="shared" si="13"/>
-        <v>585.97000000000844</v>
+        <v>35222.569999999992</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
@@ -6915,11 +6922,11 @@
       </c>
       <c r="G171" s="9">
         <f t="shared" si="11"/>
-        <v>301.28000000000065</v>
+        <v>35642.550000000025</v>
       </c>
       <c r="H171" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I171" s="9">
         <f t="shared" si="14"/>
@@ -6927,7 +6934,7 @@
       </c>
       <c r="J171" s="9">
         <f t="shared" si="13"/>
-        <v>737.41000000000804</v>
+        <v>35374.009999999987</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
@@ -6952,11 +6959,11 @@
       </c>
       <c r="G172" s="9">
         <f t="shared" si="11"/>
-        <v>373.86000000000058</v>
+        <v>36130.130000000026</v>
       </c>
       <c r="H172" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I172" s="9">
         <f t="shared" si="14"/>
@@ -6964,7 +6971,7 @@
       </c>
       <c r="J172" s="9">
         <f t="shared" si="13"/>
-        <v>888.4800000000082</v>
+        <v>35525.079999999987</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
@@ -6989,11 +6996,11 @@
       </c>
       <c r="G173" s="9">
         <f t="shared" si="11"/>
-        <v>454.25000000000045</v>
+        <v>36625.520000000026</v>
       </c>
       <c r="H173" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I173" s="9">
         <f t="shared" si="14"/>
@@ -7001,7 +7008,7 @@
       </c>
       <c r="J173" s="9">
         <f t="shared" si="13"/>
-        <v>1039.1800000000085</v>
+        <v>35675.779999999984</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
@@ -7026,11 +7033,11 @@
       </c>
       <c r="G174" s="9">
         <f t="shared" si="11"/>
-        <v>542.47000000000025</v>
+        <v>37128.740000000027</v>
       </c>
       <c r="H174" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I174" s="9">
         <f t="shared" si="14"/>
@@ -7038,7 +7045,7 @@
       </c>
       <c r="J174" s="9">
         <f t="shared" si="13"/>
-        <v>1189.5000000000082</v>
+        <v>35826.099999999984</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
@@ -7063,11 +7070,11 @@
       </c>
       <c r="G175" s="9">
         <f t="shared" si="11"/>
-        <v>638.51000000000022</v>
+        <v>37639.780000000028</v>
       </c>
       <c r="H175" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I175" s="9">
         <f t="shared" si="14"/>
@@ -7075,7 +7082,7 @@
       </c>
       <c r="J175" s="9">
         <f t="shared" si="13"/>
-        <v>1339.450000000008</v>
+        <v>35976.049999999981</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
@@ -7100,11 +7107,11 @@
       </c>
       <c r="G176" s="9">
         <f t="shared" si="11"/>
-        <v>742.37000000000035</v>
+        <v>38158.640000000029</v>
       </c>
       <c r="H176" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I176" s="9">
         <f t="shared" si="14"/>
@@ -7112,7 +7119,7 @@
       </c>
       <c r="J176" s="9">
         <f t="shared" si="13"/>
-        <v>1489.0300000000075</v>
+        <v>36125.629999999983</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
@@ -7137,11 +7144,11 @@
       </c>
       <c r="G177" s="9">
         <f t="shared" si="11"/>
-        <v>854.05000000000018</v>
+        <v>38685.320000000029</v>
       </c>
       <c r="H177" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I177" s="9">
         <f t="shared" si="14"/>
@@ -7149,7 +7156,7 @@
       </c>
       <c r="J177" s="9">
         <f t="shared" si="13"/>
-        <v>1638.2400000000075</v>
+        <v>36274.839999999982</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
@@ -7174,11 +7181,11 @@
       </c>
       <c r="G178" s="9">
         <f t="shared" si="11"/>
-        <v>973.55000000000018</v>
+        <v>39219.820000000029</v>
       </c>
       <c r="H178" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I178" s="9">
         <f t="shared" si="14"/>
@@ -7186,7 +7193,7 @@
       </c>
       <c r="J178" s="9">
         <f t="shared" si="13"/>
-        <v>1787.070000000007</v>
+        <v>36423.669999999984</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
@@ -7211,11 +7218,11 @@
       </c>
       <c r="G179" s="9">
         <f t="shared" si="11"/>
-        <v>1100.8700000000003</v>
+        <v>39762.140000000029</v>
       </c>
       <c r="H179" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I179" s="9">
         <f t="shared" si="14"/>
@@ -7223,7 +7230,7 @@
       </c>
       <c r="J179" s="9">
         <f t="shared" si="13"/>
-        <v>1935.5300000000075</v>
+        <v>36572.129999999983</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
@@ -7248,11 +7255,11 @@
       </c>
       <c r="G180" s="9">
         <f t="shared" si="11"/>
-        <v>1236.0100000000007</v>
+        <v>40312.280000000028</v>
       </c>
       <c r="H180" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I180" s="9">
         <f t="shared" si="14"/>
@@ -7260,7 +7267,7 @@
       </c>
       <c r="J180" s="9">
         <f t="shared" si="13"/>
-        <v>2083.6200000000076</v>
+        <v>36720.219999999987</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
@@ -7285,11 +7292,11 @@
       </c>
       <c r="G181" s="9">
         <f t="shared" si="11"/>
-        <v>1378.9700000000003</v>
+        <v>40870.240000000027</v>
       </c>
       <c r="H181" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I181" s="9">
         <f t="shared" si="14"/>
@@ -7297,7 +7304,7 @@
       </c>
       <c r="J181" s="9">
         <f t="shared" si="13"/>
-        <v>2231.340000000007</v>
+        <v>36867.939999999988</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
@@ -7322,11 +7329,11 @@
       </c>
       <c r="G182" s="9">
         <f t="shared" si="11"/>
-        <v>1529.7500000000005</v>
+        <v>41436.020000000026</v>
       </c>
       <c r="H182" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I182" s="9">
         <f t="shared" si="14"/>
@@ -7334,7 +7341,7 @@
       </c>
       <c r="J182" s="9">
         <f t="shared" si="13"/>
-        <v>2378.6800000000067</v>
+        <v>37015.279999999992</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
@@ -7359,11 +7366,11 @@
       </c>
       <c r="G183" s="9">
         <f t="shared" si="11"/>
-        <v>1688.35</v>
+        <v>42009.620000000024</v>
       </c>
       <c r="H183" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I183" s="9">
         <f t="shared" si="14"/>
@@ -7371,7 +7378,7 @@
       </c>
       <c r="J183" s="9">
         <f t="shared" si="13"/>
-        <v>2525.6500000000074</v>
+        <v>37162.249999999993</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
@@ -7396,11 +7403,11 @@
       </c>
       <c r="G184" s="9">
         <f t="shared" si="11"/>
-        <v>1854.7700000000004</v>
+        <v>42591.040000000023</v>
       </c>
       <c r="H184" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I184" s="9">
         <f t="shared" si="14"/>
@@ -7408,7 +7415,7 @@
       </c>
       <c r="J184" s="9">
         <f t="shared" si="13"/>
-        <v>2672.2500000000068</v>
+        <v>37308.849999999991</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
@@ -7433,11 +7440,11 @@
       </c>
       <c r="G185" s="9">
         <f t="shared" si="11"/>
-        <v>2029.0100000000002</v>
+        <v>43180.280000000021</v>
       </c>
       <c r="H185" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I185" s="9">
         <f t="shared" si="14"/>
@@ -7445,7 +7452,7 @@
       </c>
       <c r="J185" s="9">
         <f t="shared" si="13"/>
-        <v>2818.4800000000073</v>
+        <v>37455.079999999994</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -7470,11 +7477,11 @@
       </c>
       <c r="G186" s="9">
         <f t="shared" si="11"/>
-        <v>2211.0800000000004</v>
+        <v>43777.35000000002</v>
       </c>
       <c r="H186" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I186" s="9">
         <f t="shared" si="14"/>
@@ -7482,7 +7489,7 @@
       </c>
       <c r="J186" s="9">
         <f t="shared" si="13"/>
-        <v>2964.3300000000072</v>
+        <v>37600.929999999993</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -7507,11 +7514,11 @@
       </c>
       <c r="G187" s="9">
         <f t="shared" si="11"/>
-        <v>2400.96</v>
+        <v>44382.230000000018</v>
       </c>
       <c r="H187" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I187" s="9">
         <f t="shared" si="14"/>
@@ -7519,7 +7526,7 @@
       </c>
       <c r="J187" s="9">
         <f t="shared" si="13"/>
-        <v>3109.8100000000072</v>
+        <v>37746.409999999996</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -7544,11 +7551,11 @@
       </c>
       <c r="G188" s="9">
         <f t="shared" si="11"/>
-        <v>2598.66</v>
+        <v>44994.930000000015</v>
       </c>
       <c r="H188" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I188" s="9">
         <f t="shared" si="14"/>
@@ -7556,7 +7563,7 @@
       </c>
       <c r="J188" s="9">
         <f t="shared" si="13"/>
-        <v>3254.9200000000078</v>
+        <v>37891.519999999997</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -7581,11 +7588,11 @@
       </c>
       <c r="G189" s="9">
         <f t="shared" si="11"/>
-        <v>2804.18</v>
+        <v>45615.450000000012</v>
       </c>
       <c r="H189" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I189" s="9">
         <f t="shared" si="14"/>
@@ -7593,7 +7600,7 @@
       </c>
       <c r="J189" s="9">
         <f t="shared" si="13"/>
-        <v>3399.660000000008</v>
+        <v>38036.26</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
@@ -7618,11 +7625,11 @@
       </c>
       <c r="G190" s="9">
         <f t="shared" si="11"/>
-        <v>3017.53</v>
+        <v>46243.80000000001</v>
       </c>
       <c r="H190" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I190" s="9">
         <f t="shared" si="14"/>
@@ -7630,7 +7637,7 @@
       </c>
       <c r="J190" s="9">
         <f t="shared" si="13"/>
-        <v>3544.0200000000086</v>
+        <v>38180.620000000003</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
@@ -7655,11 +7662,11 @@
       </c>
       <c r="G191" s="9">
         <f t="shared" si="11"/>
-        <v>3238.7000000000007</v>
+        <v>46879.970000000008</v>
       </c>
       <c r="H191" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I191" s="9">
         <f t="shared" si="14"/>
@@ -7667,7 +7674,7 @@
       </c>
       <c r="J191" s="9">
         <f t="shared" si="13"/>
-        <v>3688.0100000000084</v>
+        <v>38324.61</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
@@ -7692,11 +7699,11 @@
       </c>
       <c r="G192" s="9">
         <f t="shared" si="11"/>
-        <v>3467.6800000000007</v>
+        <v>47523.950000000012</v>
       </c>
       <c r="H192" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I192" s="9">
         <f t="shared" si="14"/>
@@ -7704,7 +7711,7 @@
       </c>
       <c r="J192" s="9">
         <f t="shared" si="13"/>
-        <v>3831.6300000000078</v>
+        <v>38468.229999999996</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
@@ -7729,11 +7736,11 @@
       </c>
       <c r="G193" s="9">
         <f t="shared" si="11"/>
-        <v>3704.4800000000005</v>
+        <v>48175.750000000015</v>
       </c>
       <c r="H193" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I193" s="9">
         <f t="shared" si="14"/>
@@ -7741,7 +7748,7 @@
       </c>
       <c r="J193" s="9">
         <f t="shared" si="13"/>
-        <v>3974.8800000000074</v>
+        <v>38611.479999999996</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
@@ -7766,11 +7773,11 @@
       </c>
       <c r="G194" s="9">
         <f t="shared" si="11"/>
-        <v>3949.1000000000004</v>
+        <v>48835.370000000017</v>
       </c>
       <c r="H194" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I194" s="9">
         <f t="shared" si="14"/>
@@ -7778,7 +7785,7 @@
       </c>
       <c r="J194" s="9">
         <f t="shared" si="13"/>
-        <v>4117.7600000000075</v>
+        <v>38754.359999999993</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
@@ -7803,11 +7810,11 @@
       </c>
       <c r="G195" s="9">
         <f t="shared" si="11"/>
-        <v>4201.55</v>
+        <v>49502.820000000014</v>
       </c>
       <c r="H195" s="9">
         <f t="shared" si="12"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I195" s="9">
         <f t="shared" si="14"/>
@@ -7815,7 +7822,7 @@
       </c>
       <c r="J195" s="9">
         <f t="shared" si="13"/>
-        <v>4260.2600000000075</v>
+        <v>38896.859999999993</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
@@ -7840,11 +7847,11 @@
       </c>
       <c r="G196" s="9">
         <f t="shared" ref="G196:G241" si="16">G195+H195-I196</f>
-        <v>4461.82</v>
+        <v>50178.090000000011</v>
       </c>
       <c r="H196" s="9">
         <f t="shared" ref="H196:H241" si="17">H195</f>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I196" s="9">
         <f t="shared" si="14"/>
@@ -7852,7 +7859,7 @@
       </c>
       <c r="J196" s="9">
         <f t="shared" ref="J196:J241" si="18">J195+I196-B196</f>
-        <v>4402.3900000000067</v>
+        <v>39038.99</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
@@ -7877,11 +7884,11 @@
       </c>
       <c r="G197" s="9">
         <f t="shared" si="16"/>
-        <v>4729.8999999999996</v>
+        <v>50861.170000000013</v>
       </c>
       <c r="H197" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I197" s="9">
         <f t="shared" ref="I197:I241" si="19">IF(G196+H196&gt;ROUND(B197*1.05,2),ROUND(B197*1.05,2),G196+H196)</f>
@@ -7889,7 +7896,7 @@
       </c>
       <c r="J197" s="9">
         <f t="shared" si="18"/>
-        <v>4544.1500000000069</v>
+        <v>39180.75</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
@@ -7914,11 +7921,11 @@
       </c>
       <c r="G198" s="9">
         <f t="shared" si="16"/>
-        <v>5005.7999999999993</v>
+        <v>51552.070000000014</v>
       </c>
       <c r="H198" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I198" s="9">
         <f t="shared" si="19"/>
@@ -7926,7 +7933,7 @@
       </c>
       <c r="J198" s="9">
         <f t="shared" si="18"/>
-        <v>4685.5400000000072</v>
+        <v>39322.14</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
@@ -7951,11 +7958,11 @@
       </c>
       <c r="G199" s="9">
         <f t="shared" si="16"/>
-        <v>5289.5299999999988</v>
+        <v>52250.800000000017</v>
       </c>
       <c r="H199" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I199" s="9">
         <f t="shared" si="19"/>
@@ -7963,7 +7970,7 @@
       </c>
       <c r="J199" s="9">
         <f t="shared" si="18"/>
-        <v>4826.5500000000065</v>
+        <v>39463.149999999994</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
@@ -7988,11 +7995,11 @@
       </c>
       <c r="G200" s="9">
         <f t="shared" si="16"/>
-        <v>5581.079999999999</v>
+        <v>52957.35000000002</v>
       </c>
       <c r="H200" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I200" s="9">
         <f t="shared" si="19"/>
@@ -8000,7 +8007,7 @@
       </c>
       <c r="J200" s="9">
         <f t="shared" si="18"/>
-        <v>4967.190000000006</v>
+        <v>39603.789999999994</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
@@ -8025,11 +8032,11 @@
       </c>
       <c r="G201" s="9">
         <f t="shared" si="16"/>
-        <v>5880.449999999998</v>
+        <v>53671.720000000023</v>
       </c>
       <c r="H201" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I201" s="9">
         <f t="shared" si="19"/>
@@ -8037,7 +8044,7 @@
       </c>
       <c r="J201" s="9">
         <f t="shared" si="18"/>
-        <v>5107.4600000000064</v>
+        <v>39744.05999999999</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
@@ -8062,11 +8069,11 @@
       </c>
       <c r="G202" s="9">
         <f t="shared" si="16"/>
-        <v>6187.6299999999974</v>
+        <v>54393.900000000023</v>
       </c>
       <c r="H202" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I202" s="9">
         <f t="shared" si="19"/>
@@ -8074,7 +8081,7 @@
       </c>
       <c r="J202" s="9">
         <f t="shared" si="18"/>
-        <v>5247.360000000006</v>
+        <v>39883.959999999992</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
@@ -8099,11 +8106,11 @@
       </c>
       <c r="G203" s="9">
         <f t="shared" si="16"/>
-        <v>6502.6399999999976</v>
+        <v>55123.910000000025</v>
       </c>
       <c r="H203" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I203" s="9">
         <f t="shared" si="19"/>
@@ -8111,7 +8118,7 @@
       </c>
       <c r="J203" s="9">
         <f t="shared" si="18"/>
-        <v>5386.8800000000065</v>
+        <v>40023.479999999989</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
@@ -8136,11 +8143,11 @@
       </c>
       <c r="G204" s="9">
         <f t="shared" si="16"/>
-        <v>6825.4699999999975</v>
+        <v>55861.740000000027</v>
       </c>
       <c r="H204" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I204" s="9">
         <f t="shared" si="19"/>
@@ -8148,7 +8155,7 @@
       </c>
       <c r="J204" s="9">
         <f t="shared" si="18"/>
-        <v>5526.0300000000061</v>
+        <v>40162.62999999999</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
@@ -8173,11 +8180,11 @@
       </c>
       <c r="G205" s="9">
         <f t="shared" si="16"/>
-        <v>7156.1199999999972</v>
+        <v>56607.390000000029</v>
       </c>
       <c r="H205" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I205" s="9">
         <f t="shared" si="19"/>
@@ -8185,7 +8192,7 @@
       </c>
       <c r="J205" s="9">
         <f t="shared" si="18"/>
-        <v>5664.8100000000068</v>
+        <v>40301.409999999989</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
@@ -8210,11 +8217,11 @@
       </c>
       <c r="G206" s="9">
         <f t="shared" si="16"/>
-        <v>7494.5799999999972</v>
+        <v>57360.850000000028</v>
       </c>
       <c r="H206" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I206" s="9">
         <f t="shared" si="19"/>
@@ -8222,7 +8229,7 @@
       </c>
       <c r="J206" s="9">
         <f t="shared" si="18"/>
-        <v>5803.2200000000057</v>
+        <v>40439.819999999992</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
@@ -8247,11 +8254,11 @@
       </c>
       <c r="G207" s="9">
         <f t="shared" si="16"/>
-        <v>7840.8699999999981</v>
+        <v>58122.140000000029</v>
       </c>
       <c r="H207" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I207" s="9">
         <f t="shared" si="19"/>
@@ -8259,7 +8266,7 @@
       </c>
       <c r="J207" s="9">
         <f t="shared" si="18"/>
-        <v>5941.2500000000055</v>
+        <v>40577.849999999991</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
@@ -8284,11 +8291,11 @@
       </c>
       <c r="G208" s="9">
         <f t="shared" si="16"/>
-        <v>8194.98</v>
+        <v>58891.250000000029</v>
       </c>
       <c r="H208" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I208" s="9">
         <f t="shared" si="19"/>
@@ -8296,7 +8303,7 @@
       </c>
       <c r="J208" s="9">
         <f t="shared" si="18"/>
-        <v>6078.9100000000053</v>
+        <v>40715.509999999987</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
@@ -8321,11 +8328,11 @@
       </c>
       <c r="G209" s="9">
         <f t="shared" si="16"/>
-        <v>8556.91</v>
+        <v>59668.180000000029</v>
       </c>
       <c r="H209" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I209" s="9">
         <f t="shared" si="19"/>
@@ -8333,7 +8340,7 @@
       </c>
       <c r="J209" s="9">
         <f t="shared" si="18"/>
-        <v>6216.2000000000044</v>
+        <v>40852.799999999988</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
@@ -8358,11 +8365,11 @@
       </c>
       <c r="G210" s="9">
         <f t="shared" si="16"/>
-        <v>8926.66</v>
+        <v>60452.930000000029</v>
       </c>
       <c r="H210" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I210" s="9">
         <f t="shared" si="19"/>
@@ -8370,7 +8377,7 @@
       </c>
       <c r="J210" s="9">
         <f t="shared" si="18"/>
-        <v>6353.1200000000044</v>
+        <v>40989.719999999987</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
@@ -8395,11 +8402,11 @@
       </c>
       <c r="G211" s="9">
         <f t="shared" si="16"/>
-        <v>9304.23</v>
+        <v>61245.500000000029</v>
       </c>
       <c r="H211" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I211" s="9">
         <f t="shared" si="19"/>
@@ -8407,7 +8414,7 @@
       </c>
       <c r="J211" s="9">
         <f t="shared" si="18"/>
-        <v>6489.6600000000053</v>
+        <v>41126.259999999987</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
@@ -8432,11 +8439,11 @@
       </c>
       <c r="G212" s="9">
         <f t="shared" si="16"/>
-        <v>9689.619999999999</v>
+        <v>62045.890000000029</v>
       </c>
       <c r="H212" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I212" s="9">
         <f t="shared" si="19"/>
@@ -8444,7 +8451,7 @@
       </c>
       <c r="J212" s="9">
         <f t="shared" si="18"/>
-        <v>6625.8300000000054</v>
+        <v>41262.429999999986</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
@@ -8469,11 +8476,11 @@
       </c>
       <c r="G213" s="9">
         <f t="shared" si="16"/>
-        <v>10082.829999999998</v>
+        <v>62854.100000000028</v>
       </c>
       <c r="H213" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I213" s="9">
         <f t="shared" si="19"/>
@@ -8481,7 +8488,7 @@
       </c>
       <c r="J213" s="9">
         <f t="shared" si="18"/>
-        <v>6761.6300000000065</v>
+        <v>41398.229999999989</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
@@ -8506,11 +8513,11 @@
       </c>
       <c r="G214" s="9">
         <f t="shared" si="16"/>
-        <v>10483.859999999999</v>
+        <v>63670.130000000034</v>
       </c>
       <c r="H214" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I214" s="9">
         <f t="shared" si="19"/>
@@ -8518,7 +8525,7 @@
       </c>
       <c r="J214" s="9">
         <f t="shared" si="18"/>
-        <v>6897.0600000000059</v>
+        <v>41533.659999999989</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
@@ -8543,11 +8550,11 @@
       </c>
       <c r="G215" s="9">
         <f t="shared" si="16"/>
-        <v>10892.72</v>
+        <v>64493.990000000034</v>
       </c>
       <c r="H215" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I215" s="9">
         <f t="shared" si="19"/>
@@ -8555,7 +8562,7 @@
       </c>
       <c r="J215" s="9">
         <f t="shared" si="18"/>
-        <v>7032.110000000006</v>
+        <v>41668.709999999992</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
@@ -8580,11 +8587,11 @@
       </c>
       <c r="G216" s="9">
         <f t="shared" si="16"/>
-        <v>11309.39</v>
+        <v>65325.660000000033</v>
       </c>
       <c r="H216" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I216" s="9">
         <f t="shared" si="19"/>
@@ -8592,7 +8599,7 @@
       </c>
       <c r="J216" s="9">
         <f t="shared" si="18"/>
-        <v>7166.7900000000063</v>
+        <v>41803.389999999992</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
@@ -8617,11 +8624,11 @@
       </c>
       <c r="G217" s="9">
         <f t="shared" si="16"/>
-        <v>11733.88</v>
+        <v>66165.150000000038</v>
       </c>
       <c r="H217" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I217" s="9">
         <f t="shared" si="19"/>
@@ -8629,7 +8636,7 @@
       </c>
       <c r="J217" s="9">
         <f t="shared" si="18"/>
-        <v>7301.1000000000067</v>
+        <v>41937.699999999997</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
@@ -8654,11 +8661,11 @@
       </c>
       <c r="G218" s="9">
         <f t="shared" si="16"/>
-        <v>12166.189999999999</v>
+        <v>67012.460000000036</v>
       </c>
       <c r="H218" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I218" s="9">
         <f t="shared" si="19"/>
@@ -8666,7 +8673,7 @@
       </c>
       <c r="J218" s="9">
         <f t="shared" si="18"/>
-        <v>7435.0400000000063</v>
+        <v>42071.64</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
@@ -8691,11 +8698,11 @@
       </c>
       <c r="G219" s="9">
         <f t="shared" si="16"/>
-        <v>12606.32</v>
+        <v>67867.59000000004</v>
       </c>
       <c r="H219" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I219" s="9">
         <f t="shared" si="19"/>
@@ -8703,7 +8710,7 @@
       </c>
       <c r="J219" s="9">
         <f t="shared" si="18"/>
-        <v>7568.6100000000069</v>
+        <v>42205.21</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.15">
@@ -8728,11 +8735,11 @@
       </c>
       <c r="G220" s="9">
         <f t="shared" si="16"/>
-        <v>13054.279999999999</v>
+        <v>68730.550000000047</v>
       </c>
       <c r="H220" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I220" s="9">
         <f t="shared" si="19"/>
@@ -8740,7 +8747,7 @@
       </c>
       <c r="J220" s="9">
         <f t="shared" si="18"/>
-        <v>7701.8000000000065</v>
+        <v>42338.400000000001</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
@@ -8765,11 +8772,11 @@
       </c>
       <c r="G221" s="9">
         <f t="shared" si="16"/>
-        <v>13510.05</v>
+        <v>69601.320000000051</v>
       </c>
       <c r="H221" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I221" s="9">
         <f t="shared" si="19"/>
@@ -8777,7 +8784,7 @@
       </c>
       <c r="J221" s="9">
         <f t="shared" si="18"/>
-        <v>7834.6200000000063</v>
+        <v>42471.22</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
@@ -8802,11 +8809,11 @@
       </c>
       <c r="G222" s="9">
         <f t="shared" si="16"/>
-        <v>13973.64</v>
+        <v>70479.910000000047</v>
       </c>
       <c r="H222" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I222" s="9">
         <f t="shared" si="19"/>
@@ -8814,7 +8821,7 @@
       </c>
       <c r="J222" s="9">
         <f t="shared" si="18"/>
-        <v>7967.0700000000061</v>
+        <v>42603.670000000006</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
@@ -8839,11 +8846,11 @@
       </c>
       <c r="G223" s="9">
         <f t="shared" si="16"/>
-        <v>14445.05</v>
+        <v>71366.320000000051</v>
       </c>
       <c r="H223" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I223" s="9">
         <f t="shared" si="19"/>
@@ -8851,7 +8858,7 @@
       </c>
       <c r="J223" s="9">
         <f t="shared" si="18"/>
-        <v>8099.1500000000069</v>
+        <v>42735.750000000007</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.15">
@@ -8876,11 +8883,11 @@
       </c>
       <c r="G224" s="9">
         <f t="shared" si="16"/>
-        <v>14924.289999999999</v>
+        <v>72260.560000000056</v>
       </c>
       <c r="H224" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I224" s="9">
         <f t="shared" si="19"/>
@@ -8888,7 +8895,7 @@
       </c>
       <c r="J224" s="9">
         <f t="shared" si="18"/>
-        <v>8230.8500000000076</v>
+        <v>42867.450000000012</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.15">
@@ -8913,11 +8920,11 @@
       </c>
       <c r="G225" s="9">
         <f t="shared" si="16"/>
-        <v>15411.35</v>
+        <v>73162.620000000054</v>
       </c>
       <c r="H225" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I225" s="9">
         <f t="shared" si="19"/>
@@ -8925,7 +8932,7 @@
       </c>
       <c r="J225" s="9">
         <f t="shared" si="18"/>
-        <v>8362.1800000000076</v>
+        <v>42998.780000000013</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.15">
@@ -8950,11 +8957,11 @@
       </c>
       <c r="G226" s="9">
         <f t="shared" si="16"/>
-        <v>15906.219999999998</v>
+        <v>74072.490000000049</v>
       </c>
       <c r="H226" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I226" s="9">
         <f t="shared" si="19"/>
@@ -8962,7 +8969,7 @@
       </c>
       <c r="J226" s="9">
         <f t="shared" si="18"/>
-        <v>8493.1400000000085</v>
+        <v>43129.740000000013</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
@@ -8987,11 +8994,11 @@
       </c>
       <c r="G227" s="9">
         <f t="shared" si="16"/>
-        <v>16408.909999999996</v>
+        <v>74990.180000000051</v>
       </c>
       <c r="H227" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I227" s="9">
         <f t="shared" si="19"/>
@@ -8999,7 +9006,7 @@
       </c>
       <c r="J227" s="9">
         <f t="shared" si="18"/>
-        <v>8623.7300000000087</v>
+        <v>43260.330000000009</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
@@ -9024,11 +9031,11 @@
       </c>
       <c r="G228" s="9">
         <f t="shared" si="16"/>
-        <v>16919.429999999997</v>
+        <v>75915.700000000055</v>
       </c>
       <c r="H228" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I228" s="9">
         <f t="shared" si="19"/>
@@ -9036,7 +9043,7 @@
       </c>
       <c r="J228" s="9">
         <f t="shared" si="18"/>
-        <v>8753.9400000000078</v>
+        <v>43390.540000000015</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
@@ -9061,11 +9068,11 @@
       </c>
       <c r="G229" s="9">
         <f t="shared" si="16"/>
-        <v>17437.769999999997</v>
+        <v>76849.040000000052</v>
       </c>
       <c r="H229" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I229" s="9">
         <f t="shared" si="19"/>
@@ -9073,7 +9080,7 @@
       </c>
       <c r="J229" s="9">
         <f t="shared" si="18"/>
-        <v>8883.7800000000079</v>
+        <v>43520.380000000012</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.15">
@@ -9098,11 +9105,11 @@
       </c>
       <c r="G230" s="9">
         <f t="shared" si="16"/>
-        <v>17963.919999999998</v>
+        <v>77790.190000000046</v>
       </c>
       <c r="H230" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I230" s="9">
         <f t="shared" si="19"/>
@@ -9110,7 +9117,7 @@
       </c>
       <c r="J230" s="9">
         <f t="shared" si="18"/>
-        <v>9013.2500000000073</v>
+        <v>43649.850000000013</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
@@ -9135,11 +9142,11 @@
       </c>
       <c r="G231" s="9">
         <f t="shared" si="16"/>
-        <v>18497.89</v>
+        <v>78739.160000000047</v>
       </c>
       <c r="H231" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I231" s="9">
         <f t="shared" si="19"/>
@@ -9147,7 +9154,7 @@
       </c>
       <c r="J231" s="9">
         <f t="shared" si="18"/>
-        <v>9142.3500000000076</v>
+        <v>43778.950000000012</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
@@ -9172,11 +9179,11 @@
       </c>
       <c r="G232" s="9">
         <f t="shared" si="16"/>
-        <v>19039.689999999999</v>
+        <v>79695.96000000005</v>
       </c>
       <c r="H232" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I232" s="9">
         <f t="shared" si="19"/>
@@ -9184,7 +9191,7 @@
       </c>
       <c r="J232" s="9">
         <f t="shared" si="18"/>
-        <v>9271.070000000007</v>
+        <v>43907.670000000006</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
@@ -9209,11 +9216,11 @@
       </c>
       <c r="G233" s="9">
         <f t="shared" si="16"/>
-        <v>19589.309999999998</v>
+        <v>80660.580000000045</v>
       </c>
       <c r="H233" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I233" s="9">
         <f t="shared" si="19"/>
@@ -9221,7 +9228,7 @@
       </c>
       <c r="J233" s="9">
         <f t="shared" si="18"/>
-        <v>9399.4200000000073</v>
+        <v>44036.020000000004</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
@@ -9246,11 +9253,11 @@
       </c>
       <c r="G234" s="9">
         <f t="shared" si="16"/>
-        <v>20146.749999999996</v>
+        <v>81633.020000000048</v>
       </c>
       <c r="H234" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I234" s="9">
         <f t="shared" si="19"/>
@@ -9258,7 +9265,7 @@
       </c>
       <c r="J234" s="9">
         <f t="shared" si="18"/>
-        <v>9527.4000000000069</v>
+        <v>44164</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
@@ -9283,11 +9290,11 @@
       </c>
       <c r="G235" s="9">
         <f t="shared" si="16"/>
-        <v>20711.999999999996</v>
+        <v>82613.270000000048</v>
       </c>
       <c r="H235" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I235" s="9">
         <f t="shared" si="19"/>
@@ -9295,7 +9302,7 @@
       </c>
       <c r="J235" s="9">
         <f t="shared" si="18"/>
-        <v>9655.0100000000075</v>
+        <v>44291.61</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
@@ -9320,11 +9327,11 @@
       </c>
       <c r="G236" s="9">
         <f t="shared" si="16"/>
-        <v>21285.079999999994</v>
+        <v>83601.350000000049</v>
       </c>
       <c r="H236" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I236" s="9">
         <f t="shared" si="19"/>
@@ -9332,7 +9339,7 @@
       </c>
       <c r="J236" s="9">
         <f t="shared" si="18"/>
-        <v>9782.2400000000071</v>
+        <v>44418.84</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
@@ -9357,11 +9364,11 @@
       </c>
       <c r="G237" s="9">
         <f t="shared" si="16"/>
-        <v>21865.979999999996</v>
+        <v>84597.250000000044</v>
       </c>
       <c r="H237" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I237" s="9">
         <f t="shared" si="19"/>
@@ -9369,7 +9376,7 @@
       </c>
       <c r="J237" s="9">
         <f t="shared" si="18"/>
-        <v>9909.1000000000076</v>
+        <v>44545.7</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
@@ -9394,11 +9401,11 @@
       </c>
       <c r="G238" s="9">
         <f t="shared" si="16"/>
-        <v>22454.699999999997</v>
+        <v>85600.970000000045</v>
       </c>
       <c r="H238" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I238" s="9">
         <f t="shared" si="19"/>
@@ -9406,7 +9413,7 @@
       </c>
       <c r="J238" s="9">
         <f t="shared" si="18"/>
-        <v>10035.590000000007</v>
+        <v>44672.189999999995</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.15">
@@ -9431,11 +9438,11 @@
       </c>
       <c r="G239" s="9">
         <f t="shared" si="16"/>
-        <v>23051.239999999998</v>
+        <v>86612.510000000038</v>
       </c>
       <c r="H239" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I239" s="9">
         <f t="shared" si="19"/>
@@ -9443,7 +9450,7 @@
       </c>
       <c r="J239" s="9">
         <f t="shared" si="18"/>
-        <v>10161.710000000006</v>
+        <v>44798.31</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.15">
@@ -9468,11 +9475,11 @@
       </c>
       <c r="G240" s="9">
         <f t="shared" si="16"/>
-        <v>23655.589999999997</v>
+        <v>87631.860000000044</v>
       </c>
       <c r="H240" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I240" s="9">
         <f t="shared" si="19"/>
@@ -9480,7 +9487,7 @@
       </c>
       <c r="J240" s="9">
         <f t="shared" si="18"/>
-        <v>10287.460000000006</v>
+        <v>44924.06</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.15">
@@ -9505,11 +9512,11 @@
       </c>
       <c r="G241" s="9">
         <f t="shared" si="16"/>
-        <v>24267.769999999997</v>
+        <v>88659.040000000037</v>
       </c>
       <c r="H241" s="9">
         <f t="shared" si="17"/>
-        <v>3245</v>
+        <v>3660</v>
       </c>
       <c r="I241" s="9">
         <f t="shared" si="19"/>
@@ -9517,7 +9524,7 @@
       </c>
       <c r="J241" s="9">
         <f t="shared" si="18"/>
-        <v>10412.830000000005</v>
+        <v>45049.43</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金还款.xlsx
+++ b/我的家/公积金还款.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
@@ -592,10 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -648,7 +649,7 @@
       </c>
       <c r="N1" s="6">
         <f>J168</f>
-        <v>34918.569999999992</v>
+        <v>34918.589999999997</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -656,7 +657,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>4287.5</v>
+        <f>C2+D2</f>
+        <v>5419.62</v>
       </c>
       <c r="C2" s="8">
         <v>2500</v>
@@ -687,13 +689,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>4280.05</v>
+        <f>C3+D3</f>
+        <v>4280.07</v>
       </c>
       <c r="C3" s="8">
         <v>2500</v>
       </c>
       <c r="D3" s="8">
-        <v>1780.05</v>
+        <v>1780.07</v>
       </c>
       <c r="E3" s="9">
         <v>595000</v>
@@ -704,19 +707,18 @@
       </c>
       <c r="G3" s="9">
         <f>G2+H2-I3</f>
-        <v>64488.789999999994</v>
+        <v>64488.749999999993</v>
       </c>
       <c r="H3" s="9">
         <f>3080+837.89</f>
         <v>3917.89</v>
       </c>
       <c r="I3" s="9">
-        <f>IF(G2+H2&gt;ROUND(B3*2.1,2),ROUND(B3*2.1,2),G2+H2)</f>
-        <v>8988.11</v>
+        <v>8988.15</v>
       </c>
       <c r="J3" s="9">
         <f>J2+I3-B3</f>
-        <v>4708.0600000000004</v>
+        <v>4708.08</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>10</v>
@@ -727,6 +729,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
+        <f>C4+D4</f>
         <v>4272.62</v>
       </c>
       <c r="C4" s="8">
@@ -744,7 +747,7 @@
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="1">G3+H3-I4</f>
-        <v>63920.429999999993</v>
+        <v>63920.39</v>
       </c>
       <c r="H4" s="9">
         <v>3660</v>
@@ -755,7 +758,7 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" ref="J4:J67" si="2">J3+I4-B4</f>
-        <v>4921.6900000000014</v>
+        <v>4921.71</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -763,13 +766,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>4265.16</v>
+        <f>C5+D5</f>
+        <v>4265.18</v>
       </c>
       <c r="C5" s="8">
         <v>2500</v>
       </c>
       <c r="D5" s="8">
-        <v>1765.16</v>
+        <v>1765.18</v>
       </c>
       <c r="E5" s="9">
         <v>590000</v>
@@ -780,19 +784,18 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>63102.009999999995</v>
+        <v>63101.95</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H4:H67" si="3">H4</f>
+        <f t="shared" ref="H5:H67" si="3">H4</f>
         <v>3660</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I68" si="4">IF(G4+H4&gt;ROUND(B5*1.05,2),ROUND(B5*1.05,2),G4+H4)</f>
-        <v>4478.42</v>
+        <v>4478.4399999999996</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="2"/>
-        <v>5134.9500000000007</v>
+        <v>5134.9699999999993</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -800,13 +803,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>4257.71</v>
+        <f>C6+D6</f>
+        <v>4257.7299999999996</v>
       </c>
       <c r="C6" s="8">
         <v>2500</v>
       </c>
       <c r="D6" s="8">
-        <v>1757.71</v>
+        <v>1757.73</v>
       </c>
       <c r="E6" s="9">
         <v>587500</v>
@@ -817,19 +821,18 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>62291.409999999996</v>
+        <v>62291.329999999994</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="3"/>
         <v>3660</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="4"/>
-        <v>4470.6000000000004</v>
+        <v>4470.62</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="2"/>
-        <v>5347.8400000000011</v>
+        <v>5347.8600000000006</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -837,13 +840,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>4250.26</v>
+        <f>C7+D7</f>
+        <v>4250.28</v>
       </c>
       <c r="C7" s="8">
         <v>2500</v>
       </c>
       <c r="D7" s="8">
-        <v>1750.26</v>
+        <v>1750.28</v>
       </c>
       <c r="E7" s="9">
         <v>585000</v>
@@ -854,19 +858,18 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>61488.639999999999</v>
+        <v>61488.539999999986</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="3"/>
         <v>3660</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="4"/>
-        <v>4462.7700000000004</v>
+        <v>4462.79</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>5560.35</v>
+        <v>5560.3700000000017</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -874,13 +877,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>4242.8100000000004</v>
+        <f>C8+D8</f>
+        <v>4242.83</v>
       </c>
       <c r="C8" s="8">
         <v>2500</v>
       </c>
       <c r="D8" s="8">
-        <v>1742.81</v>
+        <v>1742.83</v>
       </c>
       <c r="E8" s="9">
         <v>582500</v>
@@ -891,19 +895,18 @@
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>60693.69</v>
+        <v>60693.569999999985</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="3"/>
         <v>3660</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="4"/>
-        <v>4454.95</v>
+        <v>4454.97</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>5772.4899999999989</v>
+        <v>5772.510000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -911,6 +914,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
+        <f>C9+D9</f>
         <v>4235.3599999999997</v>
       </c>
       <c r="C9" s="8">
@@ -928,19 +932,19 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>59906.560000000005</v>
+        <v>59906.439999999988</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="3"/>
         <v>3660</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I5:I68" si="4">IF(G8+H8&gt;ROUND(B9*1.05,2),ROUND(B9*1.05,2),G8+H8)</f>
         <v>4447.13</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>5984.2599999999993</v>
+        <v>5984.2800000000034</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -948,6 +952,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
+        <f>C10+D10</f>
         <v>4227.92</v>
       </c>
       <c r="C10" s="8">
@@ -965,7 +970,7 @@
       </c>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>59127.240000000005</v>
+        <v>59127.119999999988</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="3"/>
@@ -977,7 +982,7 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>6195.659999999998</v>
+        <v>6195.6800000000021</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -985,6 +990,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
+        <f>C11+D11</f>
         <v>4220.47</v>
       </c>
       <c r="C11" s="8">
@@ -1002,7 +1008,7 @@
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>58355.750000000007</v>
+        <v>58355.62999999999</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="3"/>
@@ -1014,7 +1020,7 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>6406.6799999999976</v>
+        <v>6406.7000000000016</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1022,6 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
+        <f>C12+D12</f>
         <v>4213.0200000000004</v>
       </c>
       <c r="C12" s="8">
@@ -1039,7 +1046,7 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>57592.080000000009</v>
+        <v>57591.959999999992</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="3"/>
@@ -1051,7 +1058,7 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>6617.3299999999981</v>
+        <v>6617.3500000000022</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1059,6 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8">
+        <f>C13+D13</f>
         <v>4205.57</v>
       </c>
       <c r="C13" s="8">
@@ -1076,7 +1084,7 @@
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>56836.23000000001</v>
+        <v>56836.109999999993</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="3"/>
@@ -1088,7 +1096,7 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="2"/>
-        <v>6827.6099999999988</v>
+        <v>6827.6300000000028</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -1096,6 +1104,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8">
+        <f>C14+D14</f>
         <v>4198.13</v>
       </c>
       <c r="C14" s="8">
@@ -1113,7 +1122,7 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>56088.19000000001</v>
+        <v>56088.069999999992</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="3"/>
@@ -1125,7 +1134,7 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>7037.5199999999977</v>
+        <v>7037.5400000000018</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -1133,6 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8">
+        <f>C15+D15</f>
         <v>4190.68</v>
       </c>
       <c r="C15" s="8">
@@ -1150,7 +1160,7 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>55347.98000000001</v>
+        <v>55347.859999999993</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="3"/>
@@ -1162,7 +1172,7 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>7247.0499999999975</v>
+        <v>7247.0700000000015</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -1170,6 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
+        <f>C16+D16</f>
         <v>4183.2299999999996</v>
       </c>
       <c r="C16" s="8">
@@ -1187,7 +1198,7 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>54615.590000000011</v>
+        <v>54615.469999999994</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="3"/>
@@ -1199,7 +1210,7 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>7456.2099999999991</v>
+        <v>7456.2300000000032</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1207,6 +1218,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8">
+        <f>C17+D17</f>
         <v>4175.78</v>
       </c>
       <c r="C17" s="8">
@@ -1224,7 +1236,7 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>53891.020000000011</v>
+        <v>53890.899999999994</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="3"/>
@@ -1236,7 +1248,7 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>7664.9999999999991</v>
+        <v>7665.0200000000032</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1244,6 +1256,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
+        <f>C18+D18</f>
         <v>4168.33</v>
       </c>
       <c r="C18" s="8">
@@ -1261,7 +1274,7 @@
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>53174.270000000011</v>
+        <v>53174.149999999994</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="3"/>
@@ -1273,7 +1286,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>7873.42</v>
+        <v>7873.4400000000041</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -1298,7 +1311,7 @@
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>52465.340000000011</v>
+        <v>52465.219999999994</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="3"/>
@@ -1310,7 +1323,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>8081.46</v>
+        <v>8081.4800000000041</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1335,7 +1348,7 @@
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>51764.23000000001</v>
+        <v>51764.109999999993</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="3"/>
@@ -1347,7 +1360,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="2"/>
-        <v>8289.130000000001</v>
+        <v>8289.1500000000051</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1372,7 +1385,7 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>51070.94000000001</v>
+        <v>51070.819999999992</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="3"/>
@@ -1384,7 +1397,7 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>8496.4300000000021</v>
+        <v>8496.4500000000062</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -1409,7 +1422,7 @@
       </c>
       <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>50385.470000000008</v>
+        <v>50385.349999999991</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="3"/>
@@ -1421,7 +1434,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>8703.36</v>
+        <v>8703.3800000000047</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -1446,7 +1459,7 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>49707.830000000009</v>
+        <v>49707.709999999992</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="3"/>
@@ -1458,7 +1471,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>8909.91</v>
+        <v>8909.9300000000039</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1483,7 +1496,7 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>49038.000000000007</v>
+        <v>49037.87999999999</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="3"/>
@@ -1495,7 +1508,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>9116.09</v>
+        <v>9116.1100000000042</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -1520,7 +1533,7 @@
       </c>
       <c r="G25" s="9">
         <f t="shared" si="1"/>
-        <v>48375.990000000005</v>
+        <v>48375.869999999988</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="3"/>
@@ -1532,7 +1545,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>9321.9000000000015</v>
+        <v>9321.9200000000055</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1557,7 +1570,7 @@
       </c>
       <c r="G26" s="9">
         <f t="shared" si="1"/>
-        <v>47721.8</v>
+        <v>47721.679999999986</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="3"/>
@@ -1569,7 +1582,7 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="2"/>
-        <v>9527.34</v>
+        <v>9527.3600000000042</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -1594,7 +1607,7 @@
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>47075.43</v>
+        <v>47075.309999999983</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="3"/>
@@ -1606,7 +1619,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>9732.41</v>
+        <v>9732.4300000000039</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -1631,7 +1644,7 @@
       </c>
       <c r="G28" s="9">
         <f t="shared" si="1"/>
-        <v>46436.89</v>
+        <v>46436.769999999982</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="3"/>
@@ -1643,7 +1656,7 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>9937.1</v>
+        <v>9937.1200000000044</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1668,7 +1681,7 @@
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>45806.16</v>
+        <v>45806.039999999979</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="3"/>
@@ -1680,7 +1693,7 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>10141.42</v>
+        <v>10141.440000000004</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -1705,7 +1718,7 @@
       </c>
       <c r="G30" s="9">
         <f t="shared" si="1"/>
-        <v>45183.25</v>
+        <v>45183.129999999976</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="3"/>
@@ -1717,7 +1730,7 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="2"/>
-        <v>10345.369999999999</v>
+        <v>10345.390000000003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -1742,7 +1755,7 @@
       </c>
       <c r="G31" s="9">
         <f t="shared" si="1"/>
-        <v>44568.160000000003</v>
+        <v>44568.039999999979</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="3"/>
@@ -1754,7 +1767,7 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="2"/>
-        <v>10548.949999999999</v>
+        <v>10548.970000000003</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1779,7 +1792,7 @@
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>43960.9</v>
+        <v>43960.779999999977</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="3"/>
@@ -1791,7 +1804,7 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>10752.15</v>
+        <v>10752.170000000004</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -1816,7 +1829,7 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>43361.46</v>
+        <v>43361.339999999975</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="3"/>
@@ -1828,7 +1841,7 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>10954.98</v>
+        <v>10955.000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -1853,7 +1866,7 @@
       </c>
       <c r="G34" s="9">
         <f t="shared" si="1"/>
-        <v>42769.83</v>
+        <v>42769.709999999977</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" si="3"/>
@@ -1865,7 +1878,7 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
-        <v>11157.44</v>
+        <v>11157.460000000005</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -1890,7 +1903,7 @@
       </c>
       <c r="G35" s="9">
         <f t="shared" si="1"/>
-        <v>42186.020000000004</v>
+        <v>42185.89999999998</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="3"/>
@@ -1902,7 +1915,7 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="2"/>
-        <v>11359.53</v>
+        <v>11359.550000000005</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -1927,7 +1940,7 @@
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>41610.040000000008</v>
+        <v>41609.919999999984</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="3"/>
@@ -1939,7 +1952,7 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="2"/>
-        <v>11561.24</v>
+        <v>11561.260000000004</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -1964,7 +1977,7 @@
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>41041.880000000005</v>
+        <v>41041.75999999998</v>
       </c>
       <c r="H37" s="9">
         <f t="shared" si="3"/>
@@ -1976,7 +1989,7 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="2"/>
-        <v>11762.58</v>
+        <v>11762.600000000004</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -2001,7 +2014,7 @@
       </c>
       <c r="G38" s="9">
         <f t="shared" si="1"/>
-        <v>40481.530000000006</v>
+        <v>40481.409999999982</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" si="3"/>
@@ -2013,7 +2026,7 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="2"/>
-        <v>11963.55</v>
+        <v>11963.570000000003</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -2038,7 +2051,7 @@
       </c>
       <c r="G39" s="9">
         <f t="shared" si="1"/>
-        <v>39929.000000000007</v>
+        <v>39928.879999999983</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="3"/>
@@ -2050,7 +2063,7 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="2"/>
-        <v>12164.149999999998</v>
+        <v>12164.170000000002</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -2075,7 +2088,7 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>39384.30000000001</v>
+        <v>39384.179999999986</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="3"/>
@@ -2087,7 +2100,7 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="2"/>
-        <v>12364.369999999999</v>
+        <v>12364.390000000003</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -2112,7 +2125,7 @@
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>38847.420000000013</v>
+        <v>38847.299999999988</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="3"/>
@@ -2124,7 +2137,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="2"/>
-        <v>12564.22</v>
+        <v>12564.240000000003</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -2149,7 +2162,7 @@
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>38318.360000000015</v>
+        <v>38318.239999999991</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="3"/>
@@ -2161,7 +2174,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="2"/>
-        <v>12763.699999999999</v>
+        <v>12763.720000000003</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -2186,7 +2199,7 @@
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>37797.110000000015</v>
+        <v>37796.989999999991</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="3"/>
@@ -2198,7 +2211,7 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="2"/>
-        <v>12962.809999999998</v>
+        <v>12962.830000000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -2223,7 +2236,7 @@
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>37283.690000000017</v>
+        <v>37283.569999999992</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="3"/>
@@ -2235,7 +2248,7 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="2"/>
-        <v>13161.539999999995</v>
+        <v>13161.56</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -2260,7 +2273,7 @@
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>36778.090000000018</v>
+        <v>36777.969999999994</v>
       </c>
       <c r="H45" s="9">
         <f t="shared" si="3"/>
@@ -2272,7 +2285,7 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="2"/>
-        <v>13359.899999999996</v>
+        <v>13359.92</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -2297,7 +2310,7 @@
       </c>
       <c r="G46" s="9">
         <f t="shared" si="1"/>
-        <v>36280.310000000019</v>
+        <v>36280.189999999995</v>
       </c>
       <c r="H46" s="9">
         <f t="shared" si="3"/>
@@ -2309,7 +2322,7 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="2"/>
-        <v>13557.889999999996</v>
+        <v>13557.91</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -2334,7 +2347,7 @@
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>35790.35000000002</v>
+        <v>35790.229999999996</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="3"/>
@@ -2346,7 +2359,7 @@
       </c>
       <c r="J47" s="9">
         <f t="shared" si="2"/>
-        <v>13755.509999999995</v>
+        <v>13755.529999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -2371,7 +2384,7 @@
       </c>
       <c r="G48" s="9">
         <f t="shared" si="1"/>
-        <v>35308.200000000019</v>
+        <v>35308.079999999994</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="3"/>
@@ -2383,7 +2396,7 @@
       </c>
       <c r="J48" s="9">
         <f t="shared" si="2"/>
-        <v>13952.759999999997</v>
+        <v>13952.78</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -2408,7 +2421,7 @@
       </c>
       <c r="G49" s="9">
         <f t="shared" si="1"/>
-        <v>34833.880000000019</v>
+        <v>34833.759999999995</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="3"/>
@@ -2420,7 +2433,7 @@
       </c>
       <c r="J49" s="9">
         <f t="shared" si="2"/>
-        <v>14149.629999999994</v>
+        <v>14149.649999999998</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -2445,7 +2458,7 @@
       </c>
       <c r="G50" s="9">
         <f t="shared" si="1"/>
-        <v>34367.380000000019</v>
+        <v>34367.259999999995</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="3"/>
@@ -2457,7 +2470,7 @@
       </c>
       <c r="J50" s="9">
         <f t="shared" si="2"/>
-        <v>14346.129999999994</v>
+        <v>14346.149999999998</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -2482,7 +2495,7 @@
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>33908.700000000019</v>
+        <v>33908.579999999994</v>
       </c>
       <c r="H51" s="9">
         <f t="shared" si="3"/>
@@ -2494,7 +2507,7 @@
       </c>
       <c r="J51" s="9">
         <f t="shared" si="2"/>
-        <v>14542.259999999995</v>
+        <v>14542.279999999999</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -2519,7 +2532,7 @@
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>33457.840000000018</v>
+        <v>33457.719999999994</v>
       </c>
       <c r="H52" s="9">
         <f t="shared" si="3"/>
@@ -2531,7 +2544,7 @@
       </c>
       <c r="J52" s="9">
         <f t="shared" si="2"/>
-        <v>14738.019999999995</v>
+        <v>14738.039999999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -2556,7 +2569,7 @@
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>33014.800000000017</v>
+        <v>33014.679999999993</v>
       </c>
       <c r="H53" s="9">
         <f t="shared" si="3"/>
@@ -2568,7 +2581,7 @@
       </c>
       <c r="J53" s="9">
         <f t="shared" si="2"/>
-        <v>14933.399999999994</v>
+        <v>14933.419999999998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -2593,7 +2606,7 @@
       </c>
       <c r="G54" s="9">
         <f t="shared" si="1"/>
-        <v>32579.580000000016</v>
+        <v>32579.459999999992</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="3"/>
@@ -2605,7 +2618,7 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" si="2"/>
-        <v>15128.409999999996</v>
+        <v>15128.43</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -2630,7 +2643,7 @@
       </c>
       <c r="G55" s="9">
         <f t="shared" si="1"/>
-        <v>32152.180000000015</v>
+        <v>32152.05999999999</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="3"/>
@@ -2642,7 +2655,7 @@
       </c>
       <c r="J55" s="9">
         <f t="shared" si="2"/>
-        <v>15323.049999999997</v>
+        <v>15323.070000000002</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -2667,7 +2680,7 @@
       </c>
       <c r="G56" s="9">
         <f t="shared" si="1"/>
-        <v>31732.600000000013</v>
+        <v>31732.479999999989</v>
       </c>
       <c r="H56" s="9">
         <f t="shared" si="3"/>
@@ -2679,7 +2692,7 @@
       </c>
       <c r="J56" s="9">
         <f t="shared" si="2"/>
-        <v>15517.319999999998</v>
+        <v>15517.340000000002</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -2704,7 +2717,7 @@
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>31320.850000000013</v>
+        <v>31320.729999999989</v>
       </c>
       <c r="H57" s="9">
         <f t="shared" si="3"/>
@@ -2716,7 +2729,7 @@
       </c>
       <c r="J57" s="9">
         <f t="shared" si="2"/>
-        <v>15711.21</v>
+        <v>15711.230000000003</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -2741,7 +2754,7 @@
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>30916.910000000014</v>
+        <v>30916.78999999999</v>
       </c>
       <c r="H58" s="9">
         <f t="shared" si="3"/>
@@ -2753,7 +2766,7 @@
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>15904.729999999998</v>
+        <v>15904.750000000002</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2778,7 +2791,7 @@
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>30520.790000000019</v>
+        <v>30520.669999999995</v>
       </c>
       <c r="H59" s="9">
         <f t="shared" si="3"/>
@@ -2790,7 +2803,7 @@
       </c>
       <c r="J59" s="9">
         <f t="shared" si="2"/>
-        <v>16097.88</v>
+        <v>16097.900000000003</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2815,7 +2828,7 @@
       </c>
       <c r="G60" s="9">
         <f t="shared" si="1"/>
-        <v>30132.490000000023</v>
+        <v>30132.37</v>
       </c>
       <c r="H60" s="9">
         <f t="shared" si="3"/>
@@ -2827,7 +2840,7 @@
       </c>
       <c r="J60" s="9">
         <f t="shared" si="2"/>
-        <v>16290.66</v>
+        <v>16290.680000000004</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2852,7 +2865,7 @@
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>29752.020000000019</v>
+        <v>29751.899999999994</v>
       </c>
       <c r="H61" s="9">
         <f t="shared" si="3"/>
@@ -2864,7 +2877,7 @@
       </c>
       <c r="J61" s="9">
         <f t="shared" si="2"/>
-        <v>16483.060000000001</v>
+        <v>16483.080000000005</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -2889,7 +2902,7 @@
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>29379.360000000019</v>
+        <v>29379.239999999994</v>
       </c>
       <c r="H62" s="9">
         <f t="shared" si="3"/>
@@ -2901,7 +2914,7 @@
       </c>
       <c r="J62" s="9">
         <f t="shared" si="2"/>
-        <v>16675.09</v>
+        <v>16675.110000000004</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -2926,7 +2939,7 @@
       </c>
       <c r="G63" s="9">
         <f t="shared" si="1"/>
-        <v>29014.520000000015</v>
+        <v>29014.399999999991</v>
       </c>
       <c r="H63" s="9">
         <f t="shared" si="3"/>
@@ -2938,7 +2951,7 @@
       </c>
       <c r="J63" s="9">
         <f t="shared" si="2"/>
-        <v>16866.75</v>
+        <v>16866.770000000004</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -2963,7 +2976,7 @@
       </c>
       <c r="G64" s="9">
         <f t="shared" si="1"/>
-        <v>28657.500000000015</v>
+        <v>28657.37999999999</v>
       </c>
       <c r="H64" s="9">
         <f t="shared" si="3"/>
@@ -2975,7 +2988,7 @@
       </c>
       <c r="J64" s="9">
         <f t="shared" si="2"/>
-        <v>17058.04</v>
+        <v>17058.060000000005</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -3000,7 +3013,7 @@
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>28308.310000000016</v>
+        <v>28308.189999999991</v>
       </c>
       <c r="H65" s="9">
         <f t="shared" si="3"/>
@@ -3012,7 +3025,7 @@
       </c>
       <c r="J65" s="9">
         <f t="shared" si="2"/>
-        <v>17248.95</v>
+        <v>17248.970000000005</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -3037,7 +3050,7 @@
       </c>
       <c r="G66" s="9">
         <f t="shared" si="1"/>
-        <v>27966.940000000017</v>
+        <v>27966.819999999992</v>
       </c>
       <c r="H66" s="9">
         <f t="shared" si="3"/>
@@ -3049,7 +3062,7 @@
       </c>
       <c r="J66" s="9">
         <f t="shared" si="2"/>
-        <v>17439.489999999998</v>
+        <v>17439.510000000002</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -3074,7 +3087,7 @@
       </c>
       <c r="G67" s="9">
         <f t="shared" si="1"/>
-        <v>27633.380000000016</v>
+        <v>27633.259999999991</v>
       </c>
       <c r="H67" s="9">
         <f t="shared" si="3"/>
@@ -3086,7 +3099,7 @@
       </c>
       <c r="J67" s="9">
         <f t="shared" si="2"/>
-        <v>17629.66</v>
+        <v>17629.680000000004</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -3111,7 +3124,7 @@
       </c>
       <c r="G68" s="9">
         <f t="shared" ref="G68:G131" si="6">G67+H67-I68</f>
-        <v>27307.640000000014</v>
+        <v>27307.51999999999</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" ref="H68:H131" si="7">H67</f>
@@ -3123,7 +3136,7 @@
       </c>
       <c r="J68" s="9">
         <f t="shared" ref="J68:J131" si="8">J67+I68-B68</f>
-        <v>17819.460000000003</v>
+        <v>17819.480000000007</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -3148,7 +3161,7 @@
       </c>
       <c r="G69" s="9">
         <f t="shared" si="6"/>
-        <v>26989.730000000014</v>
+        <v>26989.60999999999</v>
       </c>
       <c r="H69" s="9">
         <f t="shared" si="7"/>
@@ -3160,7 +3173,7 @@
       </c>
       <c r="J69" s="9">
         <f t="shared" si="8"/>
-        <v>18008.880000000005</v>
+        <v>18008.900000000009</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -3185,7 +3198,7 @@
       </c>
       <c r="G70" s="9">
         <f t="shared" si="6"/>
-        <v>26679.640000000014</v>
+        <v>26679.51999999999</v>
       </c>
       <c r="H70" s="9">
         <f t="shared" si="7"/>
@@ -3197,7 +3210,7 @@
       </c>
       <c r="J70" s="9">
         <f t="shared" si="8"/>
-        <v>18197.930000000004</v>
+        <v>18197.950000000008</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -3222,7 +3235,7 @@
       </c>
       <c r="G71" s="9">
         <f t="shared" si="6"/>
-        <v>26377.370000000014</v>
+        <v>26377.249999999989</v>
       </c>
       <c r="H71" s="9">
         <f t="shared" si="7"/>
@@ -3234,7 +3247,7 @@
       </c>
       <c r="J71" s="9">
         <f t="shared" si="8"/>
-        <v>18386.610000000004</v>
+        <v>18386.630000000008</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -3259,7 +3272,7 @@
       </c>
       <c r="G72" s="9">
         <f t="shared" si="6"/>
-        <v>26082.910000000014</v>
+        <v>26082.78999999999</v>
       </c>
       <c r="H72" s="9">
         <f t="shared" si="7"/>
@@ -3271,7 +3284,7 @@
       </c>
       <c r="J72" s="9">
         <f t="shared" si="8"/>
-        <v>18574.920000000002</v>
+        <v>18574.940000000006</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -3296,7 +3309,7 @@
       </c>
       <c r="G73" s="9">
         <f t="shared" si="6"/>
-        <v>25796.270000000015</v>
+        <v>25796.149999999991</v>
       </c>
       <c r="H73" s="9">
         <f t="shared" si="7"/>
@@ -3308,7 +3321,7 @@
       </c>
       <c r="J73" s="9">
         <f t="shared" si="8"/>
-        <v>18762.86</v>
+        <v>18762.880000000005</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -3333,7 +3346,7 @@
       </c>
       <c r="G74" s="9">
         <f t="shared" si="6"/>
-        <v>25517.460000000014</v>
+        <v>25517.339999999989</v>
       </c>
       <c r="H74" s="9">
         <f t="shared" si="7"/>
@@ -3345,7 +3358,7 @@
       </c>
       <c r="J74" s="9">
         <f t="shared" si="8"/>
-        <v>18950.420000000002</v>
+        <v>18950.440000000006</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -3370,7 +3383,7 @@
       </c>
       <c r="G75" s="9">
         <f t="shared" si="6"/>
-        <v>25246.470000000016</v>
+        <v>25246.349999999991</v>
       </c>
       <c r="H75" s="9">
         <f t="shared" si="7"/>
@@ -3382,7 +3395,7 @@
       </c>
       <c r="J75" s="9">
         <f t="shared" si="8"/>
-        <v>19137.610000000004</v>
+        <v>19137.630000000008</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3407,7 +3420,7 @@
       </c>
       <c r="G76" s="9">
         <f t="shared" si="6"/>
-        <v>24983.300000000017</v>
+        <v>24983.179999999993</v>
       </c>
       <c r="H76" s="9">
         <f t="shared" si="7"/>
@@ -3419,7 +3432,7 @@
       </c>
       <c r="J76" s="9">
         <f t="shared" si="8"/>
-        <v>19324.430000000008</v>
+        <v>19324.450000000012</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -3444,7 +3457,7 @@
       </c>
       <c r="G77" s="9">
         <f t="shared" si="6"/>
-        <v>24727.940000000017</v>
+        <v>24727.819999999992</v>
       </c>
       <c r="H77" s="9">
         <f t="shared" si="7"/>
@@ -3456,7 +3469,7 @@
       </c>
       <c r="J77" s="9">
         <f t="shared" si="8"/>
-        <v>19510.880000000008</v>
+        <v>19510.900000000012</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -3481,7 +3494,7 @@
       </c>
       <c r="G78" s="9">
         <f t="shared" si="6"/>
-        <v>24480.410000000018</v>
+        <v>24480.289999999994</v>
       </c>
       <c r="H78" s="9">
         <f t="shared" si="7"/>
@@ -3493,7 +3506,7 @@
       </c>
       <c r="J78" s="9">
         <f t="shared" si="8"/>
-        <v>19696.950000000008</v>
+        <v>19696.970000000012</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -3518,7 +3531,7 @@
       </c>
       <c r="G79" s="9">
         <f t="shared" si="6"/>
-        <v>24240.700000000019</v>
+        <v>24240.579999999994</v>
       </c>
       <c r="H79" s="9">
         <f t="shared" si="7"/>
@@ -3530,7 +3543,7 @@
       </c>
       <c r="J79" s="9">
         <f t="shared" si="8"/>
-        <v>19882.650000000009</v>
+        <v>19882.670000000013</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -3555,7 +3568,7 @@
       </c>
       <c r="G80" s="9">
         <f t="shared" si="6"/>
-        <v>24008.810000000019</v>
+        <v>24008.689999999995</v>
       </c>
       <c r="H80" s="9">
         <f t="shared" si="7"/>
@@ -3567,7 +3580,7 @@
       </c>
       <c r="J80" s="9">
         <f t="shared" si="8"/>
-        <v>20067.980000000007</v>
+        <v>20068.000000000011</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -3592,7 +3605,7 @@
       </c>
       <c r="G81" s="9">
         <f t="shared" si="6"/>
-        <v>23784.74000000002</v>
+        <v>23784.619999999995</v>
       </c>
       <c r="H81" s="9">
         <f t="shared" si="7"/>
@@ -3604,7 +3617,7 @@
       </c>
       <c r="J81" s="9">
         <f t="shared" si="8"/>
-        <v>20252.940000000006</v>
+        <v>20252.96000000001</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -3629,7 +3642,7 @@
       </c>
       <c r="G82" s="9">
         <f t="shared" si="6"/>
-        <v>23568.49000000002</v>
+        <v>23568.369999999995</v>
       </c>
       <c r="H82" s="9">
         <f t="shared" si="7"/>
@@ -3641,7 +3654,7 @@
       </c>
       <c r="J82" s="9">
         <f t="shared" si="8"/>
-        <v>20437.520000000004</v>
+        <v>20437.540000000008</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -3666,7 +3679,7 @@
       </c>
       <c r="G83" s="9">
         <f t="shared" si="6"/>
-        <v>23360.060000000019</v>
+        <v>23359.939999999995</v>
       </c>
       <c r="H83" s="9">
         <f t="shared" si="7"/>
@@ -3678,7 +3691,7 @@
       </c>
       <c r="J83" s="9">
         <f t="shared" si="8"/>
-        <v>20621.730000000003</v>
+        <v>20621.750000000007</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -3703,7 +3716,7 @@
       </c>
       <c r="G84" s="9">
         <f t="shared" si="6"/>
-        <v>23159.450000000019</v>
+        <v>23159.329999999994</v>
       </c>
       <c r="H84" s="9">
         <f t="shared" si="7"/>
@@ -3715,7 +3728,7 @@
       </c>
       <c r="J84" s="9">
         <f t="shared" si="8"/>
-        <v>20805.570000000003</v>
+        <v>20805.590000000007</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -3740,7 +3753,7 @@
       </c>
       <c r="G85" s="9">
         <f t="shared" si="6"/>
-        <v>22966.660000000018</v>
+        <v>22966.539999999994</v>
       </c>
       <c r="H85" s="9">
         <f t="shared" si="7"/>
@@ -3752,7 +3765,7 @@
       </c>
       <c r="J85" s="9">
         <f t="shared" si="8"/>
-        <v>20989.040000000005</v>
+        <v>20989.060000000009</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -3777,7 +3790,7 @@
       </c>
       <c r="G86" s="9">
         <f t="shared" si="6"/>
-        <v>22781.690000000017</v>
+        <v>22781.569999999992</v>
       </c>
       <c r="H86" s="9">
         <f t="shared" si="7"/>
@@ -3789,7 +3802,7 @@
       </c>
       <c r="J86" s="9">
         <f t="shared" si="8"/>
-        <v>21172.130000000005</v>
+        <v>21172.150000000009</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -3814,7 +3827,7 @@
       </c>
       <c r="G87" s="9">
         <f t="shared" si="6"/>
-        <v>22604.540000000015</v>
+        <v>22604.419999999991</v>
       </c>
       <c r="H87" s="9">
         <f t="shared" si="7"/>
@@ -3826,7 +3839,7 @@
       </c>
       <c r="J87" s="9">
         <f t="shared" si="8"/>
-        <v>21354.850000000006</v>
+        <v>21354.87000000001</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -3851,7 +3864,7 @@
       </c>
       <c r="G88" s="9">
         <f t="shared" si="6"/>
-        <v>22435.210000000014</v>
+        <v>22435.089999999989</v>
       </c>
       <c r="H88" s="9">
         <f t="shared" si="7"/>
@@ -3863,7 +3876,7 @@
       </c>
       <c r="J88" s="9">
         <f t="shared" si="8"/>
-        <v>21537.200000000008</v>
+        <v>21537.220000000012</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -3888,7 +3901,7 @@
       </c>
       <c r="G89" s="9">
         <f t="shared" si="6"/>
-        <v>22273.700000000012</v>
+        <v>22273.579999999987</v>
       </c>
       <c r="H89" s="9">
         <f t="shared" si="7"/>
@@ -3900,7 +3913,7 @@
       </c>
       <c r="J89" s="9">
         <f t="shared" si="8"/>
-        <v>21719.180000000008</v>
+        <v>21719.200000000012</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -3925,7 +3938,7 @@
       </c>
       <c r="G90" s="9">
         <f t="shared" si="6"/>
-        <v>22120.020000000011</v>
+        <v>22119.899999999987</v>
       </c>
       <c r="H90" s="9">
         <f t="shared" si="7"/>
@@ -3937,7 +3950,7 @@
       </c>
       <c r="J90" s="9">
         <f t="shared" si="8"/>
-        <v>21900.780000000006</v>
+        <v>21900.80000000001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -3962,7 +3975,7 @@
       </c>
       <c r="G91" s="9">
         <f t="shared" si="6"/>
-        <v>21974.150000000012</v>
+        <v>21974.029999999988</v>
       </c>
       <c r="H91" s="9">
         <f t="shared" si="7"/>
@@ -3974,7 +3987,7 @@
       </c>
       <c r="J91" s="9">
         <f t="shared" si="8"/>
-        <v>22082.010000000006</v>
+        <v>22082.03000000001</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -3999,7 +4012,7 @@
       </c>
       <c r="G92" s="9">
         <f t="shared" si="6"/>
-        <v>21836.100000000013</v>
+        <v>21835.979999999989</v>
       </c>
       <c r="H92" s="9">
         <f t="shared" si="7"/>
@@ -4011,7 +4024,7 @@
       </c>
       <c r="J92" s="9">
         <f t="shared" si="8"/>
-        <v>22262.870000000006</v>
+        <v>22262.89000000001</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -4036,7 +4049,7 @@
       </c>
       <c r="G93" s="9">
         <f t="shared" si="6"/>
-        <v>21705.870000000014</v>
+        <v>21705.749999999989</v>
       </c>
       <c r="H93" s="9">
         <f t="shared" si="7"/>
@@ -4048,7 +4061,7 @@
       </c>
       <c r="J93" s="9">
         <f t="shared" si="8"/>
-        <v>22443.360000000008</v>
+        <v>22443.380000000012</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -4073,7 +4086,7 @@
       </c>
       <c r="G94" s="9">
         <f t="shared" si="6"/>
-        <v>21583.470000000012</v>
+        <v>21583.349999999988</v>
       </c>
       <c r="H94" s="9">
         <f t="shared" si="7"/>
@@ -4085,7 +4098,7 @@
       </c>
       <c r="J94" s="9">
         <f t="shared" si="8"/>
-        <v>22623.470000000008</v>
+        <v>22623.490000000013</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -4110,7 +4123,7 @@
       </c>
       <c r="G95" s="9">
         <f t="shared" si="6"/>
-        <v>21468.890000000014</v>
+        <v>21468.76999999999</v>
       </c>
       <c r="H95" s="9">
         <f t="shared" si="7"/>
@@ -4122,7 +4135,7 @@
       </c>
       <c r="J95" s="9">
         <f t="shared" si="8"/>
-        <v>22803.21000000001</v>
+        <v>22803.230000000014</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -4147,7 +4160,7 @@
       </c>
       <c r="G96" s="9">
         <f t="shared" si="6"/>
-        <v>21362.120000000014</v>
+        <v>21361.999999999989</v>
       </c>
       <c r="H96" s="9">
         <f t="shared" si="7"/>
@@ -4159,7 +4172,7 @@
       </c>
       <c r="J96" s="9">
         <f t="shared" si="8"/>
-        <v>22982.580000000009</v>
+        <v>22982.600000000013</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -4184,7 +4197,7 @@
       </c>
       <c r="G97" s="9">
         <f t="shared" si="6"/>
-        <v>21263.170000000013</v>
+        <v>21263.049999999988</v>
       </c>
       <c r="H97" s="9">
         <f t="shared" si="7"/>
@@ -4196,7 +4209,7 @@
       </c>
       <c r="J97" s="9">
         <f t="shared" si="8"/>
-        <v>23161.580000000009</v>
+        <v>23161.600000000013</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -4221,7 +4234,7 @@
       </c>
       <c r="G98" s="9">
         <f t="shared" si="6"/>
-        <v>21172.040000000012</v>
+        <v>21171.919999999987</v>
       </c>
       <c r="H98" s="9">
         <f t="shared" si="7"/>
@@ -4233,7 +4246,7 @@
       </c>
       <c r="J98" s="9">
         <f t="shared" si="8"/>
-        <v>23340.21000000001</v>
+        <v>23340.230000000014</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -4258,7 +4271,7 @@
       </c>
       <c r="G99" s="9">
         <f t="shared" si="6"/>
-        <v>21088.740000000013</v>
+        <v>21088.619999999988</v>
       </c>
       <c r="H99" s="9">
         <f t="shared" si="7"/>
@@ -4270,7 +4283,7 @@
       </c>
       <c r="J99" s="9">
         <f t="shared" si="8"/>
-        <v>23518.46000000001</v>
+        <v>23518.480000000014</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -4295,7 +4308,7 @@
       </c>
       <c r="G100" s="9">
         <f t="shared" si="6"/>
-        <v>21013.260000000013</v>
+        <v>21013.139999999989</v>
       </c>
       <c r="H100" s="9">
         <f t="shared" si="7"/>
@@ -4307,7 +4320,7 @@
       </c>
       <c r="J100" s="9">
         <f t="shared" si="8"/>
-        <v>23696.340000000011</v>
+        <v>23696.360000000015</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
@@ -4332,7 +4345,7 @@
       </c>
       <c r="G101" s="9">
         <f t="shared" si="6"/>
-        <v>20945.590000000011</v>
+        <v>20945.469999999987</v>
       </c>
       <c r="H101" s="9">
         <f t="shared" si="7"/>
@@ -4344,7 +4357,7 @@
       </c>
       <c r="J101" s="9">
         <f t="shared" si="8"/>
-        <v>23873.850000000009</v>
+        <v>23873.870000000014</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -4369,7 +4382,7 @@
       </c>
       <c r="G102" s="9">
         <f t="shared" si="6"/>
-        <v>20885.740000000013</v>
+        <v>20885.619999999988</v>
       </c>
       <c r="H102" s="9">
         <f t="shared" si="7"/>
@@ -4381,7 +4394,7 @@
       </c>
       <c r="J102" s="9">
         <f t="shared" si="8"/>
-        <v>24050.990000000009</v>
+        <v>24051.010000000013</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
@@ -4406,7 +4419,7 @@
       </c>
       <c r="G103" s="9">
         <f t="shared" si="6"/>
-        <v>20833.720000000012</v>
+        <v>20833.599999999988</v>
       </c>
       <c r="H103" s="9">
         <f t="shared" si="7"/>
@@ -4418,7 +4431,7 @@
       </c>
       <c r="J103" s="9">
         <f t="shared" si="8"/>
-        <v>24227.750000000007</v>
+        <v>24227.770000000011</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
@@ -4443,7 +4456,7 @@
       </c>
       <c r="G104" s="9">
         <f t="shared" si="6"/>
-        <v>20789.520000000011</v>
+        <v>20789.399999999987</v>
       </c>
       <c r="H104" s="9">
         <f t="shared" si="7"/>
@@ -4455,7 +4468,7 @@
       </c>
       <c r="J104" s="9">
         <f t="shared" si="8"/>
-        <v>24404.140000000007</v>
+        <v>24404.160000000011</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
@@ -4480,7 +4493,7 @@
       </c>
       <c r="G105" s="9">
         <f t="shared" si="6"/>
-        <v>20753.14000000001</v>
+        <v>20753.019999999986</v>
       </c>
       <c r="H105" s="9">
         <f t="shared" si="7"/>
@@ -4492,7 +4505,7 @@
       </c>
       <c r="J105" s="9">
         <f t="shared" si="8"/>
-        <v>24580.160000000007</v>
+        <v>24580.180000000011</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
@@ -4517,7 +4530,7 @@
       </c>
       <c r="G106" s="9">
         <f t="shared" si="6"/>
-        <v>20724.570000000011</v>
+        <v>20724.449999999986</v>
       </c>
       <c r="H106" s="9">
         <f t="shared" si="7"/>
@@ -4529,7 +4542,7 @@
       </c>
       <c r="J106" s="9">
         <f t="shared" si="8"/>
-        <v>24755.810000000005</v>
+        <v>24755.830000000009</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
@@ -4554,7 +4567,7 @@
       </c>
       <c r="G107" s="9">
         <f t="shared" si="6"/>
-        <v>20703.830000000009</v>
+        <v>20703.709999999985</v>
       </c>
       <c r="H107" s="9">
         <f t="shared" si="7"/>
@@ -4566,7 +4579,7 @@
       </c>
       <c r="J107" s="9">
         <f t="shared" si="8"/>
-        <v>24931.08</v>
+        <v>24931.100000000006</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
@@ -4591,7 +4604,7 @@
       </c>
       <c r="G108" s="9">
         <f t="shared" si="6"/>
-        <v>20690.910000000011</v>
+        <v>20690.789999999986</v>
       </c>
       <c r="H108" s="9">
         <f t="shared" si="7"/>
@@ -4603,7 +4616,7 @@
       </c>
       <c r="J108" s="9">
         <f t="shared" si="8"/>
-        <v>25105.98</v>
+        <v>25106.000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
@@ -4628,7 +4641,7 @@
       </c>
       <c r="G109" s="9">
         <f t="shared" si="6"/>
-        <v>20685.810000000012</v>
+        <v>20685.689999999988</v>
       </c>
       <c r="H109" s="9">
         <f t="shared" si="7"/>
@@ -4640,7 +4653,7 @@
       </c>
       <c r="J109" s="9">
         <f t="shared" si="8"/>
-        <v>25280.51</v>
+        <v>25280.530000000002</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
@@ -4665,7 +4678,7 @@
       </c>
       <c r="G110" s="9">
         <f t="shared" si="6"/>
-        <v>20688.520000000011</v>
+        <v>20688.399999999987</v>
       </c>
       <c r="H110" s="9">
         <f t="shared" si="7"/>
@@ -4677,7 +4690,7 @@
       </c>
       <c r="J110" s="9">
         <f t="shared" si="8"/>
-        <v>25454.67</v>
+        <v>25454.690000000002</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
@@ -4702,7 +4715,7 @@
       </c>
       <c r="G111" s="9">
         <f t="shared" si="6"/>
-        <v>20699.060000000012</v>
+        <v>20698.939999999988</v>
       </c>
       <c r="H111" s="9">
         <f t="shared" si="7"/>
@@ -4714,7 +4727,7 @@
       </c>
       <c r="J111" s="9">
         <f t="shared" si="8"/>
-        <v>25628.449999999997</v>
+        <v>25628.47</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
@@ -4739,7 +4752,7 @@
       </c>
       <c r="G112" s="9">
         <f t="shared" si="6"/>
-        <v>20717.420000000013</v>
+        <v>20717.299999999988</v>
       </c>
       <c r="H112" s="9">
         <f t="shared" si="7"/>
@@ -4751,7 +4764,7 @@
       </c>
       <c r="J112" s="9">
         <f t="shared" si="8"/>
-        <v>25801.859999999997</v>
+        <v>25801.88</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
@@ -4776,7 +4789,7 @@
       </c>
       <c r="G113" s="9">
         <f t="shared" si="6"/>
-        <v>20743.600000000013</v>
+        <v>20743.479999999989</v>
       </c>
       <c r="H113" s="9">
         <f t="shared" si="7"/>
@@ -4788,7 +4801,7 @@
       </c>
       <c r="J113" s="9">
         <f t="shared" si="8"/>
-        <v>25974.899999999998</v>
+        <v>25974.920000000002</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
@@ -4813,7 +4826,7 @@
       </c>
       <c r="G114" s="9">
         <f t="shared" si="6"/>
-        <v>20777.600000000013</v>
+        <v>20777.479999999989</v>
       </c>
       <c r="H114" s="9">
         <f t="shared" si="7"/>
@@ -4825,7 +4838,7 @@
       </c>
       <c r="J114" s="9">
         <f t="shared" si="8"/>
-        <v>26147.57</v>
+        <v>26147.590000000004</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
@@ -4850,7 +4863,7 @@
       </c>
       <c r="G115" s="9">
         <f t="shared" si="6"/>
-        <v>20819.420000000013</v>
+        <v>20819.299999999988</v>
       </c>
       <c r="H115" s="9">
         <f t="shared" si="7"/>
@@ -4862,7 +4875,7 @@
       </c>
       <c r="J115" s="9">
         <f t="shared" si="8"/>
-        <v>26319.86</v>
+        <v>26319.880000000005</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
@@ -4887,7 +4900,7 @@
       </c>
       <c r="G116" s="9">
         <f t="shared" si="6"/>
-        <v>20869.060000000012</v>
+        <v>20868.939999999988</v>
       </c>
       <c r="H116" s="9">
         <f t="shared" si="7"/>
@@ -4899,7 +4912,7 @@
       </c>
       <c r="J116" s="9">
         <f t="shared" si="8"/>
-        <v>26491.780000000002</v>
+        <v>26491.800000000007</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
@@ -4924,7 +4937,7 @@
       </c>
       <c r="G117" s="9">
         <f t="shared" si="6"/>
-        <v>20926.520000000011</v>
+        <v>20926.399999999987</v>
       </c>
       <c r="H117" s="9">
         <f t="shared" si="7"/>
@@ -4936,7 +4949,7 @@
       </c>
       <c r="J117" s="9">
         <f t="shared" si="8"/>
-        <v>26663.33</v>
+        <v>26663.350000000006</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
@@ -4961,7 +4974,7 @@
       </c>
       <c r="G118" s="9">
         <f t="shared" si="6"/>
-        <v>20991.80000000001</v>
+        <v>20991.679999999986</v>
       </c>
       <c r="H118" s="9">
         <f t="shared" si="7"/>
@@ -4973,7 +4986,7 @@
       </c>
       <c r="J118" s="9">
         <f t="shared" si="8"/>
-        <v>26834.510000000002</v>
+        <v>26834.530000000006</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
@@ -4998,7 +5011,7 @@
       </c>
       <c r="G119" s="9">
         <f t="shared" si="6"/>
-        <v>21064.910000000011</v>
+        <v>21064.789999999986</v>
       </c>
       <c r="H119" s="9">
         <f t="shared" si="7"/>
@@ -5010,7 +5023,7 @@
       </c>
       <c r="J119" s="9">
         <f t="shared" si="8"/>
-        <v>27005.31</v>
+        <v>27005.330000000005</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
@@ -5035,7 +5048,7 @@
       </c>
       <c r="G120" s="9">
         <f t="shared" si="6"/>
-        <v>21145.830000000009</v>
+        <v>21145.709999999985</v>
       </c>
       <c r="H120" s="9">
         <f t="shared" si="7"/>
@@ -5047,7 +5060,7 @@
       </c>
       <c r="J120" s="9">
         <f t="shared" si="8"/>
-        <v>27175.739999999998</v>
+        <v>27175.760000000002</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
@@ -5072,7 +5085,7 @@
       </c>
       <c r="G121" s="9">
         <f t="shared" si="6"/>
-        <v>21234.570000000007</v>
+        <v>21234.449999999983</v>
       </c>
       <c r="H121" s="9">
         <f t="shared" si="7"/>
@@ -5084,7 +5097,7 @@
       </c>
       <c r="J121" s="9">
         <f t="shared" si="8"/>
-        <v>27345.8</v>
+        <v>27345.820000000003</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
@@ -5109,7 +5122,7 @@
       </c>
       <c r="G122" s="9">
         <f t="shared" si="6"/>
-        <v>21331.130000000008</v>
+        <v>21331.009999999984</v>
       </c>
       <c r="H122" s="9">
         <f t="shared" si="7"/>
@@ -5121,7 +5134,7 @@
       </c>
       <c r="J122" s="9">
         <f t="shared" si="8"/>
-        <v>27515.489999999998</v>
+        <v>27515.510000000002</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
@@ -5146,7 +5159,7 @@
       </c>
       <c r="G123" s="9">
         <f t="shared" si="6"/>
-        <v>21435.510000000009</v>
+        <v>21435.389999999985</v>
       </c>
       <c r="H123" s="9">
         <f t="shared" si="7"/>
@@ -5158,7 +5171,7 @@
       </c>
       <c r="J123" s="9">
         <f t="shared" si="8"/>
-        <v>27684.809999999998</v>
+        <v>27684.83</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
@@ -5183,7 +5196,7 @@
       </c>
       <c r="G124" s="9">
         <f t="shared" si="6"/>
-        <v>21547.720000000008</v>
+        <v>21547.599999999984</v>
       </c>
       <c r="H124" s="9">
         <f t="shared" si="7"/>
@@ -5195,7 +5208,7 @@
       </c>
       <c r="J124" s="9">
         <f t="shared" si="8"/>
-        <v>27853.75</v>
+        <v>27853.770000000004</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
@@ -5220,7 +5233,7 @@
       </c>
       <c r="G125" s="9">
         <f t="shared" si="6"/>
-        <v>21667.740000000009</v>
+        <v>21667.619999999984</v>
       </c>
       <c r="H125" s="9">
         <f t="shared" si="7"/>
@@ -5232,7 +5245,7 @@
       </c>
       <c r="J125" s="9">
         <f t="shared" si="8"/>
-        <v>28022.32</v>
+        <v>28022.340000000004</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
@@ -5257,7 +5270,7 @@
       </c>
       <c r="G126" s="9">
         <f t="shared" si="6"/>
-        <v>21795.580000000009</v>
+        <v>21795.459999999985</v>
       </c>
       <c r="H126" s="9">
         <f t="shared" si="7"/>
@@ -5269,7 +5282,7 @@
       </c>
       <c r="J126" s="9">
         <f t="shared" si="8"/>
-        <v>28190.52</v>
+        <v>28190.540000000005</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
@@ -5294,7 +5307,7 @@
       </c>
       <c r="G127" s="9">
         <f t="shared" si="6"/>
-        <v>21931.240000000009</v>
+        <v>21931.119999999984</v>
       </c>
       <c r="H127" s="9">
         <f t="shared" si="7"/>
@@ -5306,7 +5319,7 @@
       </c>
       <c r="J127" s="9">
         <f t="shared" si="8"/>
-        <v>28358.35</v>
+        <v>28358.370000000003</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
@@ -5331,7 +5344,7 @@
       </c>
       <c r="G128" s="9">
         <f t="shared" si="6"/>
-        <v>22074.73000000001</v>
+        <v>22074.609999999986</v>
       </c>
       <c r="H128" s="9">
         <f t="shared" si="7"/>
@@ -5343,7 +5356,7 @@
       </c>
       <c r="J128" s="9">
         <f t="shared" si="8"/>
-        <v>28525.8</v>
+        <v>28525.820000000003</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
@@ -5368,7 +5381,7 @@
       </c>
       <c r="G129" s="9">
         <f t="shared" si="6"/>
-        <v>22226.040000000012</v>
+        <v>22225.919999999987</v>
       </c>
       <c r="H129" s="9">
         <f t="shared" si="7"/>
@@ -5380,7 +5393,7 @@
       </c>
       <c r="J129" s="9">
         <f t="shared" si="8"/>
-        <v>28692.879999999997</v>
+        <v>28692.9</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
@@ -5405,7 +5418,7 @@
       </c>
       <c r="G130" s="9">
         <f t="shared" si="6"/>
-        <v>22385.160000000011</v>
+        <v>22385.039999999986</v>
       </c>
       <c r="H130" s="9">
         <f t="shared" si="7"/>
@@ -5417,7 +5430,7 @@
       </c>
       <c r="J130" s="9">
         <f t="shared" si="8"/>
-        <v>28859.589999999997</v>
+        <v>28859.61</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
@@ -5442,7 +5455,7 @@
       </c>
       <c r="G131" s="9">
         <f t="shared" si="6"/>
-        <v>22552.100000000009</v>
+        <v>22551.979999999985</v>
       </c>
       <c r="H131" s="9">
         <f t="shared" si="7"/>
@@ -5454,7 +5467,7 @@
       </c>
       <c r="J131" s="9">
         <f t="shared" si="8"/>
-        <v>29025.929999999997</v>
+        <v>29025.95</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
@@ -5479,7 +5492,7 @@
       </c>
       <c r="G132" s="9">
         <f t="shared" ref="G132:G195" si="11">G131+H131-I132</f>
-        <v>22726.87000000001</v>
+        <v>22726.749999999985</v>
       </c>
       <c r="H132" s="9">
         <f t="shared" ref="H132:H195" si="12">H131</f>
@@ -5491,7 +5504,7 @@
       </c>
       <c r="J132" s="9">
         <f t="shared" ref="J132:J195" si="13">J131+I132-B132</f>
-        <v>29191.889999999996</v>
+        <v>29191.91</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
@@ -5516,7 +5529,7 @@
       </c>
       <c r="G133" s="9">
         <f t="shared" si="11"/>
-        <v>22909.46000000001</v>
+        <v>22909.339999999986</v>
       </c>
       <c r="H133" s="9">
         <f t="shared" si="12"/>
@@ -5528,7 +5541,7 @@
       </c>
       <c r="J133" s="9">
         <f t="shared" si="13"/>
-        <v>29357.479999999996</v>
+        <v>29357.5</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
@@ -5553,7 +5566,7 @@
       </c>
       <c r="G134" s="9">
         <f t="shared" si="11"/>
-        <v>23099.860000000011</v>
+        <v>23099.739999999987</v>
       </c>
       <c r="H134" s="9">
         <f t="shared" si="12"/>
@@ -5565,7 +5578,7 @@
       </c>
       <c r="J134" s="9">
         <f t="shared" si="13"/>
-        <v>29522.699999999993</v>
+        <v>29522.719999999998</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -5590,7 +5603,7 @@
       </c>
       <c r="G135" s="9">
         <f t="shared" si="11"/>
-        <v>23298.080000000013</v>
+        <v>23297.959999999988</v>
       </c>
       <c r="H135" s="9">
         <f t="shared" si="12"/>
@@ -5602,7 +5615,7 @@
       </c>
       <c r="J135" s="9">
         <f t="shared" si="13"/>
-        <v>29687.549999999996</v>
+        <v>29687.57</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
@@ -5627,7 +5640,7 @@
       </c>
       <c r="G136" s="9">
         <f t="shared" si="11"/>
-        <v>23504.130000000012</v>
+        <v>23504.009999999987</v>
       </c>
       <c r="H136" s="9">
         <f t="shared" si="12"/>
@@ -5639,7 +5652,7 @@
       </c>
       <c r="J136" s="9">
         <f t="shared" si="13"/>
-        <v>29852.019999999993</v>
+        <v>29852.039999999997</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -5664,7 +5677,7 @@
       </c>
       <c r="G137" s="9">
         <f t="shared" si="11"/>
-        <v>23718.000000000011</v>
+        <v>23717.879999999986</v>
       </c>
       <c r="H137" s="9">
         <f t="shared" si="12"/>
@@ -5676,7 +5689,7 @@
       </c>
       <c r="J137" s="9">
         <f t="shared" si="13"/>
-        <v>30016.119999999995</v>
+        <v>30016.14</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -5701,7 +5714,7 @@
       </c>
       <c r="G138" s="9">
         <f t="shared" si="11"/>
-        <v>23939.69000000001</v>
+        <v>23939.569999999985</v>
       </c>
       <c r="H138" s="9">
         <f t="shared" si="12"/>
@@ -5713,7 +5726,7 @@
       </c>
       <c r="J138" s="9">
         <f t="shared" si="13"/>
-        <v>30179.849999999991</v>
+        <v>30179.869999999995</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -5738,7 +5751,7 @@
       </c>
       <c r="G139" s="9">
         <f t="shared" si="11"/>
-        <v>24169.19000000001</v>
+        <v>24169.069999999985</v>
       </c>
       <c r="H139" s="9">
         <f t="shared" si="12"/>
@@ -5750,7 +5763,7 @@
       </c>
       <c r="J139" s="9">
         <f t="shared" si="13"/>
-        <v>30343.209999999992</v>
+        <v>30343.229999999996</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
@@ -5775,7 +5788,7 @@
       </c>
       <c r="G140" s="9">
         <f t="shared" si="11"/>
-        <v>24406.520000000011</v>
+        <v>24406.399999999987</v>
       </c>
       <c r="H140" s="9">
         <f t="shared" si="12"/>
@@ -5787,7 +5800,7 @@
       </c>
       <c r="J140" s="9">
         <f t="shared" si="13"/>
-        <v>30506.189999999991</v>
+        <v>30506.209999999995</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
@@ -5812,7 +5825,7 @@
       </c>
       <c r="G141" s="9">
         <f t="shared" si="11"/>
-        <v>24651.670000000013</v>
+        <v>24651.549999999988</v>
       </c>
       <c r="H141" s="9">
         <f t="shared" si="12"/>
@@ -5824,7 +5837,7 @@
       </c>
       <c r="J141" s="9">
         <f t="shared" si="13"/>
-        <v>30668.799999999996</v>
+        <v>30668.82</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -5849,7 +5862,7 @@
       </c>
       <c r="G142" s="9">
         <f t="shared" si="11"/>
-        <v>24904.640000000014</v>
+        <v>24904.51999999999</v>
       </c>
       <c r="H142" s="9">
         <f t="shared" si="12"/>
@@ -5861,7 +5874,7 @@
       </c>
       <c r="J142" s="9">
         <f t="shared" si="13"/>
-        <v>30831.039999999994</v>
+        <v>30831.059999999998</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
@@ -5886,7 +5899,7 @@
       </c>
       <c r="G143" s="9">
         <f t="shared" si="11"/>
-        <v>25165.430000000015</v>
+        <v>25165.30999999999</v>
       </c>
       <c r="H143" s="9">
         <f t="shared" si="12"/>
@@ -5898,7 +5911,7 @@
       </c>
       <c r="J143" s="9">
         <f t="shared" si="13"/>
-        <v>30992.909999999993</v>
+        <v>30992.929999999997</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -5923,7 +5936,7 @@
       </c>
       <c r="G144" s="9">
         <f t="shared" si="11"/>
-        <v>25434.030000000013</v>
+        <v>25433.909999999989</v>
       </c>
       <c r="H144" s="9">
         <f t="shared" si="12"/>
@@ -5935,7 +5948,7 @@
       </c>
       <c r="J144" s="9">
         <f t="shared" si="13"/>
-        <v>31154.409999999989</v>
+        <v>31154.429999999993</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -5960,7 +5973,7 @@
       </c>
       <c r="G145" s="9">
         <f t="shared" si="11"/>
-        <v>25710.460000000014</v>
+        <v>25710.339999999989</v>
       </c>
       <c r="H145" s="9">
         <f t="shared" si="12"/>
@@ -5972,7 +5985,7 @@
       </c>
       <c r="J145" s="9">
         <f t="shared" si="13"/>
-        <v>31315.529999999988</v>
+        <v>31315.549999999992</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
@@ -5997,7 +6010,7 @@
       </c>
       <c r="G146" s="9">
         <f t="shared" si="11"/>
-        <v>25994.710000000014</v>
+        <v>25994.589999999989</v>
       </c>
       <c r="H146" s="9">
         <f t="shared" si="12"/>
@@ -6009,7 +6022,7 @@
       </c>
       <c r="J146" s="9">
         <f t="shared" si="13"/>
-        <v>31476.279999999984</v>
+        <v>31476.299999999988</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
@@ -6034,7 +6047,7 @@
       </c>
       <c r="G147" s="9">
         <f t="shared" si="11"/>
-        <v>26286.780000000013</v>
+        <v>26286.659999999989</v>
       </c>
       <c r="H147" s="9">
         <f t="shared" si="12"/>
@@ -6046,7 +6059,7 @@
       </c>
       <c r="J147" s="9">
         <f t="shared" si="13"/>
-        <v>31636.659999999985</v>
+        <v>31636.679999999989</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
@@ -6071,7 +6084,7 @@
       </c>
       <c r="G148" s="9">
         <f t="shared" si="11"/>
-        <v>26586.670000000013</v>
+        <v>26586.549999999988</v>
       </c>
       <c r="H148" s="9">
         <f t="shared" si="12"/>
@@ -6083,7 +6096,7 @@
       </c>
       <c r="J148" s="9">
         <f t="shared" si="13"/>
-        <v>31796.669999999984</v>
+        <v>31796.689999999988</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
@@ -6108,7 +6121,7 @@
       </c>
       <c r="G149" s="9">
         <f t="shared" si="11"/>
-        <v>26894.380000000012</v>
+        <v>26894.259999999987</v>
       </c>
       <c r="H149" s="9">
         <f t="shared" si="12"/>
@@ -6120,7 +6133,7 @@
       </c>
       <c r="J149" s="9">
         <f t="shared" si="13"/>
-        <v>31956.299999999985</v>
+        <v>31956.319999999989</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
@@ -6145,7 +6158,7 @@
       </c>
       <c r="G150" s="9">
         <f t="shared" si="11"/>
-        <v>27209.910000000011</v>
+        <v>27209.789999999986</v>
       </c>
       <c r="H150" s="9">
         <f t="shared" si="12"/>
@@ -6157,7 +6170,7 @@
       </c>
       <c r="J150" s="9">
         <f t="shared" si="13"/>
-        <v>32115.559999999983</v>
+        <v>32115.579999999987</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
@@ -6182,7 +6195,7 @@
       </c>
       <c r="G151" s="9">
         <f t="shared" si="11"/>
-        <v>27533.260000000009</v>
+        <v>27533.139999999985</v>
       </c>
       <c r="H151" s="9">
         <f t="shared" si="12"/>
@@ -6194,7 +6207,7 @@
       </c>
       <c r="J151" s="9">
         <f t="shared" si="13"/>
-        <v>32274.449999999983</v>
+        <v>32274.469999999987</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
@@ -6219,7 +6232,7 @@
       </c>
       <c r="G152" s="9">
         <f t="shared" si="11"/>
-        <v>27864.430000000008</v>
+        <v>27864.309999999983</v>
       </c>
       <c r="H152" s="9">
         <f t="shared" si="12"/>
@@ -6231,7 +6244,7 @@
       </c>
       <c r="J152" s="9">
         <f t="shared" si="13"/>
-        <v>32432.969999999983</v>
+        <v>32432.989999999987</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -6256,7 +6269,7 @@
       </c>
       <c r="G153" s="9">
         <f t="shared" si="11"/>
-        <v>28203.430000000008</v>
+        <v>28203.309999999983</v>
       </c>
       <c r="H153" s="9">
         <f t="shared" si="12"/>
@@ -6268,7 +6281,7 @@
       </c>
       <c r="J153" s="9">
         <f t="shared" si="13"/>
-        <v>32591.109999999986</v>
+        <v>32591.12999999999</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
@@ -6293,7 +6306,7 @@
       </c>
       <c r="G154" s="9">
         <f t="shared" si="11"/>
-        <v>28550.240000000009</v>
+        <v>28550.119999999984</v>
       </c>
       <c r="H154" s="9">
         <f t="shared" si="12"/>
@@ -6305,7 +6318,7 @@
       </c>
       <c r="J154" s="9">
         <f t="shared" si="13"/>
-        <v>32748.87999999999</v>
+        <v>32748.899999999994</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
@@ -6330,7 +6343,7 @@
       </c>
       <c r="G155" s="9">
         <f t="shared" si="11"/>
-        <v>28904.87000000001</v>
+        <v>28904.749999999985</v>
       </c>
       <c r="H155" s="9">
         <f t="shared" si="12"/>
@@ -6342,7 +6355,7 @@
       </c>
       <c r="J155" s="9">
         <f t="shared" si="13"/>
-        <v>32906.279999999992</v>
+        <v>32906.299999999996</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
@@ -6367,7 +6380,7 @@
       </c>
       <c r="G156" s="9">
         <f t="shared" si="11"/>
-        <v>29267.320000000011</v>
+        <v>29267.199999999986</v>
       </c>
       <c r="H156" s="9">
         <f t="shared" si="12"/>
@@ -6379,7 +6392,7 @@
       </c>
       <c r="J156" s="9">
         <f t="shared" si="13"/>
-        <v>33063.31</v>
+        <v>33063.33</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -6404,7 +6417,7 @@
       </c>
       <c r="G157" s="9">
         <f t="shared" si="11"/>
-        <v>29637.600000000006</v>
+        <v>29637.479999999981</v>
       </c>
       <c r="H157" s="9">
         <f t="shared" si="12"/>
@@ -6416,7 +6429,7 @@
       </c>
       <c r="J157" s="9">
         <f t="shared" si="13"/>
-        <v>33219.96</v>
+        <v>33219.980000000003</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -6441,7 +6454,7 @@
       </c>
       <c r="G158" s="9">
         <f t="shared" si="11"/>
-        <v>30015.690000000006</v>
+        <v>30015.569999999982</v>
       </c>
       <c r="H158" s="9">
         <f t="shared" si="12"/>
@@ -6453,7 +6466,7 @@
       </c>
       <c r="J158" s="9">
         <f t="shared" si="13"/>
-        <v>33376.239999999998</v>
+        <v>33376.26</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -6478,7 +6491,7 @@
       </c>
       <c r="G159" s="9">
         <f t="shared" si="11"/>
-        <v>30401.600000000002</v>
+        <v>30401.479999999978</v>
       </c>
       <c r="H159" s="9">
         <f t="shared" si="12"/>
@@ -6490,7 +6503,7 @@
       </c>
       <c r="J159" s="9">
         <f t="shared" si="13"/>
-        <v>33532.15</v>
+        <v>33532.170000000006</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
@@ -6515,7 +6528,7 @@
       </c>
       <c r="G160" s="9">
         <f t="shared" si="11"/>
-        <v>30795.330000000005</v>
+        <v>30795.209999999981</v>
       </c>
       <c r="H160" s="9">
         <f t="shared" si="12"/>
@@ -6527,7 +6540,7 @@
       </c>
       <c r="J160" s="9">
         <f t="shared" si="13"/>
-        <v>33687.689999999995</v>
+        <v>33687.71</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
@@ -6552,7 +6565,7 @@
       </c>
       <c r="G161" s="9">
         <f t="shared" si="11"/>
-        <v>31196.890000000003</v>
+        <v>31196.769999999979</v>
       </c>
       <c r="H161" s="9">
         <f t="shared" si="12"/>
@@ -6564,7 +6577,7 @@
       </c>
       <c r="J161" s="9">
         <f t="shared" si="13"/>
-        <v>33842.85</v>
+        <v>33842.870000000003</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
@@ -6589,7 +6602,7 @@
       </c>
       <c r="G162" s="9">
         <f t="shared" si="11"/>
-        <v>31606.27</v>
+        <v>31606.149999999976</v>
       </c>
       <c r="H162" s="9">
         <f t="shared" si="12"/>
@@ -6601,7 +6614,7 @@
       </c>
       <c r="J162" s="9">
         <f t="shared" si="13"/>
-        <v>33997.64</v>
+        <v>33997.660000000003</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
@@ -6626,7 +6639,7 @@
       </c>
       <c r="G163" s="9">
         <f t="shared" si="11"/>
-        <v>32023.460000000003</v>
+        <v>32023.339999999978</v>
       </c>
       <c r="H163" s="9">
         <f t="shared" si="12"/>
@@ -6638,7 +6651,7 @@
       </c>
       <c r="J163" s="9">
         <f t="shared" si="13"/>
-        <v>34152.06</v>
+        <v>34152.080000000002</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
@@ -6663,7 +6676,7 @@
       </c>
       <c r="G164" s="9">
         <f t="shared" si="11"/>
-        <v>32448.470000000008</v>
+        <v>32448.349999999984</v>
       </c>
       <c r="H164" s="9">
         <f t="shared" si="12"/>
@@ -6675,7 +6688,7 @@
       </c>
       <c r="J164" s="9">
         <f t="shared" si="13"/>
-        <v>34306.109999999993</v>
+        <v>34306.129999999997</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
@@ -6700,7 +6713,7 @@
       </c>
       <c r="G165" s="9">
         <f t="shared" si="11"/>
-        <v>32881.310000000012</v>
+        <v>32881.189999999988</v>
       </c>
       <c r="H165" s="9">
         <f t="shared" si="12"/>
@@ -6712,7 +6725,7 @@
       </c>
       <c r="J165" s="9">
         <f t="shared" si="13"/>
-        <v>34459.779999999992</v>
+        <v>34459.799999999996</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
@@ -6737,7 +6750,7 @@
       </c>
       <c r="G166" s="9">
         <f t="shared" si="11"/>
-        <v>33321.970000000016</v>
+        <v>33321.849999999991</v>
       </c>
       <c r="H166" s="9">
         <f t="shared" si="12"/>
@@ -6749,7 +6762,7 @@
       </c>
       <c r="J166" s="9">
         <f t="shared" si="13"/>
-        <v>34613.079999999994</v>
+        <v>34613.1</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -6774,7 +6787,7 @@
       </c>
       <c r="G167" s="9">
         <f t="shared" si="11"/>
-        <v>33770.450000000019</v>
+        <v>33770.329999999994</v>
       </c>
       <c r="H167" s="9">
         <f t="shared" si="12"/>
@@ -6786,7 +6799,7 @@
       </c>
       <c r="J167" s="9">
         <f t="shared" si="13"/>
-        <v>34766.009999999995</v>
+        <v>34766.03</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -6811,7 +6824,7 @@
       </c>
       <c r="G168" s="9">
         <f t="shared" si="11"/>
-        <v>34226.74000000002</v>
+        <v>34226.619999999995</v>
       </c>
       <c r="H168" s="9">
         <f t="shared" si="12"/>
@@ -6823,7 +6836,7 @@
       </c>
       <c r="J168" s="9">
         <f t="shared" si="13"/>
-        <v>34918.569999999992</v>
+        <v>34918.589999999997</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
@@ -6848,7 +6861,7 @@
       </c>
       <c r="G169" s="9">
         <f t="shared" si="11"/>
-        <v>34690.85000000002</v>
+        <v>34690.729999999996</v>
       </c>
       <c r="H169" s="9">
         <f t="shared" si="12"/>
@@ -6860,7 +6873,7 @@
       </c>
       <c r="J169" s="9">
         <f t="shared" si="13"/>
-        <v>35070.759999999995</v>
+        <v>35070.78</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
@@ -6885,7 +6898,7 @@
       </c>
       <c r="G170" s="9">
         <f t="shared" si="11"/>
-        <v>35162.790000000023</v>
+        <v>35162.67</v>
       </c>
       <c r="H170" s="9">
         <f t="shared" si="12"/>
@@ -6897,7 +6910,7 @@
       </c>
       <c r="J170" s="9">
         <f t="shared" si="13"/>
-        <v>35222.569999999992</v>
+        <v>35222.589999999997</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
@@ -6922,7 +6935,7 @@
       </c>
       <c r="G171" s="9">
         <f t="shared" si="11"/>
-        <v>35642.550000000025</v>
+        <v>35642.43</v>
       </c>
       <c r="H171" s="9">
         <f t="shared" si="12"/>
@@ -6934,7 +6947,7 @@
       </c>
       <c r="J171" s="9">
         <f t="shared" si="13"/>
-        <v>35374.009999999987</v>
+        <v>35374.029999999992</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
@@ -6959,7 +6972,7 @@
       </c>
       <c r="G172" s="9">
         <f t="shared" si="11"/>
-        <v>36130.130000000026</v>
+        <v>36130.01</v>
       </c>
       <c r="H172" s="9">
         <f t="shared" si="12"/>
@@ -6971,7 +6984,7 @@
       </c>
       <c r="J172" s="9">
         <f t="shared" si="13"/>
-        <v>35525.079999999987</v>
+        <v>35525.099999999991</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
@@ -6996,7 +7009,7 @@
       </c>
       <c r="G173" s="9">
         <f t="shared" si="11"/>
-        <v>36625.520000000026</v>
+        <v>36625.4</v>
       </c>
       <c r="H173" s="9">
         <f t="shared" si="12"/>
@@ -7008,7 +7021,7 @@
       </c>
       <c r="J173" s="9">
         <f t="shared" si="13"/>
-        <v>35675.779999999984</v>
+        <v>35675.799999999988</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
@@ -7033,7 +7046,7 @@
       </c>
       <c r="G174" s="9">
         <f t="shared" si="11"/>
-        <v>37128.740000000027</v>
+        <v>37128.620000000003</v>
       </c>
       <c r="H174" s="9">
         <f t="shared" si="12"/>
@@ -7045,7 +7058,7 @@
       </c>
       <c r="J174" s="9">
         <f t="shared" si="13"/>
-        <v>35826.099999999984</v>
+        <v>35826.119999999988</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
@@ -7070,7 +7083,7 @@
       </c>
       <c r="G175" s="9">
         <f t="shared" si="11"/>
-        <v>37639.780000000028</v>
+        <v>37639.660000000003</v>
       </c>
       <c r="H175" s="9">
         <f t="shared" si="12"/>
@@ -7082,7 +7095,7 @@
       </c>
       <c r="J175" s="9">
         <f t="shared" si="13"/>
-        <v>35976.049999999981</v>
+        <v>35976.069999999985</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
@@ -7107,7 +7120,7 @@
       </c>
       <c r="G176" s="9">
         <f t="shared" si="11"/>
-        <v>38158.640000000029</v>
+        <v>38158.520000000004</v>
       </c>
       <c r="H176" s="9">
         <f t="shared" si="12"/>
@@ -7119,7 +7132,7 @@
       </c>
       <c r="J176" s="9">
         <f t="shared" si="13"/>
-        <v>36125.629999999983</v>
+        <v>36125.649999999987</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
@@ -7144,7 +7157,7 @@
       </c>
       <c r="G177" s="9">
         <f t="shared" si="11"/>
-        <v>38685.320000000029</v>
+        <v>38685.200000000004</v>
       </c>
       <c r="H177" s="9">
         <f t="shared" si="12"/>
@@ -7156,7 +7169,7 @@
       </c>
       <c r="J177" s="9">
         <f t="shared" si="13"/>
-        <v>36274.839999999982</v>
+        <v>36274.859999999986</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
@@ -7181,7 +7194,7 @@
       </c>
       <c r="G178" s="9">
         <f t="shared" si="11"/>
-        <v>39219.820000000029</v>
+        <v>39219.700000000004</v>
       </c>
       <c r="H178" s="9">
         <f t="shared" si="12"/>
@@ -7193,7 +7206,7 @@
       </c>
       <c r="J178" s="9">
         <f t="shared" si="13"/>
-        <v>36423.669999999984</v>
+        <v>36423.689999999988</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
@@ -7218,7 +7231,7 @@
       </c>
       <c r="G179" s="9">
         <f t="shared" si="11"/>
-        <v>39762.140000000029</v>
+        <v>39762.020000000004</v>
       </c>
       <c r="H179" s="9">
         <f t="shared" si="12"/>
@@ -7230,7 +7243,7 @@
       </c>
       <c r="J179" s="9">
         <f t="shared" si="13"/>
-        <v>36572.129999999983</v>
+        <v>36572.149999999987</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
@@ -7255,7 +7268,7 @@
       </c>
       <c r="G180" s="9">
         <f t="shared" si="11"/>
-        <v>40312.280000000028</v>
+        <v>40312.160000000003</v>
       </c>
       <c r="H180" s="9">
         <f t="shared" si="12"/>
@@ -7267,7 +7280,7 @@
       </c>
       <c r="J180" s="9">
         <f t="shared" si="13"/>
-        <v>36720.219999999987</v>
+        <v>36720.239999999991</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
@@ -7292,7 +7305,7 @@
       </c>
       <c r="G181" s="9">
         <f t="shared" si="11"/>
-        <v>40870.240000000027</v>
+        <v>40870.120000000003</v>
       </c>
       <c r="H181" s="9">
         <f t="shared" si="12"/>
@@ -7304,7 +7317,7 @@
       </c>
       <c r="J181" s="9">
         <f t="shared" si="13"/>
-        <v>36867.939999999988</v>
+        <v>36867.959999999992</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
@@ -7329,7 +7342,7 @@
       </c>
       <c r="G182" s="9">
         <f t="shared" si="11"/>
-        <v>41436.020000000026</v>
+        <v>41435.9</v>
       </c>
       <c r="H182" s="9">
         <f t="shared" si="12"/>
@@ -7341,7 +7354,7 @@
       </c>
       <c r="J182" s="9">
         <f t="shared" si="13"/>
-        <v>37015.279999999992</v>
+        <v>37015.299999999996</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
@@ -7366,7 +7379,7 @@
       </c>
       <c r="G183" s="9">
         <f t="shared" si="11"/>
-        <v>42009.620000000024</v>
+        <v>42009.5</v>
       </c>
       <c r="H183" s="9">
         <f t="shared" si="12"/>
@@ -7378,7 +7391,7 @@
       </c>
       <c r="J183" s="9">
         <f t="shared" si="13"/>
-        <v>37162.249999999993</v>
+        <v>37162.269999999997</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
@@ -7403,7 +7416,7 @@
       </c>
       <c r="G184" s="9">
         <f t="shared" si="11"/>
-        <v>42591.040000000023</v>
+        <v>42590.92</v>
       </c>
       <c r="H184" s="9">
         <f t="shared" si="12"/>
@@ -7415,7 +7428,7 @@
       </c>
       <c r="J184" s="9">
         <f t="shared" si="13"/>
-        <v>37308.849999999991</v>
+        <v>37308.869999999995</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
@@ -7440,7 +7453,7 @@
       </c>
       <c r="G185" s="9">
         <f t="shared" si="11"/>
-        <v>43180.280000000021</v>
+        <v>43180.159999999996</v>
       </c>
       <c r="H185" s="9">
         <f t="shared" si="12"/>
@@ -7452,7 +7465,7 @@
       </c>
       <c r="J185" s="9">
         <f t="shared" si="13"/>
-        <v>37455.079999999994</v>
+        <v>37455.1</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -7477,7 +7490,7 @@
       </c>
       <c r="G186" s="9">
         <f t="shared" si="11"/>
-        <v>43777.35000000002</v>
+        <v>43777.229999999996</v>
       </c>
       <c r="H186" s="9">
         <f t="shared" si="12"/>
@@ -7489,7 +7502,7 @@
       </c>
       <c r="J186" s="9">
         <f t="shared" si="13"/>
-        <v>37600.929999999993</v>
+        <v>37600.949999999997</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -7514,7 +7527,7 @@
       </c>
       <c r="G187" s="9">
         <f t="shared" si="11"/>
-        <v>44382.230000000018</v>
+        <v>44382.109999999993</v>
       </c>
       <c r="H187" s="9">
         <f t="shared" si="12"/>
@@ -7526,7 +7539,7 @@
       </c>
       <c r="J187" s="9">
         <f t="shared" si="13"/>
-        <v>37746.409999999996</v>
+        <v>37746.43</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -7551,7 +7564,7 @@
       </c>
       <c r="G188" s="9">
         <f t="shared" si="11"/>
-        <v>44994.930000000015</v>
+        <v>44994.80999999999</v>
       </c>
       <c r="H188" s="9">
         <f t="shared" si="12"/>
@@ -7563,7 +7576,7 @@
       </c>
       <c r="J188" s="9">
         <f t="shared" si="13"/>
-        <v>37891.519999999997</v>
+        <v>37891.54</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -7588,7 +7601,7 @@
       </c>
       <c r="G189" s="9">
         <f t="shared" si="11"/>
-        <v>45615.450000000012</v>
+        <v>45615.329999999987</v>
       </c>
       <c r="H189" s="9">
         <f t="shared" si="12"/>
@@ -7600,7 +7613,7 @@
       </c>
       <c r="J189" s="9">
         <f t="shared" si="13"/>
-        <v>38036.26</v>
+        <v>38036.280000000006</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
@@ -7625,7 +7638,7 @@
       </c>
       <c r="G190" s="9">
         <f t="shared" si="11"/>
-        <v>46243.80000000001</v>
+        <v>46243.679999999986</v>
       </c>
       <c r="H190" s="9">
         <f t="shared" si="12"/>
@@ -7637,7 +7650,7 @@
       </c>
       <c r="J190" s="9">
         <f t="shared" si="13"/>
-        <v>38180.620000000003</v>
+        <v>38180.640000000007</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
@@ -7662,7 +7675,7 @@
       </c>
       <c r="G191" s="9">
         <f t="shared" si="11"/>
-        <v>46879.970000000008</v>
+        <v>46879.849999999984</v>
       </c>
       <c r="H191" s="9">
         <f t="shared" si="12"/>
@@ -7674,7 +7687,7 @@
       </c>
       <c r="J191" s="9">
         <f t="shared" si="13"/>
-        <v>38324.61</v>
+        <v>38324.630000000005</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
@@ -7699,7 +7712,7 @@
       </c>
       <c r="G192" s="9">
         <f t="shared" si="11"/>
-        <v>47523.950000000012</v>
+        <v>47523.829999999987</v>
       </c>
       <c r="H192" s="9">
         <f t="shared" si="12"/>
@@ -7711,7 +7724,7 @@
       </c>
       <c r="J192" s="9">
         <f t="shared" si="13"/>
-        <v>38468.229999999996</v>
+        <v>38468.25</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
@@ -7736,7 +7749,7 @@
       </c>
       <c r="G193" s="9">
         <f t="shared" si="11"/>
-        <v>48175.750000000015</v>
+        <v>48175.62999999999</v>
       </c>
       <c r="H193" s="9">
         <f t="shared" si="12"/>
@@ -7748,7 +7761,7 @@
       </c>
       <c r="J193" s="9">
         <f t="shared" si="13"/>
-        <v>38611.479999999996</v>
+        <v>38611.5</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
@@ -7773,7 +7786,7 @@
       </c>
       <c r="G194" s="9">
         <f t="shared" si="11"/>
-        <v>48835.370000000017</v>
+        <v>48835.249999999993</v>
       </c>
       <c r="H194" s="9">
         <f t="shared" si="12"/>
@@ -7785,7 +7798,7 @@
       </c>
       <c r="J194" s="9">
         <f t="shared" si="13"/>
-        <v>38754.359999999993</v>
+        <v>38754.379999999997</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
@@ -7810,7 +7823,7 @@
       </c>
       <c r="G195" s="9">
         <f t="shared" si="11"/>
-        <v>49502.820000000014</v>
+        <v>49502.69999999999</v>
       </c>
       <c r="H195" s="9">
         <f t="shared" si="12"/>
@@ -7822,7 +7835,7 @@
       </c>
       <c r="J195" s="9">
         <f t="shared" si="13"/>
-        <v>38896.859999999993</v>
+        <v>38896.879999999997</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
@@ -7847,7 +7860,7 @@
       </c>
       <c r="G196" s="9">
         <f t="shared" ref="G196:G241" si="16">G195+H195-I196</f>
-        <v>50178.090000000011</v>
+        <v>50177.969999999987</v>
       </c>
       <c r="H196" s="9">
         <f t="shared" ref="H196:H241" si="17">H195</f>
@@ -7859,7 +7872,7 @@
       </c>
       <c r="J196" s="9">
         <f t="shared" ref="J196:J241" si="18">J195+I196-B196</f>
-        <v>39038.99</v>
+        <v>39039.01</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
@@ -7884,7 +7897,7 @@
       </c>
       <c r="G197" s="9">
         <f t="shared" si="16"/>
-        <v>50861.170000000013</v>
+        <v>50861.049999999988</v>
       </c>
       <c r="H197" s="9">
         <f t="shared" si="17"/>
@@ -7896,7 +7909,7 @@
       </c>
       <c r="J197" s="9">
         <f t="shared" si="18"/>
-        <v>39180.75</v>
+        <v>39180.770000000004</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
@@ -7921,7 +7934,7 @@
       </c>
       <c r="G198" s="9">
         <f t="shared" si="16"/>
-        <v>51552.070000000014</v>
+        <v>51551.94999999999</v>
       </c>
       <c r="H198" s="9">
         <f t="shared" si="17"/>
@@ -7933,7 +7946,7 @@
       </c>
       <c r="J198" s="9">
         <f t="shared" si="18"/>
-        <v>39322.14</v>
+        <v>39322.160000000003</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
@@ -7958,7 +7971,7 @@
       </c>
       <c r="G199" s="9">
         <f t="shared" si="16"/>
-        <v>52250.800000000017</v>
+        <v>52250.679999999993</v>
       </c>
       <c r="H199" s="9">
         <f t="shared" si="17"/>
@@ -7970,7 +7983,7 @@
       </c>
       <c r="J199" s="9">
         <f t="shared" si="18"/>
-        <v>39463.149999999994</v>
+        <v>39463.17</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
@@ -7995,7 +8008,7 @@
       </c>
       <c r="G200" s="9">
         <f t="shared" si="16"/>
-        <v>52957.35000000002</v>
+        <v>52957.229999999996</v>
       </c>
       <c r="H200" s="9">
         <f t="shared" si="17"/>
@@ -8007,7 +8020,7 @@
       </c>
       <c r="J200" s="9">
         <f t="shared" si="18"/>
-        <v>39603.789999999994</v>
+        <v>39603.81</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
@@ -8032,7 +8045,7 @@
       </c>
       <c r="G201" s="9">
         <f t="shared" si="16"/>
-        <v>53671.720000000023</v>
+        <v>53671.6</v>
       </c>
       <c r="H201" s="9">
         <f t="shared" si="17"/>
@@ -8044,7 +8057,7 @@
       </c>
       <c r="J201" s="9">
         <f t="shared" si="18"/>
-        <v>39744.05999999999</v>
+        <v>39744.079999999994</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
@@ -8069,7 +8082,7 @@
       </c>
       <c r="G202" s="9">
         <f t="shared" si="16"/>
-        <v>54393.900000000023</v>
+        <v>54393.78</v>
       </c>
       <c r="H202" s="9">
         <f t="shared" si="17"/>
@@ -8081,7 +8094,7 @@
       </c>
       <c r="J202" s="9">
         <f t="shared" si="18"/>
-        <v>39883.959999999992</v>
+        <v>39883.979999999996</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
@@ -8106,7 +8119,7 @@
       </c>
       <c r="G203" s="9">
         <f t="shared" si="16"/>
-        <v>55123.910000000025</v>
+        <v>55123.79</v>
       </c>
       <c r="H203" s="9">
         <f t="shared" si="17"/>
@@ -8118,7 +8131,7 @@
       </c>
       <c r="J203" s="9">
         <f t="shared" si="18"/>
-        <v>40023.479999999989</v>
+        <v>40023.499999999993</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
@@ -8143,7 +8156,7 @@
       </c>
       <c r="G204" s="9">
         <f t="shared" si="16"/>
-        <v>55861.740000000027</v>
+        <v>55861.62</v>
       </c>
       <c r="H204" s="9">
         <f t="shared" si="17"/>
@@ -8155,7 +8168,7 @@
       </c>
       <c r="J204" s="9">
         <f t="shared" si="18"/>
-        <v>40162.62999999999</v>
+        <v>40162.649999999994</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
@@ -8180,7 +8193,7 @@
       </c>
       <c r="G205" s="9">
         <f t="shared" si="16"/>
-        <v>56607.390000000029</v>
+        <v>56607.270000000004</v>
       </c>
       <c r="H205" s="9">
         <f t="shared" si="17"/>
@@ -8192,7 +8205,7 @@
       </c>
       <c r="J205" s="9">
         <f t="shared" si="18"/>
-        <v>40301.409999999989</v>
+        <v>40301.429999999993</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
@@ -8217,7 +8230,7 @@
       </c>
       <c r="G206" s="9">
         <f t="shared" si="16"/>
-        <v>57360.850000000028</v>
+        <v>57360.73</v>
       </c>
       <c r="H206" s="9">
         <f t="shared" si="17"/>
@@ -8229,7 +8242,7 @@
       </c>
       <c r="J206" s="9">
         <f t="shared" si="18"/>
-        <v>40439.819999999992</v>
+        <v>40439.839999999997</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
@@ -8254,7 +8267,7 @@
       </c>
       <c r="G207" s="9">
         <f t="shared" si="16"/>
-        <v>58122.140000000029</v>
+        <v>58122.020000000004</v>
       </c>
       <c r="H207" s="9">
         <f t="shared" si="17"/>
@@ -8266,7 +8279,7 @@
       </c>
       <c r="J207" s="9">
         <f t="shared" si="18"/>
-        <v>40577.849999999991</v>
+        <v>40577.869999999995</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
@@ -8291,7 +8304,7 @@
       </c>
       <c r="G208" s="9">
         <f t="shared" si="16"/>
-        <v>58891.250000000029</v>
+        <v>58891.130000000005</v>
       </c>
       <c r="H208" s="9">
         <f t="shared" si="17"/>
@@ -8303,7 +8316,7 @@
       </c>
       <c r="J208" s="9">
         <f t="shared" si="18"/>
-        <v>40715.509999999987</v>
+        <v>40715.529999999992</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
@@ -8328,7 +8341,7 @@
       </c>
       <c r="G209" s="9">
         <f t="shared" si="16"/>
-        <v>59668.180000000029</v>
+        <v>59668.060000000005</v>
       </c>
       <c r="H209" s="9">
         <f t="shared" si="17"/>
@@ -8340,7 +8353,7 @@
       </c>
       <c r="J209" s="9">
         <f t="shared" si="18"/>
-        <v>40852.799999999988</v>
+        <v>40852.819999999992</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
@@ -8365,7 +8378,7 @@
       </c>
       <c r="G210" s="9">
         <f t="shared" si="16"/>
-        <v>60452.930000000029</v>
+        <v>60452.810000000005</v>
       </c>
       <c r="H210" s="9">
         <f t="shared" si="17"/>
@@ -8377,7 +8390,7 @@
       </c>
       <c r="J210" s="9">
         <f t="shared" si="18"/>
-        <v>40989.719999999987</v>
+        <v>40989.739999999991</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
@@ -8402,7 +8415,7 @@
       </c>
       <c r="G211" s="9">
         <f t="shared" si="16"/>
-        <v>61245.500000000029</v>
+        <v>61245.380000000005</v>
       </c>
       <c r="H211" s="9">
         <f t="shared" si="17"/>
@@ -8414,7 +8427,7 @@
       </c>
       <c r="J211" s="9">
         <f t="shared" si="18"/>
-        <v>41126.259999999987</v>
+        <v>41126.279999999992</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
@@ -8439,7 +8452,7 @@
       </c>
       <c r="G212" s="9">
         <f t="shared" si="16"/>
-        <v>62045.890000000029</v>
+        <v>62045.770000000004</v>
       </c>
       <c r="H212" s="9">
         <f t="shared" si="17"/>
@@ -8451,7 +8464,7 @@
       </c>
       <c r="J212" s="9">
         <f t="shared" si="18"/>
-        <v>41262.429999999986</v>
+        <v>41262.44999999999</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
@@ -8476,7 +8489,7 @@
       </c>
       <c r="G213" s="9">
         <f t="shared" si="16"/>
-        <v>62854.100000000028</v>
+        <v>62853.98</v>
       </c>
       <c r="H213" s="9">
         <f t="shared" si="17"/>
@@ -8488,7 +8501,7 @@
       </c>
       <c r="J213" s="9">
         <f t="shared" si="18"/>
-        <v>41398.229999999989</v>
+        <v>41398.249999999993</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
@@ -8513,7 +8526,7 @@
       </c>
       <c r="G214" s="9">
         <f t="shared" si="16"/>
-        <v>63670.130000000034</v>
+        <v>63670.010000000009</v>
       </c>
       <c r="H214" s="9">
         <f t="shared" si="17"/>
@@ -8525,7 +8538,7 @@
       </c>
       <c r="J214" s="9">
         <f t="shared" si="18"/>
-        <v>41533.659999999989</v>
+        <v>41533.679999999993</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
@@ -8550,7 +8563,7 @@
       </c>
       <c r="G215" s="9">
         <f t="shared" si="16"/>
-        <v>64493.990000000034</v>
+        <v>64493.87000000001</v>
       </c>
       <c r="H215" s="9">
         <f t="shared" si="17"/>
@@ -8562,7 +8575,7 @@
       </c>
       <c r="J215" s="9">
         <f t="shared" si="18"/>
-        <v>41668.709999999992</v>
+        <v>41668.729999999996</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
@@ -8587,7 +8600,7 @@
       </c>
       <c r="G216" s="9">
         <f t="shared" si="16"/>
-        <v>65325.660000000033</v>
+        <v>65325.540000000008</v>
       </c>
       <c r="H216" s="9">
         <f t="shared" si="17"/>
@@ -8599,7 +8612,7 @@
       </c>
       <c r="J216" s="9">
         <f t="shared" si="18"/>
-        <v>41803.389999999992</v>
+        <v>41803.409999999996</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
@@ -8624,7 +8637,7 @@
       </c>
       <c r="G217" s="9">
         <f t="shared" si="16"/>
-        <v>66165.150000000038</v>
+        <v>66165.030000000013</v>
       </c>
       <c r="H217" s="9">
         <f t="shared" si="17"/>
@@ -8636,7 +8649,7 @@
       </c>
       <c r="J217" s="9">
         <f t="shared" si="18"/>
-        <v>41937.699999999997</v>
+        <v>41937.72</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
@@ -8661,7 +8674,7 @@
       </c>
       <c r="G218" s="9">
         <f t="shared" si="16"/>
-        <v>67012.460000000036</v>
+        <v>67012.340000000011</v>
       </c>
       <c r="H218" s="9">
         <f t="shared" si="17"/>
@@ -8673,7 +8686,7 @@
       </c>
       <c r="J218" s="9">
         <f t="shared" si="18"/>
-        <v>42071.64</v>
+        <v>42071.66</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
@@ -8698,7 +8711,7 @@
       </c>
       <c r="G219" s="9">
         <f t="shared" si="16"/>
-        <v>67867.59000000004</v>
+        <v>67867.470000000016</v>
       </c>
       <c r="H219" s="9">
         <f t="shared" si="17"/>
@@ -8710,7 +8723,7 @@
       </c>
       <c r="J219" s="9">
         <f t="shared" si="18"/>
-        <v>42205.21</v>
+        <v>42205.23</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.15">
@@ -8735,7 +8748,7 @@
       </c>
       <c r="G220" s="9">
         <f t="shared" si="16"/>
-        <v>68730.550000000047</v>
+        <v>68730.430000000022</v>
       </c>
       <c r="H220" s="9">
         <f t="shared" si="17"/>
@@ -8747,7 +8760,7 @@
       </c>
       <c r="J220" s="9">
         <f t="shared" si="18"/>
-        <v>42338.400000000001</v>
+        <v>42338.420000000006</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
@@ -8772,7 +8785,7 @@
       </c>
       <c r="G221" s="9">
         <f t="shared" si="16"/>
-        <v>69601.320000000051</v>
+        <v>69601.200000000026</v>
       </c>
       <c r="H221" s="9">
         <f t="shared" si="17"/>
@@ -8784,7 +8797,7 @@
       </c>
       <c r="J221" s="9">
         <f t="shared" si="18"/>
-        <v>42471.22</v>
+        <v>42471.240000000005</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
@@ -8809,7 +8822,7 @@
       </c>
       <c r="G222" s="9">
         <f t="shared" si="16"/>
-        <v>70479.910000000047</v>
+        <v>70479.790000000023</v>
       </c>
       <c r="H222" s="9">
         <f t="shared" si="17"/>
@@ -8821,7 +8834,7 @@
       </c>
       <c r="J222" s="9">
         <f t="shared" si="18"/>
-        <v>42603.670000000006</v>
+        <v>42603.69000000001</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
@@ -8846,7 +8859,7 @@
       </c>
       <c r="G223" s="9">
         <f t="shared" si="16"/>
-        <v>71366.320000000051</v>
+        <v>71366.200000000026</v>
       </c>
       <c r="H223" s="9">
         <f t="shared" si="17"/>
@@ -8858,7 +8871,7 @@
       </c>
       <c r="J223" s="9">
         <f t="shared" si="18"/>
-        <v>42735.750000000007</v>
+        <v>42735.770000000011</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.15">
@@ -8883,7 +8896,7 @@
       </c>
       <c r="G224" s="9">
         <f t="shared" si="16"/>
-        <v>72260.560000000056</v>
+        <v>72260.440000000031</v>
       </c>
       <c r="H224" s="9">
         <f t="shared" si="17"/>
@@ -8895,7 +8908,7 @@
       </c>
       <c r="J224" s="9">
         <f t="shared" si="18"/>
-        <v>42867.450000000012</v>
+        <v>42867.470000000016</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.15">
@@ -8920,7 +8933,7 @@
       </c>
       <c r="G225" s="9">
         <f t="shared" si="16"/>
-        <v>73162.620000000054</v>
+        <v>73162.500000000029</v>
       </c>
       <c r="H225" s="9">
         <f t="shared" si="17"/>
@@ -8932,7 +8945,7 @@
       </c>
       <c r="J225" s="9">
         <f t="shared" si="18"/>
-        <v>42998.780000000013</v>
+        <v>42998.800000000017</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.15">
@@ -8957,7 +8970,7 @@
       </c>
       <c r="G226" s="9">
         <f t="shared" si="16"/>
-        <v>74072.490000000049</v>
+        <v>74072.370000000024</v>
       </c>
       <c r="H226" s="9">
         <f t="shared" si="17"/>
@@ -8969,7 +8982,7 @@
       </c>
       <c r="J226" s="9">
         <f t="shared" si="18"/>
-        <v>43129.740000000013</v>
+        <v>43129.760000000017</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
@@ -8994,7 +9007,7 @@
       </c>
       <c r="G227" s="9">
         <f t="shared" si="16"/>
-        <v>74990.180000000051</v>
+        <v>74990.060000000027</v>
       </c>
       <c r="H227" s="9">
         <f t="shared" si="17"/>
@@ -9006,7 +9019,7 @@
       </c>
       <c r="J227" s="9">
         <f t="shared" si="18"/>
-        <v>43260.330000000009</v>
+        <v>43260.350000000013</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
@@ -9031,7 +9044,7 @@
       </c>
       <c r="G228" s="9">
         <f t="shared" si="16"/>
-        <v>75915.700000000055</v>
+        <v>75915.580000000031</v>
       </c>
       <c r="H228" s="9">
         <f t="shared" si="17"/>
@@ -9043,7 +9056,7 @@
       </c>
       <c r="J228" s="9">
         <f t="shared" si="18"/>
-        <v>43390.540000000015</v>
+        <v>43390.560000000019</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
@@ -9068,7 +9081,7 @@
       </c>
       <c r="G229" s="9">
         <f t="shared" si="16"/>
-        <v>76849.040000000052</v>
+        <v>76848.920000000027</v>
       </c>
       <c r="H229" s="9">
         <f t="shared" si="17"/>
@@ -9080,7 +9093,7 @@
       </c>
       <c r="J229" s="9">
         <f t="shared" si="18"/>
-        <v>43520.380000000012</v>
+        <v>43520.400000000016</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.15">
@@ -9105,7 +9118,7 @@
       </c>
       <c r="G230" s="9">
         <f t="shared" si="16"/>
-        <v>77790.190000000046</v>
+        <v>77790.070000000022</v>
       </c>
       <c r="H230" s="9">
         <f t="shared" si="17"/>
@@ -9117,7 +9130,7 @@
       </c>
       <c r="J230" s="9">
         <f t="shared" si="18"/>
-        <v>43649.850000000013</v>
+        <v>43649.870000000017</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
@@ -9142,7 +9155,7 @@
       </c>
       <c r="G231" s="9">
         <f t="shared" si="16"/>
-        <v>78739.160000000047</v>
+        <v>78739.040000000023</v>
       </c>
       <c r="H231" s="9">
         <f t="shared" si="17"/>
@@ -9154,7 +9167,7 @@
       </c>
       <c r="J231" s="9">
         <f t="shared" si="18"/>
-        <v>43778.950000000012</v>
+        <v>43778.970000000016</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
@@ -9179,7 +9192,7 @@
       </c>
       <c r="G232" s="9">
         <f t="shared" si="16"/>
-        <v>79695.96000000005</v>
+        <v>79695.840000000026</v>
       </c>
       <c r="H232" s="9">
         <f t="shared" si="17"/>
@@ -9191,7 +9204,7 @@
       </c>
       <c r="J232" s="9">
         <f t="shared" si="18"/>
-        <v>43907.670000000006</v>
+        <v>43907.69000000001</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
@@ -9216,7 +9229,7 @@
       </c>
       <c r="G233" s="9">
         <f t="shared" si="16"/>
-        <v>80660.580000000045</v>
+        <v>80660.460000000021</v>
       </c>
       <c r="H233" s="9">
         <f t="shared" si="17"/>
@@ -9228,7 +9241,7 @@
       </c>
       <c r="J233" s="9">
         <f t="shared" si="18"/>
-        <v>44036.020000000004</v>
+        <v>44036.040000000008</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
@@ -9253,7 +9266,7 @@
       </c>
       <c r="G234" s="9">
         <f t="shared" si="16"/>
-        <v>81633.020000000048</v>
+        <v>81632.900000000023</v>
       </c>
       <c r="H234" s="9">
         <f t="shared" si="17"/>
@@ -9265,7 +9278,7 @@
       </c>
       <c r="J234" s="9">
         <f t="shared" si="18"/>
-        <v>44164</v>
+        <v>44164.020000000004</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
@@ -9290,7 +9303,7 @@
       </c>
       <c r="G235" s="9">
         <f t="shared" si="16"/>
-        <v>82613.270000000048</v>
+        <v>82613.150000000023</v>
       </c>
       <c r="H235" s="9">
         <f t="shared" si="17"/>
@@ -9302,7 +9315,7 @@
       </c>
       <c r="J235" s="9">
         <f t="shared" si="18"/>
-        <v>44291.61</v>
+        <v>44291.630000000005</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
@@ -9327,7 +9340,7 @@
       </c>
       <c r="G236" s="9">
         <f t="shared" si="16"/>
-        <v>83601.350000000049</v>
+        <v>83601.230000000025</v>
       </c>
       <c r="H236" s="9">
         <f t="shared" si="17"/>
@@ -9339,7 +9352,7 @@
       </c>
       <c r="J236" s="9">
         <f t="shared" si="18"/>
-        <v>44418.84</v>
+        <v>44418.86</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
@@ -9364,7 +9377,7 @@
       </c>
       <c r="G237" s="9">
         <f t="shared" si="16"/>
-        <v>84597.250000000044</v>
+        <v>84597.130000000019</v>
       </c>
       <c r="H237" s="9">
         <f t="shared" si="17"/>
@@ -9376,7 +9389,7 @@
       </c>
       <c r="J237" s="9">
         <f t="shared" si="18"/>
-        <v>44545.7</v>
+        <v>44545.72</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
@@ -9401,7 +9414,7 @@
       </c>
       <c r="G238" s="9">
         <f t="shared" si="16"/>
-        <v>85600.970000000045</v>
+        <v>85600.85000000002</v>
       </c>
       <c r="H238" s="9">
         <f t="shared" si="17"/>
@@ -9413,7 +9426,7 @@
       </c>
       <c r="J238" s="9">
         <f t="shared" si="18"/>
-        <v>44672.189999999995</v>
+        <v>44672.21</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.15">
@@ -9438,7 +9451,7 @@
       </c>
       <c r="G239" s="9">
         <f t="shared" si="16"/>
-        <v>86612.510000000038</v>
+        <v>86612.390000000014</v>
       </c>
       <c r="H239" s="9">
         <f t="shared" si="17"/>
@@ -9450,7 +9463,7 @@
       </c>
       <c r="J239" s="9">
         <f t="shared" si="18"/>
-        <v>44798.31</v>
+        <v>44798.33</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.15">
@@ -9475,7 +9488,7 @@
       </c>
       <c r="G240" s="9">
         <f t="shared" si="16"/>
-        <v>87631.860000000044</v>
+        <v>87631.74000000002</v>
       </c>
       <c r="H240" s="9">
         <f t="shared" si="17"/>
@@ -9487,7 +9500,7 @@
       </c>
       <c r="J240" s="9">
         <f t="shared" si="18"/>
-        <v>44924.06</v>
+        <v>44924.08</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.15">
@@ -9512,7 +9525,7 @@
       </c>
       <c r="G241" s="9">
         <f t="shared" si="16"/>
-        <v>88659.040000000037</v>
+        <v>88658.920000000013</v>
       </c>
       <c r="H241" s="9">
         <f t="shared" si="17"/>
@@ -9524,7 +9537,7 @@
       </c>
       <c r="J241" s="9">
         <f t="shared" si="18"/>
-        <v>45049.43</v>
+        <v>45049.450000000004</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金还款.xlsx
+++ b/我的家/公积金还款.xlsx
@@ -596,7 +596,7 @@
   <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>C2+D2</f>
+        <f t="shared" ref="B2:B18" si="0">C2+D2</f>
         <v>5419.62</v>
       </c>
       <c r="C2" s="8">
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <f>C3+D3</f>
+        <f t="shared" si="0"/>
         <v>4280.07</v>
       </c>
       <c r="C3" s="8">
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>4272.62</v>
       </c>
       <c r="C4" s="8">
@@ -742,11 +742,11 @@
         <v>592500</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F67" si="0">DATE(YEAR(F3),MONTH(F3)+1,DAY(F3))</f>
+        <f t="shared" ref="F4:F67" si="1">DATE(YEAR(F3),MONTH(F3)+1,DAY(F3))</f>
         <v>42936</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G4:G67" si="1">G3+H3-I4</f>
+        <f t="shared" ref="G4:G67" si="2">G3+H3-I4</f>
         <v>63920.39</v>
       </c>
       <c r="H4" s="9">
@@ -757,7 +757,7 @@
         <v>4486.25</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J67" si="2">J3+I4-B4</f>
+        <f t="shared" ref="J4:J67" si="3">J3+I4-B4</f>
         <v>4921.71</v>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>4265.18</v>
       </c>
       <c r="C5" s="8">
@@ -779,22 +779,22 @@
         <v>590000</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42967</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63101.95</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H67" si="3">H4</f>
+        <f t="shared" ref="H5:H67" si="4">H4</f>
         <v>3660</v>
       </c>
       <c r="I5" s="9">
         <v>4478.4399999999996</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5134.9699999999993</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>4257.7299999999996</v>
       </c>
       <c r="C6" s="8">
@@ -816,22 +816,22 @@
         <v>587500</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42998</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62291.329999999994</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3660</v>
       </c>
       <c r="I6" s="9">
         <v>4470.62</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5347.8600000000006</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>4250.28</v>
       </c>
       <c r="C7" s="8">
@@ -853,22 +853,22 @@
         <v>585000</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43028</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61488.539999999986</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3660</v>
       </c>
       <c r="I7" s="9">
         <v>4462.79</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5560.3700000000017</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>4242.83</v>
       </c>
       <c r="C8" s="8">
@@ -890,22 +890,22 @@
         <v>582500</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43059</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60693.569999999985</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3660</v>
       </c>
       <c r="I8" s="9">
         <v>4454.97</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5772.510000000002</v>
       </c>
     </row>
@@ -914,37 +914,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <f>C9+D9</f>
-        <v>4235.3599999999997</v>
+        <f t="shared" si="0"/>
+        <v>4235.38</v>
       </c>
       <c r="C9" s="8">
         <v>2500</v>
       </c>
       <c r="D9" s="8">
-        <v>1735.36</v>
+        <v>1735.38</v>
       </c>
       <c r="E9" s="9">
         <v>580000</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43089</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="1"/>
-        <v>59906.439999999988</v>
+        <f t="shared" si="2"/>
+        <v>59906.419999999984</v>
       </c>
       <c r="H9" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9:I68" si="5">IF(G8+H8&gt;ROUND(B9*1.05,2),ROUND(B9*1.05,2),G8+H8)</f>
+        <v>4447.1499999999996</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" ref="I5:I68" si="4">IF(G8+H8&gt;ROUND(B9*1.05,2),ROUND(B9*1.05,2),G8+H8)</f>
-        <v>4447.13</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="2"/>
-        <v>5984.2800000000034</v>
+        <v>5984.2800000000016</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -952,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>4227.92</v>
       </c>
       <c r="C10" s="8">
@@ -965,23 +965,23 @@
         <v>577500</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43120</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>59127.119999999988</v>
+        <f t="shared" si="2"/>
+        <v>59127.099999999984</v>
       </c>
       <c r="H10" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="5"/>
+        <v>4439.32</v>
+      </c>
+      <c r="J10" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="4"/>
-        <v>4439.32</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="2"/>
         <v>6195.6800000000021</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>4220.47</v>
       </c>
       <c r="C11" s="8">
@@ -1003,23 +1003,23 @@
         <v>575000</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43151</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="1"/>
-        <v>58355.62999999999</v>
+        <f t="shared" si="2"/>
+        <v>58355.609999999986</v>
       </c>
       <c r="H11" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="5"/>
+        <v>4431.49</v>
+      </c>
+      <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="4"/>
-        <v>4431.49</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="2"/>
         <v>6406.7000000000016</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>4213.0200000000004</v>
       </c>
       <c r="C12" s="8">
@@ -1041,23 +1041,23 @@
         <v>572500</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43179</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="1"/>
-        <v>57591.959999999992</v>
+        <f t="shared" si="2"/>
+        <v>57591.939999999988</v>
       </c>
       <c r="H12" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="5"/>
+        <v>4423.67</v>
+      </c>
+      <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="4"/>
-        <v>4423.67</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="2"/>
         <v>6617.3500000000022</v>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>4205.57</v>
       </c>
       <c r="C13" s="8">
@@ -1079,23 +1079,23 @@
         <v>570000</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43210</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="1"/>
-        <v>56836.109999999993</v>
+        <f t="shared" si="2"/>
+        <v>56836.089999999989</v>
       </c>
       <c r="H13" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="5"/>
+        <v>4415.8500000000004</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I13" s="9">
-        <f t="shared" si="4"/>
-        <v>4415.8500000000004</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="2"/>
         <v>6827.6300000000028</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>4198.13</v>
       </c>
       <c r="C14" s="8">
@@ -1117,23 +1117,23 @@
         <v>567500</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43240</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="1"/>
-        <v>56088.069999999992</v>
+        <f t="shared" si="2"/>
+        <v>56088.049999999988</v>
       </c>
       <c r="H14" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="5"/>
+        <v>4408.04</v>
+      </c>
+      <c r="J14" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="4"/>
-        <v>4408.04</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="2"/>
         <v>7037.5400000000018</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8">
-        <f>C15+D15</f>
+        <f t="shared" si="0"/>
         <v>4190.68</v>
       </c>
       <c r="C15" s="8">
@@ -1155,23 +1155,23 @@
         <v>565000</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43271</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="1"/>
-        <v>55347.859999999993</v>
+        <f t="shared" si="2"/>
+        <v>55347.839999999989</v>
       </c>
       <c r="H15" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="5"/>
+        <v>4400.21</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="4"/>
-        <v>4400.21</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="2"/>
         <v>7247.0700000000015</v>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <f>C16+D16</f>
+        <f t="shared" si="0"/>
         <v>4183.2299999999996</v>
       </c>
       <c r="C16" s="8">
@@ -1193,23 +1193,23 @@
         <v>562500</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43301</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="1"/>
-        <v>54615.469999999994</v>
+        <f t="shared" si="2"/>
+        <v>54615.44999999999</v>
       </c>
       <c r="H16" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="5"/>
+        <v>4392.3900000000003</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="4"/>
-        <v>4392.3900000000003</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="2"/>
         <v>7456.2300000000032</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8">
-        <f>C17+D17</f>
+        <f t="shared" si="0"/>
         <v>4175.78</v>
       </c>
       <c r="C17" s="8">
@@ -1231,23 +1231,23 @@
         <v>560000</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43332</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="1"/>
-        <v>53890.899999999994</v>
+        <f t="shared" si="2"/>
+        <v>53890.87999999999</v>
       </c>
       <c r="H17" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="5"/>
+        <v>4384.57</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="4"/>
-        <v>4384.57</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="2"/>
         <v>7665.0200000000032</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
-        <f>C18+D18</f>
+        <f t="shared" si="0"/>
         <v>4168.33</v>
       </c>
       <c r="C18" s="8">
@@ -1269,23 +1269,23 @@
         <v>557500</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43363</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="1"/>
-        <v>53174.149999999994</v>
+        <f t="shared" si="2"/>
+        <v>53174.12999999999</v>
       </c>
       <c r="H18" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
+        <v>4376.75</v>
+      </c>
+      <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="4"/>
-        <v>4376.75</v>
-      </c>
-      <c r="J18" s="9">
-        <f t="shared" si="2"/>
         <v>7873.4400000000041</v>
       </c>
     </row>
@@ -1306,23 +1306,23 @@
         <v>555000</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43393</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="1"/>
-        <v>52465.219999999994</v>
+        <f t="shared" si="2"/>
+        <v>52465.19999999999</v>
       </c>
       <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="5"/>
+        <v>4368.93</v>
+      </c>
+      <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="4"/>
-        <v>4368.93</v>
-      </c>
-      <c r="J19" s="9">
-        <f t="shared" si="2"/>
         <v>8081.4800000000041</v>
       </c>
     </row>
@@ -1343,23 +1343,23 @@
         <v>552500</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43424</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="1"/>
-        <v>51764.109999999993</v>
+        <f t="shared" si="2"/>
+        <v>51764.089999999989</v>
       </c>
       <c r="H20" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="5"/>
+        <v>4361.1099999999997</v>
+      </c>
+      <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="4"/>
-        <v>4361.1099999999997</v>
-      </c>
-      <c r="J20" s="9">
-        <f t="shared" si="2"/>
         <v>8289.1500000000051</v>
       </c>
     </row>
@@ -1380,23 +1380,23 @@
         <v>550000</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43454</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="1"/>
-        <v>51070.819999999992</v>
+        <f t="shared" si="2"/>
+        <v>51070.799999999988</v>
       </c>
       <c r="H21" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="5"/>
+        <v>4353.29</v>
+      </c>
+      <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="4"/>
-        <v>4353.29</v>
-      </c>
-      <c r="J21" s="9">
-        <f t="shared" si="2"/>
         <v>8496.4500000000062</v>
       </c>
     </row>
@@ -1417,23 +1417,23 @@
         <v>547500</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43485</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="1"/>
-        <v>50385.349999999991</v>
+        <f t="shared" si="2"/>
+        <v>50385.329999999987</v>
       </c>
       <c r="H22" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="5"/>
+        <v>4345.47</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="4"/>
-        <v>4345.47</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" si="2"/>
         <v>8703.3800000000047</v>
       </c>
     </row>
@@ -1454,23 +1454,23 @@
         <v>545000</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43516</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="1"/>
-        <v>49707.709999999992</v>
+        <f t="shared" si="2"/>
+        <v>49707.689999999988</v>
       </c>
       <c r="H23" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="5"/>
+        <v>4337.6400000000003</v>
+      </c>
+      <c r="J23" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="4"/>
-        <v>4337.6400000000003</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" si="2"/>
         <v>8909.9300000000039</v>
       </c>
     </row>
@@ -1491,23 +1491,23 @@
         <v>542500</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="1"/>
-        <v>49037.87999999999</v>
+        <f t="shared" si="2"/>
+        <v>49037.859999999986</v>
       </c>
       <c r="H24" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="5"/>
+        <v>4329.83</v>
+      </c>
+      <c r="J24" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="4"/>
-        <v>4329.83</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" si="2"/>
         <v>9116.1100000000042</v>
       </c>
     </row>
@@ -1528,23 +1528,23 @@
         <v>540000</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43575</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="1"/>
-        <v>48375.869999999988</v>
+        <f t="shared" si="2"/>
+        <v>48375.849999999984</v>
       </c>
       <c r="H25" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="5"/>
+        <v>4322.01</v>
+      </c>
+      <c r="J25" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="4"/>
-        <v>4322.01</v>
-      </c>
-      <c r="J25" s="9">
-        <f t="shared" si="2"/>
         <v>9321.9200000000055</v>
       </c>
     </row>
@@ -1565,23 +1565,23 @@
         <v>537500</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43605</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="1"/>
-        <v>47721.679999999986</v>
+        <f t="shared" si="2"/>
+        <v>47721.659999999982</v>
       </c>
       <c r="H26" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="5"/>
+        <v>4314.1899999999996</v>
+      </c>
+      <c r="J26" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="4"/>
-        <v>4314.1899999999996</v>
-      </c>
-      <c r="J26" s="9">
-        <f t="shared" si="2"/>
         <v>9527.3600000000042</v>
       </c>
     </row>
@@ -1602,23 +1602,23 @@
         <v>535000</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43636</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="1"/>
-        <v>47075.309999999983</v>
+        <f t="shared" si="2"/>
+        <v>47075.289999999979</v>
       </c>
       <c r="H27" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="5"/>
+        <v>4306.37</v>
+      </c>
+      <c r="J27" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="4"/>
-        <v>4306.37</v>
-      </c>
-      <c r="J27" s="9">
-        <f t="shared" si="2"/>
         <v>9732.4300000000039</v>
       </c>
     </row>
@@ -1639,23 +1639,23 @@
         <v>532500</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43666</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="1"/>
-        <v>46436.769999999982</v>
+        <f t="shared" si="2"/>
+        <v>46436.749999999978</v>
       </c>
       <c r="H28" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="5"/>
+        <v>4298.54</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="4"/>
-        <v>4298.54</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" si="2"/>
         <v>9937.1200000000044</v>
       </c>
     </row>
@@ -1676,23 +1676,23 @@
         <v>530000</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43697</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="1"/>
-        <v>45806.039999999979</v>
+        <f t="shared" si="2"/>
+        <v>45806.019999999975</v>
       </c>
       <c r="H29" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="5"/>
+        <v>4290.7299999999996</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="4"/>
-        <v>4290.7299999999996</v>
-      </c>
-      <c r="J29" s="9">
-        <f t="shared" si="2"/>
         <v>10141.440000000004</v>
       </c>
     </row>
@@ -1713,23 +1713,23 @@
         <v>527500</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43728</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="1"/>
-        <v>45183.129999999976</v>
+        <f t="shared" si="2"/>
+        <v>45183.109999999971</v>
       </c>
       <c r="H30" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="5"/>
+        <v>4282.91</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="4"/>
-        <v>4282.91</v>
-      </c>
-      <c r="J30" s="9">
-        <f t="shared" si="2"/>
         <v>10345.390000000003</v>
       </c>
     </row>
@@ -1750,23 +1750,23 @@
         <v>525000</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43758</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="1"/>
-        <v>44568.039999999979</v>
+        <f t="shared" si="2"/>
+        <v>44568.019999999975</v>
       </c>
       <c r="H31" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="5"/>
+        <v>4275.09</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="4"/>
-        <v>4275.09</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="2"/>
         <v>10548.970000000003</v>
       </c>
     </row>
@@ -1787,23 +1787,23 @@
         <v>522500</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43789</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="1"/>
-        <v>43960.779999999977</v>
+        <f t="shared" si="2"/>
+        <v>43960.759999999973</v>
       </c>
       <c r="H32" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="5"/>
+        <v>4267.26</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="4"/>
-        <v>4267.26</v>
-      </c>
-      <c r="J32" s="9">
-        <f t="shared" si="2"/>
         <v>10752.170000000004</v>
       </c>
     </row>
@@ -1824,23 +1824,23 @@
         <v>520000</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43819</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="1"/>
-        <v>43361.339999999975</v>
+        <f t="shared" si="2"/>
+        <v>43361.319999999971</v>
       </c>
       <c r="H33" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="5"/>
+        <v>4259.4399999999996</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="4"/>
-        <v>4259.4399999999996</v>
-      </c>
-      <c r="J33" s="9">
-        <f t="shared" si="2"/>
         <v>10955.000000000004</v>
       </c>
     </row>
@@ -1861,23 +1861,23 @@
         <v>517500</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43850</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="1"/>
-        <v>42769.709999999977</v>
+        <f t="shared" si="2"/>
+        <v>42769.689999999973</v>
       </c>
       <c r="H34" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="5"/>
+        <v>4251.63</v>
+      </c>
+      <c r="J34" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I34" s="9">
-        <f t="shared" si="4"/>
-        <v>4251.63</v>
-      </c>
-      <c r="J34" s="9">
-        <f t="shared" si="2"/>
         <v>11157.460000000005</v>
       </c>
     </row>
@@ -1898,23 +1898,23 @@
         <v>515000</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43881</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="1"/>
-        <v>42185.89999999998</v>
+        <f t="shared" si="2"/>
+        <v>42185.879999999976</v>
       </c>
       <c r="H35" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="5"/>
+        <v>4243.8100000000004</v>
+      </c>
+      <c r="J35" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" si="4"/>
-        <v>4243.8100000000004</v>
-      </c>
-      <c r="J35" s="9">
-        <f t="shared" si="2"/>
         <v>11359.550000000005</v>
       </c>
     </row>
@@ -1935,23 +1935,23 @@
         <v>512500</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43910</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="1"/>
-        <v>41609.919999999984</v>
+        <f t="shared" si="2"/>
+        <v>41609.89999999998</v>
       </c>
       <c r="H36" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="5"/>
+        <v>4235.9799999999996</v>
+      </c>
+      <c r="J36" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" si="4"/>
-        <v>4235.9799999999996</v>
-      </c>
-      <c r="J36" s="9">
-        <f t="shared" si="2"/>
         <v>11561.260000000004</v>
       </c>
     </row>
@@ -1972,23 +1972,23 @@
         <v>510000</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43941</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="1"/>
-        <v>41041.75999999998</v>
+        <f t="shared" si="2"/>
+        <v>41041.739999999976</v>
       </c>
       <c r="H37" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="5"/>
+        <v>4228.16</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" si="4"/>
-        <v>4228.16</v>
-      </c>
-      <c r="J37" s="9">
-        <f t="shared" si="2"/>
         <v>11762.600000000004</v>
       </c>
     </row>
@@ -2009,23 +2009,23 @@
         <v>507500</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43971</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="1"/>
-        <v>40481.409999999982</v>
+        <f t="shared" si="2"/>
+        <v>40481.389999999978</v>
       </c>
       <c r="H38" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="5"/>
+        <v>4220.3500000000004</v>
+      </c>
+      <c r="J38" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I38" s="9">
-        <f t="shared" si="4"/>
-        <v>4220.3500000000004</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" si="2"/>
         <v>11963.570000000003</v>
       </c>
     </row>
@@ -2046,23 +2046,23 @@
         <v>505000</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44002</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="1"/>
-        <v>39928.879999999983</v>
+        <f t="shared" si="2"/>
+        <v>39928.859999999979</v>
       </c>
       <c r="H39" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="5"/>
+        <v>4212.53</v>
+      </c>
+      <c r="J39" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" si="4"/>
-        <v>4212.53</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" si="2"/>
         <v>12164.170000000002</v>
       </c>
     </row>
@@ -2083,23 +2083,23 @@
         <v>502500</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44032</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="1"/>
-        <v>39384.179999999986</v>
+        <f t="shared" si="2"/>
+        <v>39384.159999999982</v>
       </c>
       <c r="H40" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="5"/>
+        <v>4204.7</v>
+      </c>
+      <c r="J40" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I40" s="9">
-        <f t="shared" si="4"/>
-        <v>4204.7</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" si="2"/>
         <v>12364.390000000003</v>
       </c>
     </row>
@@ -2120,23 +2120,23 @@
         <v>500000</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44063</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="1"/>
-        <v>38847.299999999988</v>
+        <f t="shared" si="2"/>
+        <v>38847.279999999984</v>
       </c>
       <c r="H41" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="5"/>
+        <v>4196.88</v>
+      </c>
+      <c r="J41" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="4"/>
-        <v>4196.88</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="2"/>
         <v>12564.240000000003</v>
       </c>
     </row>
@@ -2157,23 +2157,23 @@
         <v>497500</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44094</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="1"/>
-        <v>38318.239999999991</v>
+        <f t="shared" si="2"/>
+        <v>38318.219999999987</v>
       </c>
       <c r="H42" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="5"/>
+        <v>4189.0600000000004</v>
+      </c>
+      <c r="J42" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="4"/>
-        <v>4189.0600000000004</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="2"/>
         <v>12763.720000000003</v>
       </c>
     </row>
@@ -2194,23 +2194,23 @@
         <v>495000</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44124</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="1"/>
-        <v>37796.989999999991</v>
+        <f t="shared" si="2"/>
+        <v>37796.969999999987</v>
       </c>
       <c r="H43" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="5"/>
+        <v>4181.25</v>
+      </c>
+      <c r="J43" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="4"/>
-        <v>4181.25</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" si="2"/>
         <v>12962.830000000002</v>
       </c>
     </row>
@@ -2231,23 +2231,23 @@
         <v>492500</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44155</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="1"/>
-        <v>37283.569999999992</v>
+        <f t="shared" si="2"/>
+        <v>37283.549999999988</v>
       </c>
       <c r="H44" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="5"/>
+        <v>4173.42</v>
+      </c>
+      <c r="J44" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="4"/>
-        <v>4173.42</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" si="2"/>
         <v>13161.56</v>
       </c>
     </row>
@@ -2268,23 +2268,23 @@
         <v>490000</v>
       </c>
       <c r="F45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44185</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="1"/>
-        <v>36777.969999999994</v>
+        <f t="shared" si="2"/>
+        <v>36777.94999999999</v>
       </c>
       <c r="H45" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="5"/>
+        <v>4165.6000000000004</v>
+      </c>
+      <c r="J45" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="4"/>
-        <v>4165.6000000000004</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" si="2"/>
         <v>13359.92</v>
       </c>
     </row>
@@ -2305,23 +2305,23 @@
         <v>487500</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44216</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="1"/>
-        <v>36280.189999999995</v>
+        <f t="shared" si="2"/>
+        <v>36280.169999999991</v>
       </c>
       <c r="H46" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="5"/>
+        <v>4157.78</v>
+      </c>
+      <c r="J46" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="4"/>
-        <v>4157.78</v>
-      </c>
-      <c r="J46" s="9">
-        <f t="shared" si="2"/>
         <v>13557.91</v>
       </c>
     </row>
@@ -2342,23 +2342,23 @@
         <v>485000</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44247</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" si="1"/>
-        <v>35790.229999999996</v>
+        <f t="shared" si="2"/>
+        <v>35790.209999999992</v>
       </c>
       <c r="H47" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="5"/>
+        <v>4149.96</v>
+      </c>
+      <c r="J47" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="4"/>
-        <v>4149.96</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" si="2"/>
         <v>13755.529999999999</v>
       </c>
     </row>
@@ -2379,23 +2379,23 @@
         <v>482500</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44275</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" si="1"/>
-        <v>35308.079999999994</v>
+        <f t="shared" si="2"/>
+        <v>35308.05999999999</v>
       </c>
       <c r="H48" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="5"/>
+        <v>4142.1499999999996</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="4"/>
-        <v>4142.1499999999996</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="2"/>
         <v>13952.78</v>
       </c>
     </row>
@@ -2416,23 +2416,23 @@
         <v>480000</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44306</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="1"/>
-        <v>34833.759999999995</v>
+        <f t="shared" si="2"/>
+        <v>34833.739999999991</v>
       </c>
       <c r="H49" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="5"/>
+        <v>4134.32</v>
+      </c>
+      <c r="J49" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="4"/>
-        <v>4134.32</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" si="2"/>
         <v>14149.649999999998</v>
       </c>
     </row>
@@ -2453,23 +2453,23 @@
         <v>477500</v>
       </c>
       <c r="F50" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44336</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="1"/>
-        <v>34367.259999999995</v>
+        <f t="shared" si="2"/>
+        <v>34367.239999999991</v>
       </c>
       <c r="H50" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="5"/>
+        <v>4126.5</v>
+      </c>
+      <c r="J50" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="4"/>
-        <v>4126.5</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" si="2"/>
         <v>14346.149999999998</v>
       </c>
     </row>
@@ -2490,23 +2490,23 @@
         <v>475000</v>
       </c>
       <c r="F51" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="1"/>
-        <v>33908.579999999994</v>
+        <f t="shared" si="2"/>
+        <v>33908.55999999999</v>
       </c>
       <c r="H51" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="5"/>
+        <v>4118.68</v>
+      </c>
+      <c r="J51" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="4"/>
-        <v>4118.68</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" si="2"/>
         <v>14542.279999999999</v>
       </c>
     </row>
@@ -2527,23 +2527,23 @@
         <v>472500</v>
       </c>
       <c r="F52" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44397</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="1"/>
-        <v>33457.719999999994</v>
+        <f t="shared" si="2"/>
+        <v>33457.69999999999</v>
       </c>
       <c r="H52" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="5"/>
+        <v>4110.8599999999997</v>
+      </c>
+      <c r="J52" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="4"/>
-        <v>4110.8599999999997</v>
-      </c>
-      <c r="J52" s="9">
-        <f t="shared" si="2"/>
         <v>14738.039999999999</v>
       </c>
     </row>
@@ -2564,23 +2564,23 @@
         <v>470000</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44428</v>
       </c>
       <c r="G53" s="9">
-        <f t="shared" si="1"/>
-        <v>33014.679999999993</v>
+        <f t="shared" si="2"/>
+        <v>33014.659999999989</v>
       </c>
       <c r="H53" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="5"/>
+        <v>4103.04</v>
+      </c>
+      <c r="J53" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="4"/>
-        <v>4103.04</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" si="2"/>
         <v>14933.419999999998</v>
       </c>
     </row>
@@ -2601,23 +2601,23 @@
         <v>467500</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44459</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="1"/>
-        <v>32579.459999999992</v>
+        <f t="shared" si="2"/>
+        <v>32579.439999999988</v>
       </c>
       <c r="H54" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="5"/>
+        <v>4095.22</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I54" s="9">
-        <f t="shared" si="4"/>
-        <v>4095.22</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" si="2"/>
         <v>15128.43</v>
       </c>
     </row>
@@ -2638,23 +2638,23 @@
         <v>465000</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44489</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="1"/>
-        <v>32152.05999999999</v>
+        <f t="shared" si="2"/>
+        <v>32152.039999999986</v>
       </c>
       <c r="H55" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" si="5"/>
+        <v>4087.4</v>
+      </c>
+      <c r="J55" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I55" s="9">
-        <f t="shared" si="4"/>
-        <v>4087.4</v>
-      </c>
-      <c r="J55" s="9">
-        <f t="shared" si="2"/>
         <v>15323.070000000002</v>
       </c>
     </row>
@@ -2675,23 +2675,23 @@
         <v>462500</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44520</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="1"/>
-        <v>31732.479999999989</v>
+        <f t="shared" si="2"/>
+        <v>31732.459999999985</v>
       </c>
       <c r="H56" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="5"/>
+        <v>4079.58</v>
+      </c>
+      <c r="J56" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I56" s="9">
-        <f t="shared" si="4"/>
-        <v>4079.58</v>
-      </c>
-      <c r="J56" s="9">
-        <f t="shared" si="2"/>
         <v>15517.340000000002</v>
       </c>
     </row>
@@ -2712,23 +2712,23 @@
         <v>460000</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44550</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="1"/>
-        <v>31320.729999999989</v>
+        <f t="shared" si="2"/>
+        <v>31320.709999999985</v>
       </c>
       <c r="H57" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="5"/>
+        <v>4071.75</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I57" s="9">
-        <f t="shared" si="4"/>
-        <v>4071.75</v>
-      </c>
-      <c r="J57" s="9">
-        <f t="shared" si="2"/>
         <v>15711.230000000003</v>
       </c>
     </row>
@@ -2749,23 +2749,23 @@
         <v>457500</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44581</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="1"/>
-        <v>30916.78999999999</v>
+        <f t="shared" si="2"/>
+        <v>30916.769999999986</v>
       </c>
       <c r="H58" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="5"/>
+        <v>4063.94</v>
+      </c>
+      <c r="J58" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="4"/>
-        <v>4063.94</v>
-      </c>
-      <c r="J58" s="9">
-        <f t="shared" si="2"/>
         <v>15904.750000000002</v>
       </c>
     </row>
@@ -2786,23 +2786,23 @@
         <v>455000</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44612</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="1"/>
-        <v>30520.669999999995</v>
+        <f t="shared" si="2"/>
+        <v>30520.649999999991</v>
       </c>
       <c r="H59" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="5"/>
+        <v>4056.12</v>
+      </c>
+      <c r="J59" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="4"/>
-        <v>4056.12</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" si="2"/>
         <v>16097.900000000003</v>
       </c>
     </row>
@@ -2823,23 +2823,23 @@
         <v>452500</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44640</v>
       </c>
       <c r="G60" s="9">
-        <f t="shared" si="1"/>
-        <v>30132.37</v>
+        <f t="shared" si="2"/>
+        <v>30132.349999999995</v>
       </c>
       <c r="H60" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="5"/>
+        <v>4048.3</v>
+      </c>
+      <c r="J60" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I60" s="9">
-        <f t="shared" si="4"/>
-        <v>4048.3</v>
-      </c>
-      <c r="J60" s="9">
-        <f t="shared" si="2"/>
         <v>16290.680000000004</v>
       </c>
     </row>
@@ -2860,23 +2860,23 @@
         <v>450000</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44671</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="1"/>
-        <v>29751.899999999994</v>
+        <f t="shared" si="2"/>
+        <v>29751.87999999999</v>
       </c>
       <c r="H61" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="5"/>
+        <v>4040.47</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I61" s="9">
-        <f t="shared" si="4"/>
-        <v>4040.47</v>
-      </c>
-      <c r="J61" s="9">
-        <f t="shared" si="2"/>
         <v>16483.080000000005</v>
       </c>
     </row>
@@ -2897,23 +2897,23 @@
         <v>447500</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44701</v>
       </c>
       <c r="G62" s="9">
-        <f t="shared" si="1"/>
-        <v>29379.239999999994</v>
+        <f t="shared" si="2"/>
+        <v>29379.21999999999</v>
       </c>
       <c r="H62" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I62" s="9">
+        <f t="shared" si="5"/>
+        <v>4032.66</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I62" s="9">
-        <f t="shared" si="4"/>
-        <v>4032.66</v>
-      </c>
-      <c r="J62" s="9">
-        <f t="shared" si="2"/>
         <v>16675.110000000004</v>
       </c>
     </row>
@@ -2934,23 +2934,23 @@
         <v>445000</v>
       </c>
       <c r="F63" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44732</v>
       </c>
       <c r="G63" s="9">
-        <f t="shared" si="1"/>
-        <v>29014.399999999991</v>
+        <f t="shared" si="2"/>
+        <v>29014.379999999986</v>
       </c>
       <c r="H63" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="5"/>
+        <v>4024.84</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I63" s="9">
-        <f t="shared" si="4"/>
-        <v>4024.84</v>
-      </c>
-      <c r="J63" s="9">
-        <f t="shared" si="2"/>
         <v>16866.770000000004</v>
       </c>
     </row>
@@ -2971,23 +2971,23 @@
         <v>442500</v>
       </c>
       <c r="F64" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44762</v>
       </c>
       <c r="G64" s="9">
-        <f t="shared" si="1"/>
-        <v>28657.37999999999</v>
+        <f t="shared" si="2"/>
+        <v>28657.359999999986</v>
       </c>
       <c r="H64" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="5"/>
+        <v>4017.02</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I64" s="9">
-        <f t="shared" si="4"/>
-        <v>4017.02</v>
-      </c>
-      <c r="J64" s="9">
-        <f t="shared" si="2"/>
         <v>17058.060000000005</v>
       </c>
     </row>
@@ -3008,23 +3008,23 @@
         <v>440000</v>
       </c>
       <c r="F65" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44793</v>
       </c>
       <c r="G65" s="9">
-        <f t="shared" si="1"/>
-        <v>28308.189999999991</v>
+        <f t="shared" si="2"/>
+        <v>28308.169999999987</v>
       </c>
       <c r="H65" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="5"/>
+        <v>4009.19</v>
+      </c>
+      <c r="J65" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I65" s="9">
-        <f t="shared" si="4"/>
-        <v>4009.19</v>
-      </c>
-      <c r="J65" s="9">
-        <f t="shared" si="2"/>
         <v>17248.970000000005</v>
       </c>
     </row>
@@ -3045,23 +3045,23 @@
         <v>437500</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="1"/>
-        <v>27966.819999999992</v>
+        <f t="shared" si="2"/>
+        <v>27966.799999999988</v>
       </c>
       <c r="H66" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="5"/>
+        <v>4001.37</v>
+      </c>
+      <c r="J66" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I66" s="9">
-        <f t="shared" si="4"/>
-        <v>4001.37</v>
-      </c>
-      <c r="J66" s="9">
-        <f t="shared" si="2"/>
         <v>17439.510000000002</v>
       </c>
     </row>
@@ -3082,23 +3082,23 @@
         <v>435000</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44854</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" si="1"/>
-        <v>27633.259999999991</v>
+        <f t="shared" si="2"/>
+        <v>27633.239999999987</v>
       </c>
       <c r="H67" s="9">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="5"/>
+        <v>3993.56</v>
+      </c>
+      <c r="J67" s="9">
         <f t="shared" si="3"/>
-        <v>3660</v>
-      </c>
-      <c r="I67" s="9">
-        <f t="shared" si="4"/>
-        <v>3993.56</v>
-      </c>
-      <c r="J67" s="9">
-        <f t="shared" si="2"/>
         <v>17629.680000000004</v>
       </c>
     </row>
@@ -3119,23 +3119,23 @@
         <v>432500</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" ref="F68:F131" si="5">DATE(YEAR(F67),MONTH(F67)+1,DAY(F67))</f>
+        <f t="shared" ref="F68:F131" si="6">DATE(YEAR(F67),MONTH(F67)+1,DAY(F67))</f>
         <v>44885</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" ref="G68:G131" si="6">G67+H67-I68</f>
-        <v>27307.51999999999</v>
+        <f t="shared" ref="G68:G131" si="7">G67+H67-I68</f>
+        <v>27307.499999999985</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" ref="H68:H131" si="7">H67</f>
+        <f t="shared" ref="H68:H131" si="8">H67</f>
         <v>3660</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3985.74</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" ref="J68:J131" si="8">J67+I68-B68</f>
+        <f t="shared" ref="J68:J131" si="9">J67+I68-B68</f>
         <v>17819.480000000007</v>
       </c>
     </row>
@@ -3156,23 +3156,23 @@
         <v>430000</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44915</v>
       </c>
       <c r="G69" s="9">
-        <f t="shared" si="6"/>
-        <v>26989.60999999999</v>
+        <f t="shared" si="7"/>
+        <v>26989.589999999986</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I69" s="9">
-        <f t="shared" ref="I69:I132" si="9">IF(G68+H68&gt;ROUND(B69*1.05,2),ROUND(B69*1.05,2),G68+H68)</f>
+        <f t="shared" ref="I69:I132" si="10">IF(G68+H68&gt;ROUND(B69*1.05,2),ROUND(B69*1.05,2),G68+H68)</f>
         <v>3977.91</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18008.900000000009</v>
       </c>
     </row>
@@ -3193,23 +3193,23 @@
         <v>427500</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44946</v>
       </c>
       <c r="G70" s="9">
-        <f t="shared" si="6"/>
-        <v>26679.51999999999</v>
+        <f t="shared" si="7"/>
+        <v>26679.499999999985</v>
       </c>
       <c r="H70" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I70" s="9">
+        <f t="shared" si="10"/>
+        <v>3970.09</v>
+      </c>
+      <c r="J70" s="9">
         <f t="shared" si="9"/>
-        <v>3970.09</v>
-      </c>
-      <c r="J70" s="9">
-        <f t="shared" si="8"/>
         <v>18197.950000000008</v>
       </c>
     </row>
@@ -3230,23 +3230,23 @@
         <v>425000</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44977</v>
       </c>
       <c r="G71" s="9">
-        <f t="shared" si="6"/>
-        <v>26377.249999999989</v>
+        <f t="shared" si="7"/>
+        <v>26377.229999999985</v>
       </c>
       <c r="H71" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I71" s="9">
+        <f t="shared" si="10"/>
+        <v>3962.27</v>
+      </c>
+      <c r="J71" s="9">
         <f t="shared" si="9"/>
-        <v>3962.27</v>
-      </c>
-      <c r="J71" s="9">
-        <f t="shared" si="8"/>
         <v>18386.630000000008</v>
       </c>
     </row>
@@ -3267,23 +3267,23 @@
         <v>422500</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45005</v>
       </c>
       <c r="G72" s="9">
-        <f t="shared" si="6"/>
-        <v>26082.78999999999</v>
+        <f t="shared" si="7"/>
+        <v>26082.769999999986</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I72" s="9">
+        <f t="shared" si="10"/>
+        <v>3954.46</v>
+      </c>
+      <c r="J72" s="9">
         <f t="shared" si="9"/>
-        <v>3954.46</v>
-      </c>
-      <c r="J72" s="9">
-        <f t="shared" si="8"/>
         <v>18574.940000000006</v>
       </c>
     </row>
@@ -3304,23 +3304,23 @@
         <v>420000</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45036</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" si="6"/>
-        <v>25796.149999999991</v>
+        <f t="shared" si="7"/>
+        <v>25796.129999999986</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I73" s="9">
+        <f t="shared" si="10"/>
+        <v>3946.64</v>
+      </c>
+      <c r="J73" s="9">
         <f t="shared" si="9"/>
-        <v>3946.64</v>
-      </c>
-      <c r="J73" s="9">
-        <f t="shared" si="8"/>
         <v>18762.880000000005</v>
       </c>
     </row>
@@ -3341,23 +3341,23 @@
         <v>417500</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45066</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="6"/>
-        <v>25517.339999999989</v>
+        <f t="shared" si="7"/>
+        <v>25517.319999999985</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I74" s="9">
+        <f t="shared" si="10"/>
+        <v>3938.81</v>
+      </c>
+      <c r="J74" s="9">
         <f t="shared" si="9"/>
-        <v>3938.81</v>
-      </c>
-      <c r="J74" s="9">
-        <f t="shared" si="8"/>
         <v>18950.440000000006</v>
       </c>
     </row>
@@ -3378,23 +3378,23 @@
         <v>415000</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45097</v>
       </c>
       <c r="G75" s="9">
-        <f t="shared" si="6"/>
-        <v>25246.349999999991</v>
+        <f t="shared" si="7"/>
+        <v>25246.329999999987</v>
       </c>
       <c r="H75" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I75" s="9">
+        <f t="shared" si="10"/>
+        <v>3930.99</v>
+      </c>
+      <c r="J75" s="9">
         <f t="shared" si="9"/>
-        <v>3930.99</v>
-      </c>
-      <c r="J75" s="9">
-        <f t="shared" si="8"/>
         <v>19137.630000000008</v>
       </c>
     </row>
@@ -3415,23 +3415,23 @@
         <v>412500</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45127</v>
       </c>
       <c r="G76" s="9">
-        <f t="shared" si="6"/>
-        <v>24983.179999999993</v>
+        <f t="shared" si="7"/>
+        <v>24983.159999999989</v>
       </c>
       <c r="H76" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I76" s="9">
+        <f t="shared" si="10"/>
+        <v>3923.17</v>
+      </c>
+      <c r="J76" s="9">
         <f t="shared" si="9"/>
-        <v>3923.17</v>
-      </c>
-      <c r="J76" s="9">
-        <f t="shared" si="8"/>
         <v>19324.450000000012</v>
       </c>
     </row>
@@ -3452,23 +3452,23 @@
         <v>410000</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45158</v>
       </c>
       <c r="G77" s="9">
-        <f t="shared" si="6"/>
-        <v>24727.819999999992</v>
+        <f t="shared" si="7"/>
+        <v>24727.799999999988</v>
       </c>
       <c r="H77" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I77" s="9">
+        <f t="shared" si="10"/>
+        <v>3915.36</v>
+      </c>
+      <c r="J77" s="9">
         <f t="shared" si="9"/>
-        <v>3915.36</v>
-      </c>
-      <c r="J77" s="9">
-        <f t="shared" si="8"/>
         <v>19510.900000000012</v>
       </c>
     </row>
@@ -3489,23 +3489,23 @@
         <v>407500</v>
       </c>
       <c r="F78" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45189</v>
       </c>
       <c r="G78" s="9">
-        <f t="shared" si="6"/>
-        <v>24480.289999999994</v>
+        <f t="shared" si="7"/>
+        <v>24480.26999999999</v>
       </c>
       <c r="H78" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I78" s="9">
+        <f t="shared" si="10"/>
+        <v>3907.53</v>
+      </c>
+      <c r="J78" s="9">
         <f t="shared" si="9"/>
-        <v>3907.53</v>
-      </c>
-      <c r="J78" s="9">
-        <f t="shared" si="8"/>
         <v>19696.970000000012</v>
       </c>
     </row>
@@ -3526,23 +3526,23 @@
         <v>405000</v>
       </c>
       <c r="F79" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45219</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" si="6"/>
-        <v>24240.579999999994</v>
+        <f t="shared" si="7"/>
+        <v>24240.55999999999</v>
       </c>
       <c r="H79" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I79" s="9">
+        <f t="shared" si="10"/>
+        <v>3899.71</v>
+      </c>
+      <c r="J79" s="9">
         <f t="shared" si="9"/>
-        <v>3899.71</v>
-      </c>
-      <c r="J79" s="9">
-        <f t="shared" si="8"/>
         <v>19882.670000000013</v>
       </c>
     </row>
@@ -3563,23 +3563,23 @@
         <v>402500</v>
       </c>
       <c r="F80" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45250</v>
       </c>
       <c r="G80" s="9">
-        <f t="shared" si="6"/>
-        <v>24008.689999999995</v>
+        <f t="shared" si="7"/>
+        <v>24008.669999999991</v>
       </c>
       <c r="H80" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I80" s="9">
+        <f t="shared" si="10"/>
+        <v>3891.89</v>
+      </c>
+      <c r="J80" s="9">
         <f t="shared" si="9"/>
-        <v>3891.89</v>
-      </c>
-      <c r="J80" s="9">
-        <f t="shared" si="8"/>
         <v>20068.000000000011</v>
       </c>
     </row>
@@ -3600,23 +3600,23 @@
         <v>400000</v>
       </c>
       <c r="F81" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45280</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="6"/>
-        <v>23784.619999999995</v>
+        <f t="shared" si="7"/>
+        <v>23784.599999999991</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I81" s="9">
+        <f t="shared" si="10"/>
+        <v>3884.07</v>
+      </c>
+      <c r="J81" s="9">
         <f t="shared" si="9"/>
-        <v>3884.07</v>
-      </c>
-      <c r="J81" s="9">
-        <f t="shared" si="8"/>
         <v>20252.96000000001</v>
       </c>
     </row>
@@ -3637,23 +3637,23 @@
         <v>397500</v>
       </c>
       <c r="F82" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45311</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" si="6"/>
-        <v>23568.369999999995</v>
+        <f t="shared" si="7"/>
+        <v>23568.349999999991</v>
       </c>
       <c r="H82" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I82" s="9">
+        <f t="shared" si="10"/>
+        <v>3876.25</v>
+      </c>
+      <c r="J82" s="9">
         <f t="shared" si="9"/>
-        <v>3876.25</v>
-      </c>
-      <c r="J82" s="9">
-        <f t="shared" si="8"/>
         <v>20437.540000000008</v>
       </c>
     </row>
@@ -3674,23 +3674,23 @@
         <v>395000</v>
       </c>
       <c r="F83" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45342</v>
       </c>
       <c r="G83" s="9">
-        <f t="shared" si="6"/>
-        <v>23359.939999999995</v>
+        <f t="shared" si="7"/>
+        <v>23359.919999999991</v>
       </c>
       <c r="H83" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I83" s="9">
+        <f t="shared" si="10"/>
+        <v>3868.43</v>
+      </c>
+      <c r="J83" s="9">
         <f t="shared" si="9"/>
-        <v>3868.43</v>
-      </c>
-      <c r="J83" s="9">
-        <f t="shared" si="8"/>
         <v>20621.750000000007</v>
       </c>
     </row>
@@ -3711,23 +3711,23 @@
         <v>392500</v>
       </c>
       <c r="F84" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45371</v>
       </c>
       <c r="G84" s="9">
-        <f t="shared" si="6"/>
-        <v>23159.329999999994</v>
+        <f t="shared" si="7"/>
+        <v>23159.30999999999</v>
       </c>
       <c r="H84" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I84" s="9">
+        <f t="shared" si="10"/>
+        <v>3860.61</v>
+      </c>
+      <c r="J84" s="9">
         <f t="shared" si="9"/>
-        <v>3860.61</v>
-      </c>
-      <c r="J84" s="9">
-        <f t="shared" si="8"/>
         <v>20805.590000000007</v>
       </c>
     </row>
@@ -3748,23 +3748,23 @@
         <v>390000</v>
       </c>
       <c r="F85" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45402</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" si="6"/>
-        <v>22966.539999999994</v>
+        <f t="shared" si="7"/>
+        <v>22966.51999999999</v>
       </c>
       <c r="H85" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I85" s="9">
+        <f t="shared" si="10"/>
+        <v>3852.79</v>
+      </c>
+      <c r="J85" s="9">
         <f t="shared" si="9"/>
-        <v>3852.79</v>
-      </c>
-      <c r="J85" s="9">
-        <f t="shared" si="8"/>
         <v>20989.060000000009</v>
       </c>
     </row>
@@ -3785,23 +3785,23 @@
         <v>387500</v>
       </c>
       <c r="F86" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45432</v>
       </c>
       <c r="G86" s="9">
-        <f t="shared" si="6"/>
-        <v>22781.569999999992</v>
+        <f t="shared" si="7"/>
+        <v>22781.549999999988</v>
       </c>
       <c r="H86" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I86" s="9">
+        <f t="shared" si="10"/>
+        <v>3844.97</v>
+      </c>
+      <c r="J86" s="9">
         <f t="shared" si="9"/>
-        <v>3844.97</v>
-      </c>
-      <c r="J86" s="9">
-        <f t="shared" si="8"/>
         <v>21172.150000000009</v>
       </c>
     </row>
@@ -3822,23 +3822,23 @@
         <v>385000</v>
       </c>
       <c r="F87" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45463</v>
       </c>
       <c r="G87" s="9">
-        <f t="shared" si="6"/>
-        <v>22604.419999999991</v>
+        <f t="shared" si="7"/>
+        <v>22604.399999999987</v>
       </c>
       <c r="H87" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I87" s="9">
+        <f t="shared" si="10"/>
+        <v>3837.15</v>
+      </c>
+      <c r="J87" s="9">
         <f t="shared" si="9"/>
-        <v>3837.15</v>
-      </c>
-      <c r="J87" s="9">
-        <f t="shared" si="8"/>
         <v>21354.87000000001</v>
       </c>
     </row>
@@ -3859,23 +3859,23 @@
         <v>382500</v>
       </c>
       <c r="F88" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45493</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" si="6"/>
-        <v>22435.089999999989</v>
+        <f t="shared" si="7"/>
+        <v>22435.069999999985</v>
       </c>
       <c r="H88" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I88" s="9">
+        <f t="shared" si="10"/>
+        <v>3829.33</v>
+      </c>
+      <c r="J88" s="9">
         <f t="shared" si="9"/>
-        <v>3829.33</v>
-      </c>
-      <c r="J88" s="9">
-        <f t="shared" si="8"/>
         <v>21537.220000000012</v>
       </c>
     </row>
@@ -3896,23 +3896,23 @@
         <v>380000</v>
       </c>
       <c r="F89" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45524</v>
       </c>
       <c r="G89" s="9">
-        <f t="shared" si="6"/>
-        <v>22273.579999999987</v>
+        <f t="shared" si="7"/>
+        <v>22273.559999999983</v>
       </c>
       <c r="H89" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I89" s="9">
+        <f t="shared" si="10"/>
+        <v>3821.51</v>
+      </c>
+      <c r="J89" s="9">
         <f t="shared" si="9"/>
-        <v>3821.51</v>
-      </c>
-      <c r="J89" s="9">
-        <f t="shared" si="8"/>
         <v>21719.200000000012</v>
       </c>
     </row>
@@ -3933,23 +3933,23 @@
         <v>377500</v>
       </c>
       <c r="F90" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45555</v>
       </c>
       <c r="G90" s="9">
-        <f t="shared" si="6"/>
-        <v>22119.899999999987</v>
+        <f t="shared" si="7"/>
+        <v>22119.879999999983</v>
       </c>
       <c r="H90" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I90" s="9">
+        <f t="shared" si="10"/>
+        <v>3813.68</v>
+      </c>
+      <c r="J90" s="9">
         <f t="shared" si="9"/>
-        <v>3813.68</v>
-      </c>
-      <c r="J90" s="9">
-        <f t="shared" si="8"/>
         <v>21900.80000000001</v>
       </c>
     </row>
@@ -3970,23 +3970,23 @@
         <v>375000</v>
       </c>
       <c r="F91" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45585</v>
       </c>
       <c r="G91" s="9">
-        <f t="shared" si="6"/>
-        <v>21974.029999999988</v>
+        <f t="shared" si="7"/>
+        <v>21974.009999999984</v>
       </c>
       <c r="H91" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I91" s="9">
+        <f t="shared" si="10"/>
+        <v>3805.87</v>
+      </c>
+      <c r="J91" s="9">
         <f t="shared" si="9"/>
-        <v>3805.87</v>
-      </c>
-      <c r="J91" s="9">
-        <f t="shared" si="8"/>
         <v>22082.03000000001</v>
       </c>
     </row>
@@ -4007,23 +4007,23 @@
         <v>372500</v>
       </c>
       <c r="F92" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45616</v>
       </c>
       <c r="G92" s="9">
-        <f t="shared" si="6"/>
-        <v>21835.979999999989</v>
+        <f t="shared" si="7"/>
+        <v>21835.959999999985</v>
       </c>
       <c r="H92" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I92" s="9">
+        <f t="shared" si="10"/>
+        <v>3798.05</v>
+      </c>
+      <c r="J92" s="9">
         <f t="shared" si="9"/>
-        <v>3798.05</v>
-      </c>
-      <c r="J92" s="9">
-        <f t="shared" si="8"/>
         <v>22262.89000000001</v>
       </c>
     </row>
@@ -4044,23 +4044,23 @@
         <v>370000</v>
       </c>
       <c r="F93" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45646</v>
       </c>
       <c r="G93" s="9">
-        <f t="shared" si="6"/>
-        <v>21705.749999999989</v>
+        <f t="shared" si="7"/>
+        <v>21705.729999999985</v>
       </c>
       <c r="H93" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I93" s="9">
+        <f t="shared" si="10"/>
+        <v>3790.23</v>
+      </c>
+      <c r="J93" s="9">
         <f t="shared" si="9"/>
-        <v>3790.23</v>
-      </c>
-      <c r="J93" s="9">
-        <f t="shared" si="8"/>
         <v>22443.380000000012</v>
       </c>
     </row>
@@ -4081,23 +4081,23 @@
         <v>367500</v>
       </c>
       <c r="F94" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45677</v>
       </c>
       <c r="G94" s="9">
-        <f t="shared" si="6"/>
-        <v>21583.349999999988</v>
+        <f t="shared" si="7"/>
+        <v>21583.329999999984</v>
       </c>
       <c r="H94" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I94" s="9">
+        <f t="shared" si="10"/>
+        <v>3782.4</v>
+      </c>
+      <c r="J94" s="9">
         <f t="shared" si="9"/>
-        <v>3782.4</v>
-      </c>
-      <c r="J94" s="9">
-        <f t="shared" si="8"/>
         <v>22623.490000000013</v>
       </c>
     </row>
@@ -4118,23 +4118,23 @@
         <v>365000</v>
       </c>
       <c r="F95" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45708</v>
       </c>
       <c r="G95" s="9">
-        <f t="shared" si="6"/>
-        <v>21468.76999999999</v>
+        <f t="shared" si="7"/>
+        <v>21468.749999999985</v>
       </c>
       <c r="H95" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I95" s="9">
+        <f t="shared" si="10"/>
+        <v>3774.58</v>
+      </c>
+      <c r="J95" s="9">
         <f t="shared" si="9"/>
-        <v>3774.58</v>
-      </c>
-      <c r="J95" s="9">
-        <f t="shared" si="8"/>
         <v>22803.230000000014</v>
       </c>
     </row>
@@ -4155,23 +4155,23 @@
         <v>362500</v>
       </c>
       <c r="F96" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45736</v>
       </c>
       <c r="G96" s="9">
-        <f t="shared" si="6"/>
-        <v>21361.999999999989</v>
+        <f t="shared" si="7"/>
+        <v>21361.979999999985</v>
       </c>
       <c r="H96" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I96" s="9">
+        <f t="shared" si="10"/>
+        <v>3766.77</v>
+      </c>
+      <c r="J96" s="9">
         <f t="shared" si="9"/>
-        <v>3766.77</v>
-      </c>
-      <c r="J96" s="9">
-        <f t="shared" si="8"/>
         <v>22982.600000000013</v>
       </c>
     </row>
@@ -4192,23 +4192,23 @@
         <v>360000</v>
       </c>
       <c r="F97" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45767</v>
       </c>
       <c r="G97" s="9">
-        <f t="shared" si="6"/>
-        <v>21263.049999999988</v>
+        <f t="shared" si="7"/>
+        <v>21263.029999999984</v>
       </c>
       <c r="H97" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I97" s="9">
+        <f t="shared" si="10"/>
+        <v>3758.95</v>
+      </c>
+      <c r="J97" s="9">
         <f t="shared" si="9"/>
-        <v>3758.95</v>
-      </c>
-      <c r="J97" s="9">
-        <f t="shared" si="8"/>
         <v>23161.600000000013</v>
       </c>
     </row>
@@ -4229,23 +4229,23 @@
         <v>357500</v>
       </c>
       <c r="F98" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45797</v>
       </c>
       <c r="G98" s="9">
-        <f t="shared" si="6"/>
-        <v>21171.919999999987</v>
+        <f t="shared" si="7"/>
+        <v>21171.899999999983</v>
       </c>
       <c r="H98" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I98" s="9">
+        <f t="shared" si="10"/>
+        <v>3751.13</v>
+      </c>
+      <c r="J98" s="9">
         <f t="shared" si="9"/>
-        <v>3751.13</v>
-      </c>
-      <c r="J98" s="9">
-        <f t="shared" si="8"/>
         <v>23340.230000000014</v>
       </c>
     </row>
@@ -4266,23 +4266,23 @@
         <v>355000</v>
       </c>
       <c r="F99" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45828</v>
       </c>
       <c r="G99" s="9">
-        <f t="shared" si="6"/>
-        <v>21088.619999999988</v>
+        <f t="shared" si="7"/>
+        <v>21088.599999999984</v>
       </c>
       <c r="H99" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I99" s="9">
+        <f t="shared" si="10"/>
+        <v>3743.3</v>
+      </c>
+      <c r="J99" s="9">
         <f t="shared" si="9"/>
-        <v>3743.3</v>
-      </c>
-      <c r="J99" s="9">
-        <f t="shared" si="8"/>
         <v>23518.480000000014</v>
       </c>
     </row>
@@ -4303,23 +4303,23 @@
         <v>352500</v>
       </c>
       <c r="F100" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45858</v>
       </c>
       <c r="G100" s="9">
-        <f t="shared" si="6"/>
-        <v>21013.139999999989</v>
+        <f t="shared" si="7"/>
+        <v>21013.119999999984</v>
       </c>
       <c r="H100" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I100" s="9">
+        <f t="shared" si="10"/>
+        <v>3735.48</v>
+      </c>
+      <c r="J100" s="9">
         <f t="shared" si="9"/>
-        <v>3735.48</v>
-      </c>
-      <c r="J100" s="9">
-        <f t="shared" si="8"/>
         <v>23696.360000000015</v>
       </c>
     </row>
@@ -4340,23 +4340,23 @@
         <v>350000</v>
       </c>
       <c r="F101" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45889</v>
       </c>
       <c r="G101" s="9">
-        <f t="shared" si="6"/>
-        <v>20945.469999999987</v>
+        <f t="shared" si="7"/>
+        <v>20945.449999999983</v>
       </c>
       <c r="H101" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I101" s="9">
+        <f t="shared" si="10"/>
+        <v>3727.67</v>
+      </c>
+      <c r="J101" s="9">
         <f t="shared" si="9"/>
-        <v>3727.67</v>
-      </c>
-      <c r="J101" s="9">
-        <f t="shared" si="8"/>
         <v>23873.870000000014</v>
       </c>
     </row>
@@ -4377,23 +4377,23 @@
         <v>347500</v>
       </c>
       <c r="F102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45920</v>
       </c>
       <c r="G102" s="9">
-        <f t="shared" si="6"/>
-        <v>20885.619999999988</v>
+        <f t="shared" si="7"/>
+        <v>20885.599999999984</v>
       </c>
       <c r="H102" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I102" s="9">
+        <f t="shared" si="10"/>
+        <v>3719.85</v>
+      </c>
+      <c r="J102" s="9">
         <f t="shared" si="9"/>
-        <v>3719.85</v>
-      </c>
-      <c r="J102" s="9">
-        <f t="shared" si="8"/>
         <v>24051.010000000013</v>
       </c>
     </row>
@@ -4414,23 +4414,23 @@
         <v>345000</v>
       </c>
       <c r="F103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45950</v>
       </c>
       <c r="G103" s="9">
-        <f t="shared" si="6"/>
-        <v>20833.599999999988</v>
+        <f t="shared" si="7"/>
+        <v>20833.579999999984</v>
       </c>
       <c r="H103" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I103" s="9">
+        <f t="shared" si="10"/>
+        <v>3712.02</v>
+      </c>
+      <c r="J103" s="9">
         <f t="shared" si="9"/>
-        <v>3712.02</v>
-      </c>
-      <c r="J103" s="9">
-        <f t="shared" si="8"/>
         <v>24227.770000000011</v>
       </c>
     </row>
@@ -4451,23 +4451,23 @@
         <v>342500</v>
       </c>
       <c r="F104" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45981</v>
       </c>
       <c r="G104" s="9">
-        <f t="shared" si="6"/>
-        <v>20789.399999999987</v>
+        <f t="shared" si="7"/>
+        <v>20789.379999999983</v>
       </c>
       <c r="H104" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I104" s="9">
+        <f t="shared" si="10"/>
+        <v>3704.2</v>
+      </c>
+      <c r="J104" s="9">
         <f t="shared" si="9"/>
-        <v>3704.2</v>
-      </c>
-      <c r="J104" s="9">
-        <f t="shared" si="8"/>
         <v>24404.160000000011</v>
       </c>
     </row>
@@ -4488,23 +4488,23 @@
         <v>340000</v>
       </c>
       <c r="F105" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46011</v>
       </c>
       <c r="G105" s="9">
-        <f t="shared" si="6"/>
-        <v>20753.019999999986</v>
+        <f t="shared" si="7"/>
+        <v>20752.999999999982</v>
       </c>
       <c r="H105" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I105" s="9">
+        <f t="shared" si="10"/>
+        <v>3696.38</v>
+      </c>
+      <c r="J105" s="9">
         <f t="shared" si="9"/>
-        <v>3696.38</v>
-      </c>
-      <c r="J105" s="9">
-        <f t="shared" si="8"/>
         <v>24580.180000000011</v>
       </c>
     </row>
@@ -4525,23 +4525,23 @@
         <v>337500</v>
       </c>
       <c r="F106" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46042</v>
       </c>
       <c r="G106" s="9">
-        <f t="shared" si="6"/>
-        <v>20724.449999999986</v>
+        <f t="shared" si="7"/>
+        <v>20724.429999999982</v>
       </c>
       <c r="H106" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I106" s="9">
+        <f t="shared" si="10"/>
+        <v>3688.57</v>
+      </c>
+      <c r="J106" s="9">
         <f t="shared" si="9"/>
-        <v>3688.57</v>
-      </c>
-      <c r="J106" s="9">
-        <f t="shared" si="8"/>
         <v>24755.830000000009</v>
       </c>
     </row>
@@ -4562,23 +4562,23 @@
         <v>335000</v>
       </c>
       <c r="F107" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46073</v>
       </c>
       <c r="G107" s="9">
-        <f t="shared" si="6"/>
-        <v>20703.709999999985</v>
+        <f t="shared" si="7"/>
+        <v>20703.689999999981</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I107" s="9">
+        <f t="shared" si="10"/>
+        <v>3680.74</v>
+      </c>
+      <c r="J107" s="9">
         <f t="shared" si="9"/>
-        <v>3680.74</v>
-      </c>
-      <c r="J107" s="9">
-        <f t="shared" si="8"/>
         <v>24931.100000000006</v>
       </c>
     </row>
@@ -4599,23 +4599,23 @@
         <v>332500</v>
       </c>
       <c r="F108" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46101</v>
       </c>
       <c r="G108" s="9">
-        <f t="shared" si="6"/>
-        <v>20690.789999999986</v>
+        <f t="shared" si="7"/>
+        <v>20690.769999999982</v>
       </c>
       <c r="H108" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I108" s="9">
+        <f t="shared" si="10"/>
+        <v>3672.92</v>
+      </c>
+      <c r="J108" s="9">
         <f t="shared" si="9"/>
-        <v>3672.92</v>
-      </c>
-      <c r="J108" s="9">
-        <f t="shared" si="8"/>
         <v>25106.000000000004</v>
       </c>
     </row>
@@ -4636,23 +4636,23 @@
         <v>330000</v>
       </c>
       <c r="F109" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46132</v>
       </c>
       <c r="G109" s="9">
-        <f t="shared" si="6"/>
-        <v>20685.689999999988</v>
+        <f t="shared" si="7"/>
+        <v>20685.669999999984</v>
       </c>
       <c r="H109" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I109" s="9">
+        <f t="shared" si="10"/>
+        <v>3665.1</v>
+      </c>
+      <c r="J109" s="9">
         <f t="shared" si="9"/>
-        <v>3665.1</v>
-      </c>
-      <c r="J109" s="9">
-        <f t="shared" si="8"/>
         <v>25280.530000000002</v>
       </c>
     </row>
@@ -4673,23 +4673,23 @@
         <v>327500</v>
       </c>
       <c r="F110" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46162</v>
       </c>
       <c r="G110" s="9">
-        <f t="shared" si="6"/>
-        <v>20688.399999999987</v>
+        <f t="shared" si="7"/>
+        <v>20688.379999999983</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I110" s="9">
+        <f t="shared" si="10"/>
+        <v>3657.29</v>
+      </c>
+      <c r="J110" s="9">
         <f t="shared" si="9"/>
-        <v>3657.29</v>
-      </c>
-      <c r="J110" s="9">
-        <f t="shared" si="8"/>
         <v>25454.690000000002</v>
       </c>
     </row>
@@ -4710,23 +4710,23 @@
         <v>325000</v>
       </c>
       <c r="F111" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46193</v>
       </c>
       <c r="G111" s="9">
-        <f t="shared" si="6"/>
-        <v>20698.939999999988</v>
+        <f t="shared" si="7"/>
+        <v>20698.919999999984</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I111" s="9">
+        <f t="shared" si="10"/>
+        <v>3649.46</v>
+      </c>
+      <c r="J111" s="9">
         <f t="shared" si="9"/>
-        <v>3649.46</v>
-      </c>
-      <c r="J111" s="9">
-        <f t="shared" si="8"/>
         <v>25628.47</v>
       </c>
     </row>
@@ -4747,23 +4747,23 @@
         <v>322500</v>
       </c>
       <c r="F112" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46223</v>
       </c>
       <c r="G112" s="9">
-        <f t="shared" si="6"/>
-        <v>20717.299999999988</v>
+        <f t="shared" si="7"/>
+        <v>20717.279999999984</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I112" s="9">
+        <f t="shared" si="10"/>
+        <v>3641.64</v>
+      </c>
+      <c r="J112" s="9">
         <f t="shared" si="9"/>
-        <v>3641.64</v>
-      </c>
-      <c r="J112" s="9">
-        <f t="shared" si="8"/>
         <v>25801.88</v>
       </c>
     </row>
@@ -4784,23 +4784,23 @@
         <v>320000</v>
       </c>
       <c r="F113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46254</v>
       </c>
       <c r="G113" s="9">
-        <f t="shared" si="6"/>
-        <v>20743.479999999989</v>
+        <f t="shared" si="7"/>
+        <v>20743.459999999985</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I113" s="9">
+        <f t="shared" si="10"/>
+        <v>3633.82</v>
+      </c>
+      <c r="J113" s="9">
         <f t="shared" si="9"/>
-        <v>3633.82</v>
-      </c>
-      <c r="J113" s="9">
-        <f t="shared" si="8"/>
         <v>25974.920000000002</v>
       </c>
     </row>
@@ -4821,23 +4821,23 @@
         <v>317500</v>
       </c>
       <c r="F114" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46285</v>
       </c>
       <c r="G114" s="9">
-        <f t="shared" si="6"/>
-        <v>20777.479999999989</v>
+        <f t="shared" si="7"/>
+        <v>20777.459999999985</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I114" s="9">
+        <f t="shared" si="10"/>
+        <v>3626</v>
+      </c>
+      <c r="J114" s="9">
         <f t="shared" si="9"/>
-        <v>3626</v>
-      </c>
-      <c r="J114" s="9">
-        <f t="shared" si="8"/>
         <v>26147.590000000004</v>
       </c>
     </row>
@@ -4858,23 +4858,23 @@
         <v>315000</v>
       </c>
       <c r="F115" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46315</v>
       </c>
       <c r="G115" s="9">
-        <f t="shared" si="6"/>
-        <v>20819.299999999988</v>
+        <f t="shared" si="7"/>
+        <v>20819.279999999984</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I115" s="9">
+        <f t="shared" si="10"/>
+        <v>3618.18</v>
+      </c>
+      <c r="J115" s="9">
         <f t="shared" si="9"/>
-        <v>3618.18</v>
-      </c>
-      <c r="J115" s="9">
-        <f t="shared" si="8"/>
         <v>26319.880000000005</v>
       </c>
     </row>
@@ -4895,23 +4895,23 @@
         <v>312500</v>
       </c>
       <c r="F116" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46346</v>
       </c>
       <c r="G116" s="9">
-        <f t="shared" si="6"/>
-        <v>20868.939999999988</v>
+        <f t="shared" si="7"/>
+        <v>20868.919999999984</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I116" s="9">
+        <f t="shared" si="10"/>
+        <v>3610.36</v>
+      </c>
+      <c r="J116" s="9">
         <f t="shared" si="9"/>
-        <v>3610.36</v>
-      </c>
-      <c r="J116" s="9">
-        <f t="shared" si="8"/>
         <v>26491.800000000007</v>
       </c>
     </row>
@@ -4932,23 +4932,23 @@
         <v>310000</v>
       </c>
       <c r="F117" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46376</v>
       </c>
       <c r="G117" s="9">
-        <f t="shared" si="6"/>
-        <v>20926.399999999987</v>
+        <f t="shared" si="7"/>
+        <v>20926.379999999983</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I117" s="9">
+        <f t="shared" si="10"/>
+        <v>3602.54</v>
+      </c>
+      <c r="J117" s="9">
         <f t="shared" si="9"/>
-        <v>3602.54</v>
-      </c>
-      <c r="J117" s="9">
-        <f t="shared" si="8"/>
         <v>26663.350000000006</v>
       </c>
     </row>
@@ -4969,23 +4969,23 @@
         <v>307500</v>
       </c>
       <c r="F118" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46407</v>
       </c>
       <c r="G118" s="9">
-        <f t="shared" si="6"/>
-        <v>20991.679999999986</v>
+        <f t="shared" si="7"/>
+        <v>20991.659999999982</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I118" s="9">
+        <f t="shared" si="10"/>
+        <v>3594.72</v>
+      </c>
+      <c r="J118" s="9">
         <f t="shared" si="9"/>
-        <v>3594.72</v>
-      </c>
-      <c r="J118" s="9">
-        <f t="shared" si="8"/>
         <v>26834.530000000006</v>
       </c>
     </row>
@@ -5006,23 +5006,23 @@
         <v>305000</v>
       </c>
       <c r="F119" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46438</v>
       </c>
       <c r="G119" s="9">
-        <f t="shared" si="6"/>
-        <v>21064.789999999986</v>
+        <f t="shared" si="7"/>
+        <v>21064.769999999982</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I119" s="9">
+        <f t="shared" si="10"/>
+        <v>3586.89</v>
+      </c>
+      <c r="J119" s="9">
         <f t="shared" si="9"/>
-        <v>3586.89</v>
-      </c>
-      <c r="J119" s="9">
-        <f t="shared" si="8"/>
         <v>27005.330000000005</v>
       </c>
     </row>
@@ -5043,23 +5043,23 @@
         <v>302500</v>
       </c>
       <c r="F120" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46466</v>
       </c>
       <c r="G120" s="9">
-        <f t="shared" si="6"/>
-        <v>21145.709999999985</v>
+        <f t="shared" si="7"/>
+        <v>21145.689999999981</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I120" s="9">
+        <f t="shared" si="10"/>
+        <v>3579.08</v>
+      </c>
+      <c r="J120" s="9">
         <f t="shared" si="9"/>
-        <v>3579.08</v>
-      </c>
-      <c r="J120" s="9">
-        <f t="shared" si="8"/>
         <v>27175.760000000002</v>
       </c>
     </row>
@@ -5080,23 +5080,23 @@
         <v>300000</v>
       </c>
       <c r="F121" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46497</v>
       </c>
       <c r="G121" s="9">
-        <f t="shared" si="6"/>
-        <v>21234.449999999983</v>
+        <f t="shared" si="7"/>
+        <v>21234.429999999978</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I121" s="9">
+        <f t="shared" si="10"/>
+        <v>3571.26</v>
+      </c>
+      <c r="J121" s="9">
         <f t="shared" si="9"/>
-        <v>3571.26</v>
-      </c>
-      <c r="J121" s="9">
-        <f t="shared" si="8"/>
         <v>27345.820000000003</v>
       </c>
     </row>
@@ -5117,23 +5117,23 @@
         <v>297500</v>
       </c>
       <c r="F122" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46527</v>
       </c>
       <c r="G122" s="9">
-        <f t="shared" si="6"/>
-        <v>21331.009999999984</v>
+        <f t="shared" si="7"/>
+        <v>21330.98999999998</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I122" s="9">
+        <f t="shared" si="10"/>
+        <v>3563.44</v>
+      </c>
+      <c r="J122" s="9">
         <f t="shared" si="9"/>
-        <v>3563.44</v>
-      </c>
-      <c r="J122" s="9">
-        <f t="shared" si="8"/>
         <v>27515.510000000002</v>
       </c>
     </row>
@@ -5154,23 +5154,23 @@
         <v>295000</v>
       </c>
       <c r="F123" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46558</v>
       </c>
       <c r="G123" s="9">
-        <f t="shared" si="6"/>
-        <v>21435.389999999985</v>
+        <f t="shared" si="7"/>
+        <v>21435.369999999981</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I123" s="9">
+        <f t="shared" si="10"/>
+        <v>3555.62</v>
+      </c>
+      <c r="J123" s="9">
         <f t="shared" si="9"/>
-        <v>3555.62</v>
-      </c>
-      <c r="J123" s="9">
-        <f t="shared" si="8"/>
         <v>27684.83</v>
       </c>
     </row>
@@ -5191,23 +5191,23 @@
         <v>292500</v>
       </c>
       <c r="F124" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46588</v>
       </c>
       <c r="G124" s="9">
-        <f t="shared" si="6"/>
-        <v>21547.599999999984</v>
+        <f t="shared" si="7"/>
+        <v>21547.57999999998</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I124" s="9">
+        <f t="shared" si="10"/>
+        <v>3547.79</v>
+      </c>
+      <c r="J124" s="9">
         <f t="shared" si="9"/>
-        <v>3547.79</v>
-      </c>
-      <c r="J124" s="9">
-        <f t="shared" si="8"/>
         <v>27853.770000000004</v>
       </c>
     </row>
@@ -5228,23 +5228,23 @@
         <v>290000</v>
       </c>
       <c r="F125" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46619</v>
       </c>
       <c r="G125" s="9">
-        <f t="shared" si="6"/>
-        <v>21667.619999999984</v>
+        <f t="shared" si="7"/>
+        <v>21667.59999999998</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I125" s="9">
+        <f t="shared" si="10"/>
+        <v>3539.98</v>
+      </c>
+      <c r="J125" s="9">
         <f t="shared" si="9"/>
-        <v>3539.98</v>
-      </c>
-      <c r="J125" s="9">
-        <f t="shared" si="8"/>
         <v>28022.340000000004</v>
       </c>
     </row>
@@ -5265,23 +5265,23 @@
         <v>287500</v>
       </c>
       <c r="F126" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46650</v>
       </c>
       <c r="G126" s="9">
-        <f t="shared" si="6"/>
-        <v>21795.459999999985</v>
+        <f t="shared" si="7"/>
+        <v>21795.439999999981</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I126" s="9">
+        <f t="shared" si="10"/>
+        <v>3532.16</v>
+      </c>
+      <c r="J126" s="9">
         <f t="shared" si="9"/>
-        <v>3532.16</v>
-      </c>
-      <c r="J126" s="9">
-        <f t="shared" si="8"/>
         <v>28190.540000000005</v>
       </c>
     </row>
@@ -5302,23 +5302,23 @@
         <v>285000</v>
       </c>
       <c r="F127" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46680</v>
       </c>
       <c r="G127" s="9">
-        <f t="shared" si="6"/>
-        <v>21931.119999999984</v>
+        <f t="shared" si="7"/>
+        <v>21931.09999999998</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I127" s="9">
+        <f t="shared" si="10"/>
+        <v>3524.34</v>
+      </c>
+      <c r="J127" s="9">
         <f t="shared" si="9"/>
-        <v>3524.34</v>
-      </c>
-      <c r="J127" s="9">
-        <f t="shared" si="8"/>
         <v>28358.370000000003</v>
       </c>
     </row>
@@ -5339,23 +5339,23 @@
         <v>282500</v>
       </c>
       <c r="F128" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46711</v>
       </c>
       <c r="G128" s="9">
-        <f t="shared" si="6"/>
-        <v>22074.609999999986</v>
+        <f t="shared" si="7"/>
+        <v>22074.589999999982</v>
       </c>
       <c r="H128" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I128" s="9">
+        <f t="shared" si="10"/>
+        <v>3516.51</v>
+      </c>
+      <c r="J128" s="9">
         <f t="shared" si="9"/>
-        <v>3516.51</v>
-      </c>
-      <c r="J128" s="9">
-        <f t="shared" si="8"/>
         <v>28525.820000000003</v>
       </c>
     </row>
@@ -5376,23 +5376,23 @@
         <v>280000</v>
       </c>
       <c r="F129" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46741</v>
       </c>
       <c r="G129" s="9">
-        <f t="shared" si="6"/>
-        <v>22225.919999999987</v>
+        <f t="shared" si="7"/>
+        <v>22225.899999999983</v>
       </c>
       <c r="H129" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I129" s="9">
+        <f t="shared" si="10"/>
+        <v>3508.69</v>
+      </c>
+      <c r="J129" s="9">
         <f t="shared" si="9"/>
-        <v>3508.69</v>
-      </c>
-      <c r="J129" s="9">
-        <f t="shared" si="8"/>
         <v>28692.9</v>
       </c>
     </row>
@@ -5413,23 +5413,23 @@
         <v>277500</v>
       </c>
       <c r="F130" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46772</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" si="6"/>
-        <v>22385.039999999986</v>
+        <f t="shared" si="7"/>
+        <v>22385.019999999982</v>
       </c>
       <c r="H130" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I130" s="9">
+        <f t="shared" si="10"/>
+        <v>3500.88</v>
+      </c>
+      <c r="J130" s="9">
         <f t="shared" si="9"/>
-        <v>3500.88</v>
-      </c>
-      <c r="J130" s="9">
-        <f t="shared" si="8"/>
         <v>28859.61</v>
       </c>
     </row>
@@ -5450,23 +5450,23 @@
         <v>275000</v>
       </c>
       <c r="F131" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46803</v>
       </c>
       <c r="G131" s="9">
-        <f t="shared" si="6"/>
-        <v>22551.979999999985</v>
+        <f t="shared" si="7"/>
+        <v>22551.959999999981</v>
       </c>
       <c r="H131" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="I131" s="9">
+        <f t="shared" si="10"/>
+        <v>3493.06</v>
+      </c>
+      <c r="J131" s="9">
         <f t="shared" si="9"/>
-        <v>3493.06</v>
-      </c>
-      <c r="J131" s="9">
-        <f t="shared" si="8"/>
         <v>29025.95</v>
       </c>
     </row>
@@ -5487,23 +5487,23 @@
         <v>272500</v>
       </c>
       <c r="F132" s="10">
-        <f t="shared" ref="F132:F195" si="10">DATE(YEAR(F131),MONTH(F131)+1,DAY(F131))</f>
+        <f t="shared" ref="F132:F195" si="11">DATE(YEAR(F131),MONTH(F131)+1,DAY(F131))</f>
         <v>46832</v>
       </c>
       <c r="G132" s="9">
-        <f t="shared" ref="G132:G195" si="11">G131+H131-I132</f>
-        <v>22726.749999999985</v>
+        <f t="shared" ref="G132:G195" si="12">G131+H131-I132</f>
+        <v>22726.729999999981</v>
       </c>
       <c r="H132" s="9">
-        <f t="shared" ref="H132:H195" si="12">H131</f>
+        <f t="shared" ref="H132:H195" si="13">H131</f>
         <v>3660</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3485.23</v>
       </c>
       <c r="J132" s="9">
-        <f t="shared" ref="J132:J195" si="13">J131+I132-B132</f>
+        <f t="shared" ref="J132:J195" si="14">J131+I132-B132</f>
         <v>29191.91</v>
       </c>
     </row>
@@ -5524,23 +5524,23 @@
         <v>270000</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46863</v>
       </c>
       <c r="G133" s="9">
-        <f t="shared" si="11"/>
-        <v>22909.339999999986</v>
+        <f t="shared" si="12"/>
+        <v>22909.319999999982</v>
       </c>
       <c r="H133" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" ref="I133:I196" si="14">IF(G132+H132&gt;ROUND(B133*1.05,2),ROUND(B133*1.05,2),G132+H132)</f>
+        <f t="shared" ref="I133:I196" si="15">IF(G132+H132&gt;ROUND(B133*1.05,2),ROUND(B133*1.05,2),G132+H132)</f>
         <v>3477.41</v>
       </c>
       <c r="J133" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29357.5</v>
       </c>
     </row>
@@ -5561,23 +5561,23 @@
         <v>267500</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46893</v>
       </c>
       <c r="G134" s="9">
-        <f t="shared" si="11"/>
-        <v>23099.739999999987</v>
+        <f t="shared" si="12"/>
+        <v>23099.719999999983</v>
       </c>
       <c r="H134" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I134" s="9">
+        <f t="shared" si="15"/>
+        <v>3469.6</v>
+      </c>
+      <c r="J134" s="9">
         <f t="shared" si="14"/>
-        <v>3469.6</v>
-      </c>
-      <c r="J134" s="9">
-        <f t="shared" si="13"/>
         <v>29522.719999999998</v>
       </c>
     </row>
@@ -5598,23 +5598,23 @@
         <v>265000</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46924</v>
       </c>
       <c r="G135" s="9">
-        <f t="shared" si="11"/>
-        <v>23297.959999999988</v>
+        <f t="shared" si="12"/>
+        <v>23297.939999999984</v>
       </c>
       <c r="H135" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I135" s="9">
+        <f t="shared" si="15"/>
+        <v>3461.78</v>
+      </c>
+      <c r="J135" s="9">
         <f t="shared" si="14"/>
-        <v>3461.78</v>
-      </c>
-      <c r="J135" s="9">
-        <f t="shared" si="13"/>
         <v>29687.57</v>
       </c>
     </row>
@@ -5635,23 +5635,23 @@
         <v>262500</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46954</v>
       </c>
       <c r="G136" s="9">
-        <f t="shared" si="11"/>
-        <v>23504.009999999987</v>
+        <f t="shared" si="12"/>
+        <v>23503.989999999983</v>
       </c>
       <c r="H136" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I136" s="9">
+        <f t="shared" si="15"/>
+        <v>3453.95</v>
+      </c>
+      <c r="J136" s="9">
         <f t="shared" si="14"/>
-        <v>3453.95</v>
-      </c>
-      <c r="J136" s="9">
-        <f t="shared" si="13"/>
         <v>29852.039999999997</v>
       </c>
     </row>
@@ -5672,23 +5672,23 @@
         <v>260000</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46985</v>
       </c>
       <c r="G137" s="9">
-        <f t="shared" si="11"/>
-        <v>23717.879999999986</v>
+        <f t="shared" si="12"/>
+        <v>23717.859999999982</v>
       </c>
       <c r="H137" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I137" s="9">
+        <f t="shared" si="15"/>
+        <v>3446.13</v>
+      </c>
+      <c r="J137" s="9">
         <f t="shared" si="14"/>
-        <v>3446.13</v>
-      </c>
-      <c r="J137" s="9">
-        <f t="shared" si="13"/>
         <v>30016.14</v>
       </c>
     </row>
@@ -5709,23 +5709,23 @@
         <v>257500</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47016</v>
       </c>
       <c r="G138" s="9">
-        <f t="shared" si="11"/>
-        <v>23939.569999999985</v>
+        <f t="shared" si="12"/>
+        <v>23939.549999999981</v>
       </c>
       <c r="H138" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I138" s="9">
+        <f t="shared" si="15"/>
+        <v>3438.31</v>
+      </c>
+      <c r="J138" s="9">
         <f t="shared" si="14"/>
-        <v>3438.31</v>
-      </c>
-      <c r="J138" s="9">
-        <f t="shared" si="13"/>
         <v>30179.869999999995</v>
       </c>
     </row>
@@ -5746,23 +5746,23 @@
         <v>255000</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47046</v>
       </c>
       <c r="G139" s="9">
-        <f t="shared" si="11"/>
-        <v>24169.069999999985</v>
+        <f t="shared" si="12"/>
+        <v>24169.049999999981</v>
       </c>
       <c r="H139" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I139" s="9">
+        <f t="shared" si="15"/>
+        <v>3430.5</v>
+      </c>
+      <c r="J139" s="9">
         <f t="shared" si="14"/>
-        <v>3430.5</v>
-      </c>
-      <c r="J139" s="9">
-        <f t="shared" si="13"/>
         <v>30343.229999999996</v>
       </c>
     </row>
@@ -5783,23 +5783,23 @@
         <v>252500</v>
       </c>
       <c r="F140" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47077</v>
       </c>
       <c r="G140" s="9">
-        <f t="shared" si="11"/>
-        <v>24406.399999999987</v>
+        <f t="shared" si="12"/>
+        <v>24406.379999999983</v>
       </c>
       <c r="H140" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I140" s="9">
+        <f t="shared" si="15"/>
+        <v>3422.67</v>
+      </c>
+      <c r="J140" s="9">
         <f t="shared" si="14"/>
-        <v>3422.67</v>
-      </c>
-      <c r="J140" s="9">
-        <f t="shared" si="13"/>
         <v>30506.209999999995</v>
       </c>
     </row>
@@ -5820,23 +5820,23 @@
         <v>250000</v>
       </c>
       <c r="F141" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47107</v>
       </c>
       <c r="G141" s="9">
-        <f t="shared" si="11"/>
-        <v>24651.549999999988</v>
+        <f t="shared" si="12"/>
+        <v>24651.529999999984</v>
       </c>
       <c r="H141" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I141" s="9">
+        <f t="shared" si="15"/>
+        <v>3414.85</v>
+      </c>
+      <c r="J141" s="9">
         <f t="shared" si="14"/>
-        <v>3414.85</v>
-      </c>
-      <c r="J141" s="9">
-        <f t="shared" si="13"/>
         <v>30668.82</v>
       </c>
     </row>
@@ -5857,23 +5857,23 @@
         <v>247500</v>
       </c>
       <c r="F142" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47138</v>
       </c>
       <c r="G142" s="9">
-        <f t="shared" si="11"/>
-        <v>24904.51999999999</v>
+        <f t="shared" si="12"/>
+        <v>24904.499999999985</v>
       </c>
       <c r="H142" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I142" s="9">
+        <f t="shared" si="15"/>
+        <v>3407.03</v>
+      </c>
+      <c r="J142" s="9">
         <f t="shared" si="14"/>
-        <v>3407.03</v>
-      </c>
-      <c r="J142" s="9">
-        <f t="shared" si="13"/>
         <v>30831.059999999998</v>
       </c>
     </row>
@@ -5894,23 +5894,23 @@
         <v>245000</v>
       </c>
       <c r="F143" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47169</v>
       </c>
       <c r="G143" s="9">
-        <f t="shared" si="11"/>
-        <v>25165.30999999999</v>
+        <f t="shared" si="12"/>
+        <v>25165.289999999986</v>
       </c>
       <c r="H143" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I143" s="9">
+        <f t="shared" si="15"/>
+        <v>3399.21</v>
+      </c>
+      <c r="J143" s="9">
         <f t="shared" si="14"/>
-        <v>3399.21</v>
-      </c>
-      <c r="J143" s="9">
-        <f t="shared" si="13"/>
         <v>30992.929999999997</v>
       </c>
     </row>
@@ -5931,23 +5931,23 @@
         <v>242500</v>
       </c>
       <c r="F144" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47197</v>
       </c>
       <c r="G144" s="9">
-        <f t="shared" si="11"/>
-        <v>25433.909999999989</v>
+        <f t="shared" si="12"/>
+        <v>25433.889999999985</v>
       </c>
       <c r="H144" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I144" s="9">
+        <f t="shared" si="15"/>
+        <v>3391.4</v>
+      </c>
+      <c r="J144" s="9">
         <f t="shared" si="14"/>
-        <v>3391.4</v>
-      </c>
-      <c r="J144" s="9">
-        <f t="shared" si="13"/>
         <v>31154.429999999993</v>
       </c>
     </row>
@@ -5968,23 +5968,23 @@
         <v>240000</v>
       </c>
       <c r="F145" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47228</v>
       </c>
       <c r="G145" s="9">
-        <f t="shared" si="11"/>
-        <v>25710.339999999989</v>
+        <f t="shared" si="12"/>
+        <v>25710.319999999985</v>
       </c>
       <c r="H145" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I145" s="9">
+        <f t="shared" si="15"/>
+        <v>3383.57</v>
+      </c>
+      <c r="J145" s="9">
         <f t="shared" si="14"/>
-        <v>3383.57</v>
-      </c>
-      <c r="J145" s="9">
-        <f t="shared" si="13"/>
         <v>31315.549999999992</v>
       </c>
     </row>
@@ -6005,23 +6005,23 @@
         <v>237500</v>
       </c>
       <c r="F146" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47258</v>
       </c>
       <c r="G146" s="9">
-        <f t="shared" si="11"/>
-        <v>25994.589999999989</v>
+        <f t="shared" si="12"/>
+        <v>25994.569999999985</v>
       </c>
       <c r="H146" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I146" s="9">
+        <f t="shared" si="15"/>
+        <v>3375.75</v>
+      </c>
+      <c r="J146" s="9">
         <f t="shared" si="14"/>
-        <v>3375.75</v>
-      </c>
-      <c r="J146" s="9">
-        <f t="shared" si="13"/>
         <v>31476.299999999988</v>
       </c>
     </row>
@@ -6042,23 +6042,23 @@
         <v>235000</v>
       </c>
       <c r="F147" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47289</v>
       </c>
       <c r="G147" s="9">
-        <f t="shared" si="11"/>
-        <v>26286.659999999989</v>
+        <f t="shared" si="12"/>
+        <v>26286.639999999985</v>
       </c>
       <c r="H147" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I147" s="9">
+        <f t="shared" si="15"/>
+        <v>3367.93</v>
+      </c>
+      <c r="J147" s="9">
         <f t="shared" si="14"/>
-        <v>3367.93</v>
-      </c>
-      <c r="J147" s="9">
-        <f t="shared" si="13"/>
         <v>31636.679999999989</v>
       </c>
     </row>
@@ -6079,23 +6079,23 @@
         <v>232500</v>
       </c>
       <c r="F148" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47319</v>
       </c>
       <c r="G148" s="9">
-        <f t="shared" si="11"/>
-        <v>26586.549999999988</v>
+        <f t="shared" si="12"/>
+        <v>26586.529999999984</v>
       </c>
       <c r="H148" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I148" s="9">
+        <f t="shared" si="15"/>
+        <v>3360.11</v>
+      </c>
+      <c r="J148" s="9">
         <f t="shared" si="14"/>
-        <v>3360.11</v>
-      </c>
-      <c r="J148" s="9">
-        <f t="shared" si="13"/>
         <v>31796.689999999988</v>
       </c>
     </row>
@@ -6116,23 +6116,23 @@
         <v>230000</v>
       </c>
       <c r="F149" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47350</v>
       </c>
       <c r="G149" s="9">
-        <f t="shared" si="11"/>
-        <v>26894.259999999987</v>
+        <f t="shared" si="12"/>
+        <v>26894.239999999983</v>
       </c>
       <c r="H149" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I149" s="9">
+        <f t="shared" si="15"/>
+        <v>3352.29</v>
+      </c>
+      <c r="J149" s="9">
         <f t="shared" si="14"/>
-        <v>3352.29</v>
-      </c>
-      <c r="J149" s="9">
-        <f t="shared" si="13"/>
         <v>31956.319999999989</v>
       </c>
     </row>
@@ -6153,23 +6153,23 @@
         <v>227500</v>
       </c>
       <c r="F150" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47381</v>
       </c>
       <c r="G150" s="9">
-        <f t="shared" si="11"/>
-        <v>27209.789999999986</v>
+        <f t="shared" si="12"/>
+        <v>27209.769999999982</v>
       </c>
       <c r="H150" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I150" s="9">
+        <f t="shared" si="15"/>
+        <v>3344.47</v>
+      </c>
+      <c r="J150" s="9">
         <f t="shared" si="14"/>
-        <v>3344.47</v>
-      </c>
-      <c r="J150" s="9">
-        <f t="shared" si="13"/>
         <v>32115.579999999987</v>
       </c>
     </row>
@@ -6190,23 +6190,23 @@
         <v>225000</v>
       </c>
       <c r="F151" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47411</v>
       </c>
       <c r="G151" s="9">
-        <f t="shared" si="11"/>
-        <v>27533.139999999985</v>
+        <f t="shared" si="12"/>
+        <v>27533.119999999981</v>
       </c>
       <c r="H151" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I151" s="9">
+        <f t="shared" si="15"/>
+        <v>3336.65</v>
+      </c>
+      <c r="J151" s="9">
         <f t="shared" si="14"/>
-        <v>3336.65</v>
-      </c>
-      <c r="J151" s="9">
-        <f t="shared" si="13"/>
         <v>32274.469999999987</v>
       </c>
     </row>
@@ -6227,23 +6227,23 @@
         <v>222500</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47442</v>
       </c>
       <c r="G152" s="9">
-        <f t="shared" si="11"/>
-        <v>27864.309999999983</v>
+        <f t="shared" si="12"/>
+        <v>27864.289999999979</v>
       </c>
       <c r="H152" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I152" s="9">
+        <f t="shared" si="15"/>
+        <v>3328.83</v>
+      </c>
+      <c r="J152" s="9">
         <f t="shared" si="14"/>
-        <v>3328.83</v>
-      </c>
-      <c r="J152" s="9">
-        <f t="shared" si="13"/>
         <v>32432.989999999987</v>
       </c>
     </row>
@@ -6264,23 +6264,23 @@
         <v>220000</v>
       </c>
       <c r="F153" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47472</v>
       </c>
       <c r="G153" s="9">
-        <f t="shared" si="11"/>
-        <v>28203.309999999983</v>
+        <f t="shared" si="12"/>
+        <v>28203.289999999979</v>
       </c>
       <c r="H153" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I153" s="9">
+        <f t="shared" si="15"/>
+        <v>3321</v>
+      </c>
+      <c r="J153" s="9">
         <f t="shared" si="14"/>
-        <v>3321</v>
-      </c>
-      <c r="J153" s="9">
-        <f t="shared" si="13"/>
         <v>32591.12999999999</v>
       </c>
     </row>
@@ -6301,23 +6301,23 @@
         <v>217500</v>
       </c>
       <c r="F154" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47503</v>
       </c>
       <c r="G154" s="9">
-        <f t="shared" si="11"/>
-        <v>28550.119999999984</v>
+        <f t="shared" si="12"/>
+        <v>28550.09999999998</v>
       </c>
       <c r="H154" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I154" s="9">
+        <f t="shared" si="15"/>
+        <v>3313.19</v>
+      </c>
+      <c r="J154" s="9">
         <f t="shared" si="14"/>
-        <v>3313.19</v>
-      </c>
-      <c r="J154" s="9">
-        <f t="shared" si="13"/>
         <v>32748.899999999994</v>
       </c>
     </row>
@@ -6338,23 +6338,23 @@
         <v>215000</v>
       </c>
       <c r="F155" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47534</v>
       </c>
       <c r="G155" s="9">
-        <f t="shared" si="11"/>
-        <v>28904.749999999985</v>
+        <f t="shared" si="12"/>
+        <v>28904.729999999981</v>
       </c>
       <c r="H155" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I155" s="9">
+        <f t="shared" si="15"/>
+        <v>3305.37</v>
+      </c>
+      <c r="J155" s="9">
         <f t="shared" si="14"/>
-        <v>3305.37</v>
-      </c>
-      <c r="J155" s="9">
-        <f t="shared" si="13"/>
         <v>32906.299999999996</v>
       </c>
     </row>
@@ -6375,23 +6375,23 @@
         <v>212500</v>
       </c>
       <c r="F156" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47562</v>
       </c>
       <c r="G156" s="9">
-        <f t="shared" si="11"/>
-        <v>29267.199999999986</v>
+        <f t="shared" si="12"/>
+        <v>29267.179999999982</v>
       </c>
       <c r="H156" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I156" s="9">
+        <f t="shared" si="15"/>
+        <v>3297.55</v>
+      </c>
+      <c r="J156" s="9">
         <f t="shared" si="14"/>
-        <v>3297.55</v>
-      </c>
-      <c r="J156" s="9">
-        <f t="shared" si="13"/>
         <v>33063.33</v>
       </c>
     </row>
@@ -6412,23 +6412,23 @@
         <v>210000</v>
       </c>
       <c r="F157" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47593</v>
       </c>
       <c r="G157" s="9">
-        <f t="shared" si="11"/>
-        <v>29637.479999999981</v>
+        <f t="shared" si="12"/>
+        <v>29637.459999999977</v>
       </c>
       <c r="H157" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I157" s="9">
+        <f t="shared" si="15"/>
+        <v>3289.72</v>
+      </c>
+      <c r="J157" s="9">
         <f t="shared" si="14"/>
-        <v>3289.72</v>
-      </c>
-      <c r="J157" s="9">
-        <f t="shared" si="13"/>
         <v>33219.980000000003</v>
       </c>
     </row>
@@ -6449,23 +6449,23 @@
         <v>207500</v>
       </c>
       <c r="F158" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47623</v>
       </c>
       <c r="G158" s="9">
-        <f t="shared" si="11"/>
-        <v>30015.569999999982</v>
+        <f t="shared" si="12"/>
+        <v>30015.549999999977</v>
       </c>
       <c r="H158" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I158" s="9">
+        <f t="shared" si="15"/>
+        <v>3281.91</v>
+      </c>
+      <c r="J158" s="9">
         <f t="shared" si="14"/>
-        <v>3281.91</v>
-      </c>
-      <c r="J158" s="9">
-        <f t="shared" si="13"/>
         <v>33376.26</v>
       </c>
     </row>
@@ -6486,23 +6486,23 @@
         <v>205000</v>
       </c>
       <c r="F159" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47654</v>
       </c>
       <c r="G159" s="9">
-        <f t="shared" si="11"/>
-        <v>30401.479999999978</v>
+        <f t="shared" si="12"/>
+        <v>30401.459999999974</v>
       </c>
       <c r="H159" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I159" s="9">
+        <f t="shared" si="15"/>
+        <v>3274.09</v>
+      </c>
+      <c r="J159" s="9">
         <f t="shared" si="14"/>
-        <v>3274.09</v>
-      </c>
-      <c r="J159" s="9">
-        <f t="shared" si="13"/>
         <v>33532.170000000006</v>
       </c>
     </row>
@@ -6523,23 +6523,23 @@
         <v>202500</v>
       </c>
       <c r="F160" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47684</v>
       </c>
       <c r="G160" s="9">
-        <f t="shared" si="11"/>
-        <v>30795.209999999981</v>
+        <f t="shared" si="12"/>
+        <v>30795.189999999977</v>
       </c>
       <c r="H160" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I160" s="9">
+        <f t="shared" si="15"/>
+        <v>3266.27</v>
+      </c>
+      <c r="J160" s="9">
         <f t="shared" si="14"/>
-        <v>3266.27</v>
-      </c>
-      <c r="J160" s="9">
-        <f t="shared" si="13"/>
         <v>33687.71</v>
       </c>
     </row>
@@ -6560,23 +6560,23 @@
         <v>200000</v>
       </c>
       <c r="F161" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47715</v>
       </c>
       <c r="G161" s="9">
-        <f t="shared" si="11"/>
-        <v>31196.769999999979</v>
+        <f t="shared" si="12"/>
+        <v>31196.749999999975</v>
       </c>
       <c r="H161" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I161" s="9">
+        <f t="shared" si="15"/>
+        <v>3258.44</v>
+      </c>
+      <c r="J161" s="9">
         <f t="shared" si="14"/>
-        <v>3258.44</v>
-      </c>
-      <c r="J161" s="9">
-        <f t="shared" si="13"/>
         <v>33842.870000000003</v>
       </c>
     </row>
@@ -6597,23 +6597,23 @@
         <v>197500</v>
       </c>
       <c r="F162" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47746</v>
       </c>
       <c r="G162" s="9">
-        <f t="shared" si="11"/>
-        <v>31606.149999999976</v>
+        <f t="shared" si="12"/>
+        <v>31606.129999999972</v>
       </c>
       <c r="H162" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I162" s="9">
+        <f t="shared" si="15"/>
+        <v>3250.62</v>
+      </c>
+      <c r="J162" s="9">
         <f t="shared" si="14"/>
-        <v>3250.62</v>
-      </c>
-      <c r="J162" s="9">
-        <f t="shared" si="13"/>
         <v>33997.660000000003</v>
       </c>
     </row>
@@ -6634,23 +6634,23 @@
         <v>195000</v>
       </c>
       <c r="F163" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47776</v>
       </c>
       <c r="G163" s="9">
-        <f t="shared" si="11"/>
-        <v>32023.339999999978</v>
+        <f t="shared" si="12"/>
+        <v>32023.319999999974</v>
       </c>
       <c r="H163" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I163" s="9">
+        <f t="shared" si="15"/>
+        <v>3242.81</v>
+      </c>
+      <c r="J163" s="9">
         <f t="shared" si="14"/>
-        <v>3242.81</v>
-      </c>
-      <c r="J163" s="9">
-        <f t="shared" si="13"/>
         <v>34152.080000000002</v>
       </c>
     </row>
@@ -6671,23 +6671,23 @@
         <v>192500</v>
       </c>
       <c r="F164" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47807</v>
       </c>
       <c r="G164" s="9">
-        <f t="shared" si="11"/>
-        <v>32448.349999999984</v>
+        <f t="shared" si="12"/>
+        <v>32448.32999999998</v>
       </c>
       <c r="H164" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I164" s="9">
+        <f t="shared" si="15"/>
+        <v>3234.99</v>
+      </c>
+      <c r="J164" s="9">
         <f t="shared" si="14"/>
-        <v>3234.99</v>
-      </c>
-      <c r="J164" s="9">
-        <f t="shared" si="13"/>
         <v>34306.129999999997</v>
       </c>
     </row>
@@ -6708,23 +6708,23 @@
         <v>190000</v>
       </c>
       <c r="F165" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47837</v>
       </c>
       <c r="G165" s="9">
-        <f t="shared" si="11"/>
-        <v>32881.189999999988</v>
+        <f t="shared" si="12"/>
+        <v>32881.169999999984</v>
       </c>
       <c r="H165" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I165" s="9">
+        <f t="shared" si="15"/>
+        <v>3227.16</v>
+      </c>
+      <c r="J165" s="9">
         <f t="shared" si="14"/>
-        <v>3227.16</v>
-      </c>
-      <c r="J165" s="9">
-        <f t="shared" si="13"/>
         <v>34459.799999999996</v>
       </c>
     </row>
@@ -6745,23 +6745,23 @@
         <v>187500</v>
       </c>
       <c r="F166" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47868</v>
       </c>
       <c r="G166" s="9">
-        <f t="shared" si="11"/>
-        <v>33321.849999999991</v>
+        <f t="shared" si="12"/>
+        <v>33321.829999999987</v>
       </c>
       <c r="H166" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I166" s="9">
+        <f t="shared" si="15"/>
+        <v>3219.34</v>
+      </c>
+      <c r="J166" s="9">
         <f t="shared" si="14"/>
-        <v>3219.34</v>
-      </c>
-      <c r="J166" s="9">
-        <f t="shared" si="13"/>
         <v>34613.1</v>
       </c>
     </row>
@@ -6782,23 +6782,23 @@
         <v>185000</v>
       </c>
       <c r="F167" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47899</v>
       </c>
       <c r="G167" s="9">
-        <f t="shared" si="11"/>
-        <v>33770.329999999994</v>
+        <f t="shared" si="12"/>
+        <v>33770.30999999999</v>
       </c>
       <c r="H167" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I167" s="9">
+        <f t="shared" si="15"/>
+        <v>3211.52</v>
+      </c>
+      <c r="J167" s="9">
         <f t="shared" si="14"/>
-        <v>3211.52</v>
-      </c>
-      <c r="J167" s="9">
-        <f t="shared" si="13"/>
         <v>34766.03</v>
       </c>
     </row>
@@ -6819,23 +6819,23 @@
         <v>182500</v>
       </c>
       <c r="F168" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47927</v>
       </c>
       <c r="G168" s="9">
-        <f t="shared" si="11"/>
-        <v>34226.619999999995</v>
+        <f t="shared" si="12"/>
+        <v>34226.599999999991</v>
       </c>
       <c r="H168" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I168" s="9">
+        <f t="shared" si="15"/>
+        <v>3203.71</v>
+      </c>
+      <c r="J168" s="9">
         <f t="shared" si="14"/>
-        <v>3203.71</v>
-      </c>
-      <c r="J168" s="9">
-        <f t="shared" si="13"/>
         <v>34918.589999999997</v>
       </c>
     </row>
@@ -6856,23 +6856,23 @@
         <v>180000</v>
       </c>
       <c r="F169" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47958</v>
       </c>
       <c r="G169" s="9">
-        <f t="shared" si="11"/>
-        <v>34690.729999999996</v>
+        <f t="shared" si="12"/>
+        <v>34690.709999999992</v>
       </c>
       <c r="H169" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I169" s="9">
+        <f t="shared" si="15"/>
+        <v>3195.89</v>
+      </c>
+      <c r="J169" s="9">
         <f t="shared" si="14"/>
-        <v>3195.89</v>
-      </c>
-      <c r="J169" s="9">
-        <f t="shared" si="13"/>
         <v>35070.78</v>
       </c>
     </row>
@@ -6893,23 +6893,23 @@
         <v>177500</v>
       </c>
       <c r="F170" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47988</v>
       </c>
       <c r="G170" s="9">
-        <f t="shared" si="11"/>
-        <v>35162.67</v>
+        <f t="shared" si="12"/>
+        <v>35162.649999999994</v>
       </c>
       <c r="H170" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I170" s="9">
+        <f t="shared" si="15"/>
+        <v>3188.06</v>
+      </c>
+      <c r="J170" s="9">
         <f t="shared" si="14"/>
-        <v>3188.06</v>
-      </c>
-      <c r="J170" s="9">
-        <f t="shared" si="13"/>
         <v>35222.589999999997</v>
       </c>
     </row>
@@ -6930,23 +6930,23 @@
         <v>175000</v>
       </c>
       <c r="F171" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48019</v>
       </c>
       <c r="G171" s="9">
-        <f t="shared" si="11"/>
-        <v>35642.43</v>
+        <f t="shared" si="12"/>
+        <v>35642.409999999996</v>
       </c>
       <c r="H171" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I171" s="9">
+        <f t="shared" si="15"/>
+        <v>3180.24</v>
+      </c>
+      <c r="J171" s="9">
         <f t="shared" si="14"/>
-        <v>3180.24</v>
-      </c>
-      <c r="J171" s="9">
-        <f t="shared" si="13"/>
         <v>35374.029999999992</v>
       </c>
     </row>
@@ -6967,23 +6967,23 @@
         <v>172500</v>
       </c>
       <c r="F172" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48049</v>
       </c>
       <c r="G172" s="9">
-        <f t="shared" si="11"/>
-        <v>36130.01</v>
+        <f t="shared" si="12"/>
+        <v>36129.99</v>
       </c>
       <c r="H172" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I172" s="9">
+        <f t="shared" si="15"/>
+        <v>3172.42</v>
+      </c>
+      <c r="J172" s="9">
         <f t="shared" si="14"/>
-        <v>3172.42</v>
-      </c>
-      <c r="J172" s="9">
-        <f t="shared" si="13"/>
         <v>35525.099999999991</v>
       </c>
     </row>
@@ -7004,23 +7004,23 @@
         <v>170000</v>
       </c>
       <c r="F173" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48080</v>
       </c>
       <c r="G173" s="9">
-        <f t="shared" si="11"/>
-        <v>36625.4</v>
+        <f t="shared" si="12"/>
+        <v>36625.379999999997</v>
       </c>
       <c r="H173" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I173" s="9">
+        <f t="shared" si="15"/>
+        <v>3164.61</v>
+      </c>
+      <c r="J173" s="9">
         <f t="shared" si="14"/>
-        <v>3164.61</v>
-      </c>
-      <c r="J173" s="9">
-        <f t="shared" si="13"/>
         <v>35675.799999999988</v>
       </c>
     </row>
@@ -7041,23 +7041,23 @@
         <v>167500</v>
       </c>
       <c r="F174" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48111</v>
       </c>
       <c r="G174" s="9">
-        <f t="shared" si="11"/>
-        <v>37128.620000000003</v>
+        <f t="shared" si="12"/>
+        <v>37128.6</v>
       </c>
       <c r="H174" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I174" s="9">
+        <f t="shared" si="15"/>
+        <v>3156.78</v>
+      </c>
+      <c r="J174" s="9">
         <f t="shared" si="14"/>
-        <v>3156.78</v>
-      </c>
-      <c r="J174" s="9">
-        <f t="shared" si="13"/>
         <v>35826.119999999988</v>
       </c>
     </row>
@@ -7078,23 +7078,23 @@
         <v>165000</v>
       </c>
       <c r="F175" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48141</v>
       </c>
       <c r="G175" s="9">
-        <f t="shared" si="11"/>
-        <v>37639.660000000003</v>
+        <f t="shared" si="12"/>
+        <v>37639.64</v>
       </c>
       <c r="H175" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I175" s="9">
+        <f t="shared" si="15"/>
+        <v>3148.96</v>
+      </c>
+      <c r="J175" s="9">
         <f t="shared" si="14"/>
-        <v>3148.96</v>
-      </c>
-      <c r="J175" s="9">
-        <f t="shared" si="13"/>
         <v>35976.069999999985</v>
       </c>
     </row>
@@ -7115,23 +7115,23 @@
         <v>162500</v>
       </c>
       <c r="F176" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48172</v>
       </c>
       <c r="G176" s="9">
-        <f t="shared" si="11"/>
-        <v>38158.520000000004</v>
+        <f t="shared" si="12"/>
+        <v>38158.5</v>
       </c>
       <c r="H176" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I176" s="9">
+        <f t="shared" si="15"/>
+        <v>3141.14</v>
+      </c>
+      <c r="J176" s="9">
         <f t="shared" si="14"/>
-        <v>3141.14</v>
-      </c>
-      <c r="J176" s="9">
-        <f t="shared" si="13"/>
         <v>36125.649999999987</v>
       </c>
     </row>
@@ -7152,23 +7152,23 @@
         <v>160000</v>
       </c>
       <c r="F177" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48202</v>
       </c>
       <c r="G177" s="9">
-        <f t="shared" si="11"/>
-        <v>38685.200000000004</v>
+        <f t="shared" si="12"/>
+        <v>38685.18</v>
       </c>
       <c r="H177" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I177" s="9">
+        <f t="shared" si="15"/>
+        <v>3133.32</v>
+      </c>
+      <c r="J177" s="9">
         <f t="shared" si="14"/>
-        <v>3133.32</v>
-      </c>
-      <c r="J177" s="9">
-        <f t="shared" si="13"/>
         <v>36274.859999999986</v>
       </c>
     </row>
@@ -7189,23 +7189,23 @@
         <v>157500</v>
       </c>
       <c r="F178" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48233</v>
       </c>
       <c r="G178" s="9">
-        <f t="shared" si="11"/>
-        <v>39219.700000000004</v>
+        <f t="shared" si="12"/>
+        <v>39219.68</v>
       </c>
       <c r="H178" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I178" s="9">
+        <f t="shared" si="15"/>
+        <v>3125.5</v>
+      </c>
+      <c r="J178" s="9">
         <f t="shared" si="14"/>
-        <v>3125.5</v>
-      </c>
-      <c r="J178" s="9">
-        <f t="shared" si="13"/>
         <v>36423.689999999988</v>
       </c>
     </row>
@@ -7226,23 +7226,23 @@
         <v>155000</v>
       </c>
       <c r="F179" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48264</v>
       </c>
       <c r="G179" s="9">
-        <f t="shared" si="11"/>
-        <v>39762.020000000004</v>
+        <f t="shared" si="12"/>
+        <v>39762</v>
       </c>
       <c r="H179" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I179" s="9">
+        <f t="shared" si="15"/>
+        <v>3117.68</v>
+      </c>
+      <c r="J179" s="9">
         <f t="shared" si="14"/>
-        <v>3117.68</v>
-      </c>
-      <c r="J179" s="9">
-        <f t="shared" si="13"/>
         <v>36572.149999999987</v>
       </c>
     </row>
@@ -7263,23 +7263,23 @@
         <v>152500</v>
       </c>
       <c r="F180" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48293</v>
       </c>
       <c r="G180" s="9">
-        <f t="shared" si="11"/>
-        <v>40312.160000000003</v>
+        <f t="shared" si="12"/>
+        <v>40312.14</v>
       </c>
       <c r="H180" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I180" s="9">
+        <f t="shared" si="15"/>
+        <v>3109.86</v>
+      </c>
+      <c r="J180" s="9">
         <f t="shared" si="14"/>
-        <v>3109.86</v>
-      </c>
-      <c r="J180" s="9">
-        <f t="shared" si="13"/>
         <v>36720.239999999991</v>
       </c>
     </row>
@@ -7300,23 +7300,23 @@
         <v>150000</v>
       </c>
       <c r="F181" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48324</v>
       </c>
       <c r="G181" s="9">
-        <f t="shared" si="11"/>
-        <v>40870.120000000003</v>
+        <f t="shared" si="12"/>
+        <v>40870.1</v>
       </c>
       <c r="H181" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I181" s="9">
+        <f t="shared" si="15"/>
+        <v>3102.04</v>
+      </c>
+      <c r="J181" s="9">
         <f t="shared" si="14"/>
-        <v>3102.04</v>
-      </c>
-      <c r="J181" s="9">
-        <f t="shared" si="13"/>
         <v>36867.959999999992</v>
       </c>
     </row>
@@ -7337,23 +7337,23 @@
         <v>147500</v>
       </c>
       <c r="F182" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48354</v>
       </c>
       <c r="G182" s="9">
-        <f t="shared" si="11"/>
-        <v>41435.9</v>
+        <f t="shared" si="12"/>
+        <v>41435.879999999997</v>
       </c>
       <c r="H182" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I182" s="9">
+        <f t="shared" si="15"/>
+        <v>3094.22</v>
+      </c>
+      <c r="J182" s="9">
         <f t="shared" si="14"/>
-        <v>3094.22</v>
-      </c>
-      <c r="J182" s="9">
-        <f t="shared" si="13"/>
         <v>37015.299999999996</v>
       </c>
     </row>
@@ -7374,23 +7374,23 @@
         <v>145000</v>
       </c>
       <c r="F183" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48385</v>
       </c>
       <c r="G183" s="9">
-        <f t="shared" si="11"/>
-        <v>42009.5</v>
+        <f t="shared" si="12"/>
+        <v>42009.479999999996</v>
       </c>
       <c r="H183" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I183" s="9">
+        <f t="shared" si="15"/>
+        <v>3086.4</v>
+      </c>
+      <c r="J183" s="9">
         <f t="shared" si="14"/>
-        <v>3086.4</v>
-      </c>
-      <c r="J183" s="9">
-        <f t="shared" si="13"/>
         <v>37162.269999999997</v>
       </c>
     </row>
@@ -7411,23 +7411,23 @@
         <v>142500</v>
       </c>
       <c r="F184" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48415</v>
       </c>
       <c r="G184" s="9">
-        <f t="shared" si="11"/>
-        <v>42590.92</v>
+        <f t="shared" si="12"/>
+        <v>42590.899999999994</v>
       </c>
       <c r="H184" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I184" s="9">
+        <f t="shared" si="15"/>
+        <v>3078.58</v>
+      </c>
+      <c r="J184" s="9">
         <f t="shared" si="14"/>
-        <v>3078.58</v>
-      </c>
-      <c r="J184" s="9">
-        <f t="shared" si="13"/>
         <v>37308.869999999995</v>
       </c>
     </row>
@@ -7448,23 +7448,23 @@
         <v>140000</v>
       </c>
       <c r="F185" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48446</v>
       </c>
       <c r="G185" s="9">
-        <f t="shared" si="11"/>
-        <v>43180.159999999996</v>
+        <f t="shared" si="12"/>
+        <v>43180.139999999992</v>
       </c>
       <c r="H185" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I185" s="9">
+        <f t="shared" si="15"/>
+        <v>3070.76</v>
+      </c>
+      <c r="J185" s="9">
         <f t="shared" si="14"/>
-        <v>3070.76</v>
-      </c>
-      <c r="J185" s="9">
-        <f t="shared" si="13"/>
         <v>37455.1</v>
       </c>
     </row>
@@ -7485,23 +7485,23 @@
         <v>137500</v>
       </c>
       <c r="F186" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48477</v>
       </c>
       <c r="G186" s="9">
-        <f t="shared" si="11"/>
-        <v>43777.229999999996</v>
+        <f t="shared" si="12"/>
+        <v>43777.209999999992</v>
       </c>
       <c r="H186" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I186" s="9">
+        <f t="shared" si="15"/>
+        <v>3062.93</v>
+      </c>
+      <c r="J186" s="9">
         <f t="shared" si="14"/>
-        <v>3062.93</v>
-      </c>
-      <c r="J186" s="9">
-        <f t="shared" si="13"/>
         <v>37600.949999999997</v>
       </c>
     </row>
@@ -7522,23 +7522,23 @@
         <v>135000</v>
       </c>
       <c r="F187" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48507</v>
       </c>
       <c r="G187" s="9">
-        <f t="shared" si="11"/>
-        <v>44382.109999999993</v>
+        <f t="shared" si="12"/>
+        <v>44382.089999999989</v>
       </c>
       <c r="H187" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I187" s="9">
+        <f t="shared" si="15"/>
+        <v>3055.12</v>
+      </c>
+      <c r="J187" s="9">
         <f t="shared" si="14"/>
-        <v>3055.12</v>
-      </c>
-      <c r="J187" s="9">
-        <f t="shared" si="13"/>
         <v>37746.43</v>
       </c>
     </row>
@@ -7559,23 +7559,23 @@
         <v>132500</v>
       </c>
       <c r="F188" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48538</v>
       </c>
       <c r="G188" s="9">
-        <f t="shared" si="11"/>
-        <v>44994.80999999999</v>
+        <f t="shared" si="12"/>
+        <v>44994.789999999986</v>
       </c>
       <c r="H188" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I188" s="9">
+        <f t="shared" si="15"/>
+        <v>3047.3</v>
+      </c>
+      <c r="J188" s="9">
         <f t="shared" si="14"/>
-        <v>3047.3</v>
-      </c>
-      <c r="J188" s="9">
-        <f t="shared" si="13"/>
         <v>37891.54</v>
       </c>
     </row>
@@ -7596,23 +7596,23 @@
         <v>130000</v>
       </c>
       <c r="F189" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48568</v>
       </c>
       <c r="G189" s="9">
-        <f t="shared" si="11"/>
-        <v>45615.329999999987</v>
+        <f t="shared" si="12"/>
+        <v>45615.309999999983</v>
       </c>
       <c r="H189" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I189" s="9">
+        <f t="shared" si="15"/>
+        <v>3039.48</v>
+      </c>
+      <c r="J189" s="9">
         <f t="shared" si="14"/>
-        <v>3039.48</v>
-      </c>
-      <c r="J189" s="9">
-        <f t="shared" si="13"/>
         <v>38036.280000000006</v>
       </c>
     </row>
@@ -7633,23 +7633,23 @@
         <v>127500</v>
       </c>
       <c r="F190" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48599</v>
       </c>
       <c r="G190" s="9">
-        <f t="shared" si="11"/>
-        <v>46243.679999999986</v>
+        <f t="shared" si="12"/>
+        <v>46243.659999999982</v>
       </c>
       <c r="H190" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I190" s="9">
+        <f t="shared" si="15"/>
+        <v>3031.65</v>
+      </c>
+      <c r="J190" s="9">
         <f t="shared" si="14"/>
-        <v>3031.65</v>
-      </c>
-      <c r="J190" s="9">
-        <f t="shared" si="13"/>
         <v>38180.640000000007</v>
       </c>
     </row>
@@ -7670,23 +7670,23 @@
         <v>125000</v>
       </c>
       <c r="F191" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48630</v>
       </c>
       <c r="G191" s="9">
-        <f t="shared" si="11"/>
-        <v>46879.849999999984</v>
+        <f t="shared" si="12"/>
+        <v>46879.82999999998</v>
       </c>
       <c r="H191" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I191" s="9">
+        <f t="shared" si="15"/>
+        <v>3023.83</v>
+      </c>
+      <c r="J191" s="9">
         <f t="shared" si="14"/>
-        <v>3023.83</v>
-      </c>
-      <c r="J191" s="9">
-        <f t="shared" si="13"/>
         <v>38324.630000000005</v>
       </c>
     </row>
@@ -7707,23 +7707,23 @@
         <v>122500</v>
       </c>
       <c r="F192" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48658</v>
       </c>
       <c r="G192" s="9">
-        <f t="shared" si="11"/>
-        <v>47523.829999999987</v>
+        <f t="shared" si="12"/>
+        <v>47523.809999999983</v>
       </c>
       <c r="H192" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I192" s="9">
+        <f t="shared" si="15"/>
+        <v>3016.02</v>
+      </c>
+      <c r="J192" s="9">
         <f t="shared" si="14"/>
-        <v>3016.02</v>
-      </c>
-      <c r="J192" s="9">
-        <f t="shared" si="13"/>
         <v>38468.25</v>
       </c>
     </row>
@@ -7744,23 +7744,23 @@
         <v>120000</v>
       </c>
       <c r="F193" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48689</v>
       </c>
       <c r="G193" s="9">
-        <f t="shared" si="11"/>
-        <v>48175.62999999999</v>
+        <f t="shared" si="12"/>
+        <v>48175.609999999986</v>
       </c>
       <c r="H193" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I193" s="9">
+        <f t="shared" si="15"/>
+        <v>3008.2</v>
+      </c>
+      <c r="J193" s="9">
         <f t="shared" si="14"/>
-        <v>3008.2</v>
-      </c>
-      <c r="J193" s="9">
-        <f t="shared" si="13"/>
         <v>38611.5</v>
       </c>
     </row>
@@ -7781,23 +7781,23 @@
         <v>117500</v>
       </c>
       <c r="F194" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48719</v>
       </c>
       <c r="G194" s="9">
-        <f t="shared" si="11"/>
-        <v>48835.249999999993</v>
+        <f t="shared" si="12"/>
+        <v>48835.229999999989</v>
       </c>
       <c r="H194" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I194" s="9">
+        <f t="shared" si="15"/>
+        <v>3000.38</v>
+      </c>
+      <c r="J194" s="9">
         <f t="shared" si="14"/>
-        <v>3000.38</v>
-      </c>
-      <c r="J194" s="9">
-        <f t="shared" si="13"/>
         <v>38754.379999999997</v>
       </c>
     </row>
@@ -7818,23 +7818,23 @@
         <v>115000</v>
       </c>
       <c r="F195" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48750</v>
       </c>
       <c r="G195" s="9">
-        <f t="shared" si="11"/>
-        <v>49502.69999999999</v>
+        <f t="shared" si="12"/>
+        <v>49502.679999999986</v>
       </c>
       <c r="H195" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3660</v>
       </c>
       <c r="I195" s="9">
+        <f t="shared" si="15"/>
+        <v>2992.55</v>
+      </c>
+      <c r="J195" s="9">
         <f t="shared" si="14"/>
-        <v>2992.55</v>
-      </c>
-      <c r="J195" s="9">
-        <f t="shared" si="13"/>
         <v>38896.879999999997</v>
       </c>
     </row>
@@ -7855,23 +7855,23 @@
         <v>112500</v>
       </c>
       <c r="F196" s="10">
-        <f t="shared" ref="F196:F241" si="15">DATE(YEAR(F195),MONTH(F195)+1,DAY(F195))</f>
+        <f t="shared" ref="F196:F241" si="16">DATE(YEAR(F195),MONTH(F195)+1,DAY(F195))</f>
         <v>48780</v>
       </c>
       <c r="G196" s="9">
-        <f t="shared" ref="G196:G241" si="16">G195+H195-I196</f>
-        <v>50177.969999999987</v>
+        <f t="shared" ref="G196:G241" si="17">G195+H195-I196</f>
+        <v>50177.949999999983</v>
       </c>
       <c r="H196" s="9">
-        <f t="shared" ref="H196:H241" si="17">H195</f>
+        <f t="shared" ref="H196:H241" si="18">H195</f>
         <v>3660</v>
       </c>
       <c r="I196" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2984.73</v>
       </c>
       <c r="J196" s="9">
-        <f t="shared" ref="J196:J241" si="18">J195+I196-B196</f>
+        <f t="shared" ref="J196:J241" si="19">J195+I196-B196</f>
         <v>39039.01</v>
       </c>
     </row>
@@ -7892,23 +7892,23 @@
         <v>110000</v>
       </c>
       <c r="F197" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48811</v>
       </c>
       <c r="G197" s="9">
-        <f t="shared" si="16"/>
-        <v>50861.049999999988</v>
+        <f t="shared" si="17"/>
+        <v>50861.029999999984</v>
       </c>
       <c r="H197" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I197" s="9">
-        <f t="shared" ref="I197:I241" si="19">IF(G196+H196&gt;ROUND(B197*1.05,2),ROUND(B197*1.05,2),G196+H196)</f>
+        <f t="shared" ref="I197:I241" si="20">IF(G196+H196&gt;ROUND(B197*1.05,2),ROUND(B197*1.05,2),G196+H196)</f>
         <v>2976.92</v>
       </c>
       <c r="J197" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39180.770000000004</v>
       </c>
     </row>
@@ -7929,23 +7929,23 @@
         <v>107500</v>
       </c>
       <c r="F198" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48842</v>
       </c>
       <c r="G198" s="9">
-        <f t="shared" si="16"/>
-        <v>51551.94999999999</v>
+        <f t="shared" si="17"/>
+        <v>51551.929999999986</v>
       </c>
       <c r="H198" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I198" s="9">
+        <f t="shared" si="20"/>
+        <v>2969.1</v>
+      </c>
+      <c r="J198" s="9">
         <f t="shared" si="19"/>
-        <v>2969.1</v>
-      </c>
-      <c r="J198" s="9">
-        <f t="shared" si="18"/>
         <v>39322.160000000003</v>
       </c>
     </row>
@@ -7966,23 +7966,23 @@
         <v>105000</v>
       </c>
       <c r="F199" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48872</v>
       </c>
       <c r="G199" s="9">
-        <f t="shared" si="16"/>
-        <v>52250.679999999993</v>
+        <f t="shared" si="17"/>
+        <v>52250.659999999989</v>
       </c>
       <c r="H199" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I199" s="9">
+        <f t="shared" si="20"/>
+        <v>2961.27</v>
+      </c>
+      <c r="J199" s="9">
         <f t="shared" si="19"/>
-        <v>2961.27</v>
-      </c>
-      <c r="J199" s="9">
-        <f t="shared" si="18"/>
         <v>39463.17</v>
       </c>
     </row>
@@ -8003,23 +8003,23 @@
         <v>102500</v>
       </c>
       <c r="F200" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48903</v>
       </c>
       <c r="G200" s="9">
-        <f t="shared" si="16"/>
-        <v>52957.229999999996</v>
+        <f t="shared" si="17"/>
+        <v>52957.209999999992</v>
       </c>
       <c r="H200" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I200" s="9">
+        <f t="shared" si="20"/>
+        <v>2953.45</v>
+      </c>
+      <c r="J200" s="9">
         <f t="shared" si="19"/>
-        <v>2953.45</v>
-      </c>
-      <c r="J200" s="9">
-        <f t="shared" si="18"/>
         <v>39603.81</v>
       </c>
     </row>
@@ -8040,23 +8040,23 @@
         <v>100000</v>
       </c>
       <c r="F201" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48933</v>
       </c>
       <c r="G201" s="9">
-        <f t="shared" si="16"/>
-        <v>53671.6</v>
+        <f t="shared" si="17"/>
+        <v>53671.579999999994</v>
       </c>
       <c r="H201" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I201" s="9">
+        <f t="shared" si="20"/>
+        <v>2945.63</v>
+      </c>
+      <c r="J201" s="9">
         <f t="shared" si="19"/>
-        <v>2945.63</v>
-      </c>
-      <c r="J201" s="9">
-        <f t="shared" si="18"/>
         <v>39744.079999999994</v>
       </c>
     </row>
@@ -8077,23 +8077,23 @@
         <v>97500</v>
       </c>
       <c r="F202" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48964</v>
       </c>
       <c r="G202" s="9">
-        <f t="shared" si="16"/>
-        <v>54393.78</v>
+        <f t="shared" si="17"/>
+        <v>54393.759999999995</v>
       </c>
       <c r="H202" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I202" s="9">
+        <f t="shared" si="20"/>
+        <v>2937.82</v>
+      </c>
+      <c r="J202" s="9">
         <f t="shared" si="19"/>
-        <v>2937.82</v>
-      </c>
-      <c r="J202" s="9">
-        <f t="shared" si="18"/>
         <v>39883.979999999996</v>
       </c>
     </row>
@@ -8114,23 +8114,23 @@
         <v>95000</v>
       </c>
       <c r="F203" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48995</v>
       </c>
       <c r="G203" s="9">
-        <f t="shared" si="16"/>
-        <v>55123.79</v>
+        <f t="shared" si="17"/>
+        <v>55123.77</v>
       </c>
       <c r="H203" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I203" s="9">
+        <f t="shared" si="20"/>
+        <v>2929.99</v>
+      </c>
+      <c r="J203" s="9">
         <f t="shared" si="19"/>
-        <v>2929.99</v>
-      </c>
-      <c r="J203" s="9">
-        <f t="shared" si="18"/>
         <v>40023.499999999993</v>
       </c>
     </row>
@@ -8151,23 +8151,23 @@
         <v>92500</v>
       </c>
       <c r="F204" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49023</v>
       </c>
       <c r="G204" s="9">
-        <f t="shared" si="16"/>
-        <v>55861.62</v>
+        <f t="shared" si="17"/>
+        <v>55861.599999999999</v>
       </c>
       <c r="H204" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I204" s="9">
+        <f t="shared" si="20"/>
+        <v>2922.17</v>
+      </c>
+      <c r="J204" s="9">
         <f t="shared" si="19"/>
-        <v>2922.17</v>
-      </c>
-      <c r="J204" s="9">
-        <f t="shared" si="18"/>
         <v>40162.649999999994</v>
       </c>
     </row>
@@ -8188,23 +8188,23 @@
         <v>90000</v>
       </c>
       <c r="F205" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49054</v>
       </c>
       <c r="G205" s="9">
-        <f t="shared" si="16"/>
-        <v>56607.270000000004</v>
+        <f t="shared" si="17"/>
+        <v>56607.25</v>
       </c>
       <c r="H205" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I205" s="9">
+        <f t="shared" si="20"/>
+        <v>2914.35</v>
+      </c>
+      <c r="J205" s="9">
         <f t="shared" si="19"/>
-        <v>2914.35</v>
-      </c>
-      <c r="J205" s="9">
-        <f t="shared" si="18"/>
         <v>40301.429999999993</v>
       </c>
     </row>
@@ -8225,23 +8225,23 @@
         <v>87500</v>
       </c>
       <c r="F206" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49084</v>
       </c>
       <c r="G206" s="9">
-        <f t="shared" si="16"/>
-        <v>57360.73</v>
+        <f t="shared" si="17"/>
+        <v>57360.71</v>
       </c>
       <c r="H206" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I206" s="9">
+        <f t="shared" si="20"/>
+        <v>2906.54</v>
+      </c>
+      <c r="J206" s="9">
         <f t="shared" si="19"/>
-        <v>2906.54</v>
-      </c>
-      <c r="J206" s="9">
-        <f t="shared" si="18"/>
         <v>40439.839999999997</v>
       </c>
     </row>
@@ -8262,23 +8262,23 @@
         <v>85000</v>
       </c>
       <c r="F207" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49115</v>
       </c>
       <c r="G207" s="9">
-        <f t="shared" si="16"/>
-        <v>58122.020000000004</v>
+        <f t="shared" si="17"/>
+        <v>58122</v>
       </c>
       <c r="H207" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I207" s="9">
+        <f t="shared" si="20"/>
+        <v>2898.71</v>
+      </c>
+      <c r="J207" s="9">
         <f t="shared" si="19"/>
-        <v>2898.71</v>
-      </c>
-      <c r="J207" s="9">
-        <f t="shared" si="18"/>
         <v>40577.869999999995</v>
       </c>
     </row>
@@ -8299,23 +8299,23 @@
         <v>82500</v>
       </c>
       <c r="F208" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49145</v>
       </c>
       <c r="G208" s="9">
-        <f t="shared" si="16"/>
-        <v>58891.130000000005</v>
+        <f t="shared" si="17"/>
+        <v>58891.11</v>
       </c>
       <c r="H208" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I208" s="9">
+        <f t="shared" si="20"/>
+        <v>2890.89</v>
+      </c>
+      <c r="J208" s="9">
         <f t="shared" si="19"/>
-        <v>2890.89</v>
-      </c>
-      <c r="J208" s="9">
-        <f t="shared" si="18"/>
         <v>40715.529999999992</v>
       </c>
     </row>
@@ -8336,23 +8336,23 @@
         <v>80000</v>
       </c>
       <c r="F209" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49176</v>
       </c>
       <c r="G209" s="9">
-        <f t="shared" si="16"/>
-        <v>59668.060000000005</v>
+        <f t="shared" si="17"/>
+        <v>59668.04</v>
       </c>
       <c r="H209" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I209" s="9">
+        <f t="shared" si="20"/>
+        <v>2883.07</v>
+      </c>
+      <c r="J209" s="9">
         <f t="shared" si="19"/>
-        <v>2883.07</v>
-      </c>
-      <c r="J209" s="9">
-        <f t="shared" si="18"/>
         <v>40852.819999999992</v>
       </c>
     </row>
@@ -8373,23 +8373,23 @@
         <v>77500</v>
       </c>
       <c r="F210" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49207</v>
       </c>
       <c r="G210" s="9">
-        <f t="shared" si="16"/>
-        <v>60452.810000000005</v>
+        <f t="shared" si="17"/>
+        <v>60452.79</v>
       </c>
       <c r="H210" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I210" s="9">
+        <f t="shared" si="20"/>
+        <v>2875.25</v>
+      </c>
+      <c r="J210" s="9">
         <f t="shared" si="19"/>
-        <v>2875.25</v>
-      </c>
-      <c r="J210" s="9">
-        <f t="shared" si="18"/>
         <v>40989.739999999991</v>
       </c>
     </row>
@@ -8410,23 +8410,23 @@
         <v>75000</v>
       </c>
       <c r="F211" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49237</v>
       </c>
       <c r="G211" s="9">
-        <f t="shared" si="16"/>
-        <v>61245.380000000005</v>
+        <f t="shared" si="17"/>
+        <v>61245.36</v>
       </c>
       <c r="H211" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I211" s="9">
+        <f t="shared" si="20"/>
+        <v>2867.43</v>
+      </c>
+      <c r="J211" s="9">
         <f t="shared" si="19"/>
-        <v>2867.43</v>
-      </c>
-      <c r="J211" s="9">
-        <f t="shared" si="18"/>
         <v>41126.279999999992</v>
       </c>
     </row>
@@ -8447,23 +8447,23 @@
         <v>72500</v>
       </c>
       <c r="F212" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49268</v>
       </c>
       <c r="G212" s="9">
-        <f t="shared" si="16"/>
-        <v>62045.770000000004</v>
+        <f t="shared" si="17"/>
+        <v>62045.75</v>
       </c>
       <c r="H212" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I212" s="9">
+        <f t="shared" si="20"/>
+        <v>2859.61</v>
+      </c>
+      <c r="J212" s="9">
         <f t="shared" si="19"/>
-        <v>2859.61</v>
-      </c>
-      <c r="J212" s="9">
-        <f t="shared" si="18"/>
         <v>41262.44999999999</v>
       </c>
     </row>
@@ -8484,23 +8484,23 @@
         <v>70000</v>
       </c>
       <c r="F213" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49298</v>
       </c>
       <c r="G213" s="9">
-        <f t="shared" si="16"/>
-        <v>62853.98</v>
+        <f t="shared" si="17"/>
+        <v>62853.96</v>
       </c>
       <c r="H213" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I213" s="9">
+        <f t="shared" si="20"/>
+        <v>2851.79</v>
+      </c>
+      <c r="J213" s="9">
         <f t="shared" si="19"/>
-        <v>2851.79</v>
-      </c>
-      <c r="J213" s="9">
-        <f t="shared" si="18"/>
         <v>41398.249999999993</v>
       </c>
     </row>
@@ -8521,23 +8521,23 @@
         <v>67500</v>
       </c>
       <c r="F214" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49329</v>
       </c>
       <c r="G214" s="9">
-        <f t="shared" si="16"/>
-        <v>63670.010000000009</v>
+        <f t="shared" si="17"/>
+        <v>63669.989999999991</v>
       </c>
       <c r="H214" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I214" s="9">
+        <f t="shared" si="20"/>
+        <v>2843.97</v>
+      </c>
+      <c r="J214" s="9">
         <f t="shared" si="19"/>
-        <v>2843.97</v>
-      </c>
-      <c r="J214" s="9">
-        <f t="shared" si="18"/>
         <v>41533.679999999993</v>
       </c>
     </row>
@@ -8558,23 +8558,23 @@
         <v>65000</v>
       </c>
       <c r="F215" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49360</v>
       </c>
       <c r="G215" s="9">
-        <f t="shared" si="16"/>
-        <v>64493.87000000001</v>
+        <f t="shared" si="17"/>
+        <v>64493.849999999991</v>
       </c>
       <c r="H215" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I215" s="9">
+        <f t="shared" si="20"/>
+        <v>2836.14</v>
+      </c>
+      <c r="J215" s="9">
         <f t="shared" si="19"/>
-        <v>2836.14</v>
-      </c>
-      <c r="J215" s="9">
-        <f t="shared" si="18"/>
         <v>41668.729999999996</v>
       </c>
     </row>
@@ -8595,23 +8595,23 @@
         <v>62500</v>
       </c>
       <c r="F216" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49388</v>
       </c>
       <c r="G216" s="9">
-        <f t="shared" si="16"/>
-        <v>65325.540000000008</v>
+        <f t="shared" si="17"/>
+        <v>65325.51999999999</v>
       </c>
       <c r="H216" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I216" s="9">
+        <f t="shared" si="20"/>
+        <v>2828.33</v>
+      </c>
+      <c r="J216" s="9">
         <f t="shared" si="19"/>
-        <v>2828.33</v>
-      </c>
-      <c r="J216" s="9">
-        <f t="shared" si="18"/>
         <v>41803.409999999996</v>
       </c>
     </row>
@@ -8632,23 +8632,23 @@
         <v>60000</v>
       </c>
       <c r="F217" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49419</v>
       </c>
       <c r="G217" s="9">
-        <f t="shared" si="16"/>
-        <v>66165.030000000013</v>
+        <f t="shared" si="17"/>
+        <v>66165.009999999995</v>
       </c>
       <c r="H217" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I217" s="9">
+        <f t="shared" si="20"/>
+        <v>2820.51</v>
+      </c>
+      <c r="J217" s="9">
         <f t="shared" si="19"/>
-        <v>2820.51</v>
-      </c>
-      <c r="J217" s="9">
-        <f t="shared" si="18"/>
         <v>41937.72</v>
       </c>
     </row>
@@ -8669,23 +8669,23 @@
         <v>57500</v>
       </c>
       <c r="F218" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49449</v>
       </c>
       <c r="G218" s="9">
-        <f t="shared" si="16"/>
-        <v>67012.340000000011</v>
+        <f t="shared" si="17"/>
+        <v>67012.319999999992</v>
       </c>
       <c r="H218" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I218" s="9">
+        <f t="shared" si="20"/>
+        <v>2812.69</v>
+      </c>
+      <c r="J218" s="9">
         <f t="shared" si="19"/>
-        <v>2812.69</v>
-      </c>
-      <c r="J218" s="9">
-        <f t="shared" si="18"/>
         <v>42071.66</v>
       </c>
     </row>
@@ -8706,23 +8706,23 @@
         <v>55000</v>
       </c>
       <c r="F219" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49480</v>
       </c>
       <c r="G219" s="9">
-        <f t="shared" si="16"/>
-        <v>67867.470000000016</v>
+        <f t="shared" si="17"/>
+        <v>67867.45</v>
       </c>
       <c r="H219" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I219" s="9">
+        <f t="shared" si="20"/>
+        <v>2804.87</v>
+      </c>
+      <c r="J219" s="9">
         <f t="shared" si="19"/>
-        <v>2804.87</v>
-      </c>
-      <c r="J219" s="9">
-        <f t="shared" si="18"/>
         <v>42205.23</v>
       </c>
     </row>
@@ -8743,23 +8743,23 @@
         <v>52500</v>
       </c>
       <c r="F220" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49510</v>
       </c>
       <c r="G220" s="9">
-        <f t="shared" si="16"/>
-        <v>68730.430000000022</v>
+        <f t="shared" si="17"/>
+        <v>68730.41</v>
       </c>
       <c r="H220" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I220" s="9">
+        <f t="shared" si="20"/>
+        <v>2797.04</v>
+      </c>
+      <c r="J220" s="9">
         <f t="shared" si="19"/>
-        <v>2797.04</v>
-      </c>
-      <c r="J220" s="9">
-        <f t="shared" si="18"/>
         <v>42338.420000000006</v>
       </c>
     </row>
@@ -8780,23 +8780,23 @@
         <v>50000</v>
       </c>
       <c r="F221" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49541</v>
       </c>
       <c r="G221" s="9">
-        <f t="shared" si="16"/>
-        <v>69601.200000000026</v>
+        <f t="shared" si="17"/>
+        <v>69601.180000000008</v>
       </c>
       <c r="H221" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I221" s="9">
+        <f t="shared" si="20"/>
+        <v>2789.23</v>
+      </c>
+      <c r="J221" s="9">
         <f t="shared" si="19"/>
-        <v>2789.23</v>
-      </c>
-      <c r="J221" s="9">
-        <f t="shared" si="18"/>
         <v>42471.240000000005</v>
       </c>
     </row>
@@ -8817,23 +8817,23 @@
         <v>47500</v>
       </c>
       <c r="F222" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49572</v>
       </c>
       <c r="G222" s="9">
-        <f t="shared" si="16"/>
-        <v>70479.790000000023</v>
+        <f t="shared" si="17"/>
+        <v>70479.77</v>
       </c>
       <c r="H222" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I222" s="9">
+        <f t="shared" si="20"/>
+        <v>2781.41</v>
+      </c>
+      <c r="J222" s="9">
         <f t="shared" si="19"/>
-        <v>2781.41</v>
-      </c>
-      <c r="J222" s="9">
-        <f t="shared" si="18"/>
         <v>42603.69000000001</v>
       </c>
     </row>
@@ -8854,23 +8854,23 @@
         <v>45000</v>
       </c>
       <c r="F223" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49602</v>
       </c>
       <c r="G223" s="9">
-        <f t="shared" si="16"/>
-        <v>71366.200000000026</v>
+        <f t="shared" si="17"/>
+        <v>71366.180000000008</v>
       </c>
       <c r="H223" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I223" s="9">
+        <f t="shared" si="20"/>
+        <v>2773.59</v>
+      </c>
+      <c r="J223" s="9">
         <f t="shared" si="19"/>
-        <v>2773.59</v>
-      </c>
-      <c r="J223" s="9">
-        <f t="shared" si="18"/>
         <v>42735.770000000011</v>
       </c>
     </row>
@@ -8891,23 +8891,23 @@
         <v>42500</v>
       </c>
       <c r="F224" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49633</v>
       </c>
       <c r="G224" s="9">
-        <f t="shared" si="16"/>
-        <v>72260.440000000031</v>
+        <f t="shared" si="17"/>
+        <v>72260.420000000013</v>
       </c>
       <c r="H224" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I224" s="9">
+        <f t="shared" si="20"/>
+        <v>2765.76</v>
+      </c>
+      <c r="J224" s="9">
         <f t="shared" si="19"/>
-        <v>2765.76</v>
-      </c>
-      <c r="J224" s="9">
-        <f t="shared" si="18"/>
         <v>42867.470000000016</v>
       </c>
     </row>
@@ -8928,23 +8928,23 @@
         <v>40000</v>
       </c>
       <c r="F225" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49663</v>
       </c>
       <c r="G225" s="9">
-        <f t="shared" si="16"/>
-        <v>73162.500000000029</v>
+        <f t="shared" si="17"/>
+        <v>73162.48000000001</v>
       </c>
       <c r="H225" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I225" s="9">
+        <f t="shared" si="20"/>
+        <v>2757.94</v>
+      </c>
+      <c r="J225" s="9">
         <f t="shared" si="19"/>
-        <v>2757.94</v>
-      </c>
-      <c r="J225" s="9">
-        <f t="shared" si="18"/>
         <v>42998.800000000017</v>
       </c>
     </row>
@@ -8965,23 +8965,23 @@
         <v>37500</v>
       </c>
       <c r="F226" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49694</v>
       </c>
       <c r="G226" s="9">
-        <f t="shared" si="16"/>
-        <v>74072.370000000024</v>
+        <f t="shared" si="17"/>
+        <v>74072.350000000006</v>
       </c>
       <c r="H226" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I226" s="9">
+        <f t="shared" si="20"/>
+        <v>2750.13</v>
+      </c>
+      <c r="J226" s="9">
         <f t="shared" si="19"/>
-        <v>2750.13</v>
-      </c>
-      <c r="J226" s="9">
-        <f t="shared" si="18"/>
         <v>43129.760000000017</v>
       </c>
     </row>
@@ -9002,23 +9002,23 @@
         <v>35000</v>
       </c>
       <c r="F227" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49725</v>
       </c>
       <c r="G227" s="9">
-        <f t="shared" si="16"/>
-        <v>74990.060000000027</v>
+        <f t="shared" si="17"/>
+        <v>74990.040000000008</v>
       </c>
       <c r="H227" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I227" s="9">
+        <f t="shared" si="20"/>
+        <v>2742.31</v>
+      </c>
+      <c r="J227" s="9">
         <f t="shared" si="19"/>
-        <v>2742.31</v>
-      </c>
-      <c r="J227" s="9">
-        <f t="shared" si="18"/>
         <v>43260.350000000013</v>
       </c>
     </row>
@@ -9039,23 +9039,23 @@
         <v>32500</v>
       </c>
       <c r="F228" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49754</v>
       </c>
       <c r="G228" s="9">
-        <f t="shared" si="16"/>
-        <v>75915.580000000031</v>
+        <f t="shared" si="17"/>
+        <v>75915.560000000012</v>
       </c>
       <c r="H228" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I228" s="9">
+        <f t="shared" si="20"/>
+        <v>2734.48</v>
+      </c>
+      <c r="J228" s="9">
         <f t="shared" si="19"/>
-        <v>2734.48</v>
-      </c>
-      <c r="J228" s="9">
-        <f t="shared" si="18"/>
         <v>43390.560000000019</v>
       </c>
     </row>
@@ -9076,23 +9076,23 @@
         <v>30000</v>
       </c>
       <c r="F229" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49785</v>
       </c>
       <c r="G229" s="9">
-        <f t="shared" si="16"/>
-        <v>76848.920000000027</v>
+        <f t="shared" si="17"/>
+        <v>76848.900000000009</v>
       </c>
       <c r="H229" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I229" s="9">
+        <f t="shared" si="20"/>
+        <v>2726.66</v>
+      </c>
+      <c r="J229" s="9">
         <f t="shared" si="19"/>
-        <v>2726.66</v>
-      </c>
-      <c r="J229" s="9">
-        <f t="shared" si="18"/>
         <v>43520.400000000016</v>
       </c>
     </row>
@@ -9113,23 +9113,23 @@
         <v>27500</v>
       </c>
       <c r="F230" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49815</v>
       </c>
       <c r="G230" s="9">
-        <f t="shared" si="16"/>
-        <v>77790.070000000022</v>
+        <f t="shared" si="17"/>
+        <v>77790.05</v>
       </c>
       <c r="H230" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I230" s="9">
+        <f t="shared" si="20"/>
+        <v>2718.85</v>
+      </c>
+      <c r="J230" s="9">
         <f t="shared" si="19"/>
-        <v>2718.85</v>
-      </c>
-      <c r="J230" s="9">
-        <f t="shared" si="18"/>
         <v>43649.870000000017</v>
       </c>
     </row>
@@ -9150,23 +9150,23 @@
         <v>25000</v>
       </c>
       <c r="F231" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49846</v>
       </c>
       <c r="G231" s="9">
-        <f t="shared" si="16"/>
-        <v>78739.040000000023</v>
+        <f t="shared" si="17"/>
+        <v>78739.02</v>
       </c>
       <c r="H231" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I231" s="9">
+        <f t="shared" si="20"/>
+        <v>2711.03</v>
+      </c>
+      <c r="J231" s="9">
         <f t="shared" si="19"/>
-        <v>2711.03</v>
-      </c>
-      <c r="J231" s="9">
-        <f t="shared" si="18"/>
         <v>43778.970000000016</v>
       </c>
     </row>
@@ -9187,23 +9187,23 @@
         <v>22500</v>
       </c>
       <c r="F232" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49876</v>
       </c>
       <c r="G232" s="9">
-        <f t="shared" si="16"/>
-        <v>79695.840000000026</v>
+        <f t="shared" si="17"/>
+        <v>79695.820000000007</v>
       </c>
       <c r="H232" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I232" s="9">
+        <f t="shared" si="20"/>
+        <v>2703.2</v>
+      </c>
+      <c r="J232" s="9">
         <f t="shared" si="19"/>
-        <v>2703.2</v>
-      </c>
-      <c r="J232" s="9">
-        <f t="shared" si="18"/>
         <v>43907.69000000001</v>
       </c>
     </row>
@@ -9224,23 +9224,23 @@
         <v>20000</v>
       </c>
       <c r="F233" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49907</v>
       </c>
       <c r="G233" s="9">
-        <f t="shared" si="16"/>
-        <v>80660.460000000021</v>
+        <f t="shared" si="17"/>
+        <v>80660.44</v>
       </c>
       <c r="H233" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I233" s="9">
+        <f t="shared" si="20"/>
+        <v>2695.38</v>
+      </c>
+      <c r="J233" s="9">
         <f t="shared" si="19"/>
-        <v>2695.38</v>
-      </c>
-      <c r="J233" s="9">
-        <f t="shared" si="18"/>
         <v>44036.040000000008</v>
       </c>
     </row>
@@ -9261,23 +9261,23 @@
         <v>17500</v>
       </c>
       <c r="F234" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49938</v>
       </c>
       <c r="G234" s="9">
-        <f t="shared" si="16"/>
-        <v>81632.900000000023</v>
+        <f t="shared" si="17"/>
+        <v>81632.88</v>
       </c>
       <c r="H234" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I234" s="9">
+        <f t="shared" si="20"/>
+        <v>2687.56</v>
+      </c>
+      <c r="J234" s="9">
         <f t="shared" si="19"/>
-        <v>2687.56</v>
-      </c>
-      <c r="J234" s="9">
-        <f t="shared" si="18"/>
         <v>44164.020000000004</v>
       </c>
     </row>
@@ -9298,23 +9298,23 @@
         <v>15000</v>
       </c>
       <c r="F235" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49968</v>
       </c>
       <c r="G235" s="9">
-        <f t="shared" si="16"/>
-        <v>82613.150000000023</v>
+        <f t="shared" si="17"/>
+        <v>82613.13</v>
       </c>
       <c r="H235" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I235" s="9">
+        <f t="shared" si="20"/>
+        <v>2679.75</v>
+      </c>
+      <c r="J235" s="9">
         <f t="shared" si="19"/>
-        <v>2679.75</v>
-      </c>
-      <c r="J235" s="9">
-        <f t="shared" si="18"/>
         <v>44291.630000000005</v>
       </c>
     </row>
@@ -9335,23 +9335,23 @@
         <v>12500</v>
       </c>
       <c r="F236" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49999</v>
       </c>
       <c r="G236" s="9">
-        <f t="shared" si="16"/>
-        <v>83601.230000000025</v>
+        <f t="shared" si="17"/>
+        <v>83601.210000000006</v>
       </c>
       <c r="H236" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I236" s="9">
+        <f t="shared" si="20"/>
+        <v>2671.92</v>
+      </c>
+      <c r="J236" s="9">
         <f t="shared" si="19"/>
-        <v>2671.92</v>
-      </c>
-      <c r="J236" s="9">
-        <f t="shared" si="18"/>
         <v>44418.86</v>
       </c>
     </row>
@@ -9372,23 +9372,23 @@
         <v>10000</v>
       </c>
       <c r="F237" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50029</v>
       </c>
       <c r="G237" s="9">
-        <f t="shared" si="16"/>
-        <v>84597.130000000019</v>
+        <f t="shared" si="17"/>
+        <v>84597.11</v>
       </c>
       <c r="H237" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I237" s="9">
+        <f t="shared" si="20"/>
+        <v>2664.1</v>
+      </c>
+      <c r="J237" s="9">
         <f t="shared" si="19"/>
-        <v>2664.1</v>
-      </c>
-      <c r="J237" s="9">
-        <f t="shared" si="18"/>
         <v>44545.72</v>
       </c>
     </row>
@@ -9409,23 +9409,23 @@
         <v>7500</v>
       </c>
       <c r="F238" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50060</v>
       </c>
       <c r="G238" s="9">
-        <f t="shared" si="16"/>
-        <v>85600.85000000002</v>
+        <f t="shared" si="17"/>
+        <v>85600.83</v>
       </c>
       <c r="H238" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I238" s="9">
+        <f t="shared" si="20"/>
+        <v>2656.28</v>
+      </c>
+      <c r="J238" s="9">
         <f t="shared" si="19"/>
-        <v>2656.28</v>
-      </c>
-      <c r="J238" s="9">
-        <f t="shared" si="18"/>
         <v>44672.21</v>
       </c>
     </row>
@@ -9446,23 +9446,23 @@
         <v>5000</v>
       </c>
       <c r="F239" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50091</v>
       </c>
       <c r="G239" s="9">
-        <f t="shared" si="16"/>
-        <v>86612.390000000014</v>
+        <f t="shared" si="17"/>
+        <v>86612.37</v>
       </c>
       <c r="H239" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I239" s="9">
+        <f t="shared" si="20"/>
+        <v>2648.46</v>
+      </c>
+      <c r="J239" s="9">
         <f t="shared" si="19"/>
-        <v>2648.46</v>
-      </c>
-      <c r="J239" s="9">
-        <f t="shared" si="18"/>
         <v>44798.33</v>
       </c>
     </row>
@@ -9483,23 +9483,23 @@
         <v>2500</v>
       </c>
       <c r="F240" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50119</v>
       </c>
       <c r="G240" s="9">
-        <f t="shared" si="16"/>
-        <v>87631.74000000002</v>
+        <f t="shared" si="17"/>
+        <v>87631.72</v>
       </c>
       <c r="H240" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I240" s="9">
+        <f t="shared" si="20"/>
+        <v>2640.65</v>
+      </c>
+      <c r="J240" s="9">
         <f t="shared" si="19"/>
-        <v>2640.65</v>
-      </c>
-      <c r="J240" s="9">
-        <f t="shared" si="18"/>
         <v>44924.08</v>
       </c>
     </row>
@@ -9520,23 +9520,23 @@
         <v>0</v>
       </c>
       <c r="F241" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50150</v>
       </c>
       <c r="G241" s="9">
-        <f t="shared" si="16"/>
-        <v>88658.920000000013</v>
+        <f t="shared" si="17"/>
+        <v>88658.9</v>
       </c>
       <c r="H241" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660</v>
       </c>
       <c r="I241" s="9">
+        <f t="shared" si="20"/>
+        <v>2632.82</v>
+      </c>
+      <c r="J241" s="9">
         <f t="shared" si="19"/>
-        <v>2632.82</v>
-      </c>
-      <c r="J241" s="9">
-        <f t="shared" si="18"/>
         <v>45049.450000000004</v>
       </c>
     </row>
